--- a/comparison_fos_update.xlsx
+++ b/comparison_fos_update.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="291">
   <si>
     <t>sdg</t>
   </si>
@@ -55,835 +55,838 @@
     <t>SDG_15</t>
   </si>
   <si>
+    <t>removed</t>
+  </si>
+  <si>
     <t>add</t>
   </si>
   <si>
+    <t>23519681</t>
+  </si>
+  <si>
+    <t>93944068</t>
+  </si>
+  <si>
     <t>53002841</t>
   </si>
   <si>
+    <t>141185391</t>
+  </si>
+  <si>
+    <t>2776278397</t>
+  </si>
+  <si>
+    <t>2778361644</t>
+  </si>
+  <si>
+    <t>155987862</t>
+  </si>
+  <si>
+    <t>118694661</t>
+  </si>
+  <si>
+    <t>2780189059</t>
+  </si>
+  <si>
+    <t>59804570</t>
+  </si>
+  <si>
+    <t>121850381</t>
+  </si>
+  <si>
+    <t>139518226</t>
+  </si>
+  <si>
+    <t>2776801807</t>
+  </si>
+  <si>
+    <t>2777472530</t>
+  </si>
+  <si>
+    <t>2780086105</t>
+  </si>
+  <si>
+    <t>33283694</t>
+  </si>
+  <si>
+    <t>63651461</t>
+  </si>
+  <si>
+    <t>116370137</t>
+  </si>
+  <si>
+    <t>2776054349</t>
+  </si>
+  <si>
+    <t>31568149</t>
+  </si>
+  <si>
+    <t>64229544</t>
+  </si>
+  <si>
+    <t>2776500793</t>
+  </si>
+  <si>
+    <t>2779004245</t>
+  </si>
+  <si>
+    <t>2780696901</t>
+  </si>
+  <si>
+    <t>2777380357</t>
+  </si>
+  <si>
+    <t>555313981</t>
+  </si>
+  <si>
+    <t>2780528068</t>
+  </si>
+  <si>
+    <t>39571515</t>
+  </si>
+  <si>
+    <t>182124840</t>
+  </si>
+  <si>
+    <t>2775966360</t>
+  </si>
+  <si>
+    <t>59898753</t>
+  </si>
+  <si>
+    <t>2776596991</t>
+  </si>
+  <si>
+    <t>62158283</t>
+  </si>
+  <si>
+    <t>172817999</t>
+  </si>
+  <si>
+    <t>2776554196</t>
+  </si>
+  <si>
+    <t>2778625682</t>
+  </si>
+  <si>
+    <t>32120771</t>
+  </si>
+  <si>
+    <t>2776978901</t>
+  </si>
+  <si>
+    <t>173795300</t>
+  </si>
+  <si>
+    <t>38774213</t>
+  </si>
+  <si>
+    <t>2777106113</t>
+  </si>
+  <si>
+    <t>2777399377</t>
+  </si>
+  <si>
+    <t>150436541</t>
+  </si>
+  <si>
+    <t>2776285232</t>
+  </si>
+  <si>
+    <t>119249163</t>
+  </si>
+  <si>
+    <t>33411773</t>
+  </si>
+  <si>
+    <t>91354502</t>
+  </si>
+  <si>
+    <t>126408429</t>
+  </si>
+  <si>
+    <t>126589399</t>
+  </si>
+  <si>
+    <t>42731165</t>
+  </si>
+  <si>
+    <t>154575652</t>
+  </si>
+  <si>
+    <t>54625482</t>
+  </si>
+  <si>
+    <t>2776562576</t>
+  </si>
+  <si>
+    <t>20529654</t>
+  </si>
+  <si>
+    <t>2777387638</t>
+  </si>
+  <si>
+    <t>2781208722</t>
+  </si>
+  <si>
+    <t>60989497</t>
+  </si>
+  <si>
+    <t>34070608</t>
+  </si>
+  <si>
+    <t>2780816530</t>
+  </si>
+  <si>
+    <t>2777707638</t>
+  </si>
+  <si>
+    <t>155015343</t>
+  </si>
+  <si>
+    <t>87621631</t>
+  </si>
+  <si>
+    <t>108216600</t>
+  </si>
+  <si>
+    <t>2619416</t>
+  </si>
+  <si>
+    <t>2775841215</t>
+  </si>
+  <si>
+    <t>153427425</t>
+  </si>
+  <si>
+    <t>201401522</t>
+  </si>
+  <si>
+    <t>133382796</t>
+  </si>
+  <si>
+    <t>147103442</t>
+  </si>
+  <si>
+    <t>2777132354</t>
+  </si>
+  <si>
+    <t>2776107028</t>
+  </si>
+  <si>
+    <t>198979508</t>
+  </si>
+  <si>
+    <t>25382069</t>
+  </si>
+  <si>
+    <t>2776492830</t>
+  </si>
+  <si>
+    <t>2779128174</t>
+  </si>
+  <si>
+    <t>97137747</t>
+  </si>
+  <si>
+    <t>15147509</t>
+  </si>
+  <si>
+    <t>139669111</t>
+  </si>
+  <si>
+    <t>192392207</t>
+  </si>
+  <si>
+    <t>89295123</t>
+  </si>
+  <si>
+    <t>126914827</t>
+  </si>
+  <si>
     <t>2775999090</t>
   </si>
   <si>
-    <t>2780816530</t>
-  </si>
-  <si>
-    <t>154575652</t>
-  </si>
-  <si>
-    <t>141185391</t>
-  </si>
-  <si>
-    <t>33283694</t>
-  </si>
-  <si>
-    <t>54625482</t>
-  </si>
-  <si>
-    <t>133382796</t>
-  </si>
-  <si>
-    <t>2777707638</t>
-  </si>
-  <si>
-    <t>172817999</t>
-  </si>
-  <si>
-    <t>42731165</t>
-  </si>
-  <si>
-    <t>2780086105</t>
+    <t>123917164</t>
+  </si>
+  <si>
+    <t>197320908</t>
   </si>
   <si>
     <t>532801124</t>
   </si>
   <si>
-    <t>2780189059</t>
-  </si>
-  <si>
-    <t>2776978901</t>
-  </si>
-  <si>
-    <t>2781208722</t>
+    <t>156086215</t>
+  </si>
+  <si>
+    <t>24518262</t>
+  </si>
+  <si>
+    <t>107394435</t>
+  </si>
+  <si>
+    <t>2780946806</t>
+  </si>
+  <si>
+    <t>28631016</t>
   </si>
   <si>
     <t>152491559</t>
   </si>
   <si>
-    <t>2777106113</t>
-  </si>
-  <si>
-    <t>2780528068</t>
-  </si>
-  <si>
-    <t>197320908</t>
-  </si>
-  <si>
-    <t>25382069</t>
-  </si>
-  <si>
-    <t>2779128174</t>
-  </si>
-  <si>
-    <t>2776107028</t>
-  </si>
-  <si>
     <t>154702282</t>
   </si>
   <si>
-    <t>2780946806</t>
-  </si>
-  <si>
-    <t>2775841215</t>
-  </si>
-  <si>
-    <t>116370137</t>
-  </si>
-  <si>
-    <t>126914827</t>
-  </si>
-  <si>
-    <t>15147509</t>
-  </si>
-  <si>
-    <t>119249163</t>
-  </si>
-  <si>
-    <t>107394435</t>
-  </si>
-  <si>
-    <t>155987862</t>
-  </si>
-  <si>
-    <t>555313981</t>
-  </si>
-  <si>
-    <t>182124840</t>
-  </si>
-  <si>
-    <t>139518226</t>
-  </si>
-  <si>
-    <t>2777132354</t>
-  </si>
-  <si>
-    <t>2780696901</t>
-  </si>
-  <si>
-    <t>139669111</t>
-  </si>
-  <si>
-    <t>91354502</t>
-  </si>
-  <si>
-    <t>150436541</t>
-  </si>
-  <si>
-    <t>198979508</t>
-  </si>
-  <si>
-    <t>126408429</t>
-  </si>
-  <si>
-    <t>153427425</t>
-  </si>
-  <si>
-    <t>38774213</t>
-  </si>
-  <si>
-    <t>23519681</t>
-  </si>
-  <si>
-    <t>118694661</t>
-  </si>
-  <si>
-    <t>39571515</t>
-  </si>
-  <si>
-    <t>60989497</t>
-  </si>
-  <si>
-    <t>2619416</t>
-  </si>
-  <si>
-    <t>2776054349</t>
-  </si>
-  <si>
-    <t>155015343</t>
-  </si>
-  <si>
-    <t>156086215</t>
-  </si>
-  <si>
-    <t>2776596991</t>
-  </si>
-  <si>
-    <t>2779004245</t>
-  </si>
-  <si>
-    <t>33411773</t>
-  </si>
-  <si>
-    <t>64229544</t>
-  </si>
-  <si>
-    <t>2775966360</t>
-  </si>
-  <si>
-    <t>2778361644</t>
-  </si>
-  <si>
-    <t>31568149</t>
-  </si>
-  <si>
-    <t>123917164</t>
-  </si>
-  <si>
-    <t>89295123</t>
-  </si>
-  <si>
-    <t>93944068</t>
-  </si>
-  <si>
-    <t>2776801807</t>
-  </si>
-  <si>
-    <t>24518262</t>
-  </si>
-  <si>
-    <t>2776554196</t>
-  </si>
-  <si>
-    <t>59804570</t>
-  </si>
-  <si>
-    <t>108216600</t>
-  </si>
-  <si>
-    <t>2777472530</t>
-  </si>
-  <si>
-    <t>2777399377</t>
-  </si>
-  <si>
-    <t>121850381</t>
-  </si>
-  <si>
-    <t>2776562576</t>
-  </si>
-  <si>
-    <t>173795300</t>
-  </si>
-  <si>
-    <t>62158283</t>
-  </si>
-  <si>
-    <t>2776278397</t>
-  </si>
-  <si>
-    <t>28631016</t>
-  </si>
-  <si>
-    <t>126589399</t>
-  </si>
-  <si>
-    <t>59898753</t>
-  </si>
-  <si>
-    <t>20529654</t>
-  </si>
-  <si>
-    <t>87621631</t>
-  </si>
-  <si>
-    <t>2778625682</t>
-  </si>
-  <si>
-    <t>2777380357</t>
-  </si>
-  <si>
-    <t>192392207</t>
-  </si>
-  <si>
-    <t>2776285232</t>
-  </si>
-  <si>
-    <t>147103442</t>
-  </si>
-  <si>
-    <t>34070608</t>
-  </si>
-  <si>
-    <t>2777387638</t>
-  </si>
-  <si>
-    <t>2776500793</t>
-  </si>
-  <si>
-    <t>97137747</t>
-  </si>
-  <si>
-    <t>32120771</t>
-  </si>
-  <si>
-    <t>2776492830</t>
-  </si>
-  <si>
-    <t>201401522</t>
-  </si>
-  <si>
-    <t>63651461</t>
-  </si>
-  <si>
     <t>65580899</t>
   </si>
   <si>
+    <t>28362043</t>
+  </si>
+  <si>
     <t>2776266027</t>
   </si>
   <si>
-    <t>28362043</t>
-  </si>
-  <si>
     <t>21790881</t>
   </si>
   <si>
     <t>39464130</t>
   </si>
   <si>
+    <t>182745123</t>
+  </si>
+  <si>
+    <t>7959160</t>
+  </si>
+  <si>
+    <t>198072978</t>
+  </si>
+  <si>
+    <t>14171219</t>
+  </si>
+  <si>
+    <t>29510844</t>
+  </si>
+  <si>
+    <t>5589519</t>
+  </si>
+  <si>
+    <t>53706860</t>
+  </si>
+  <si>
+    <t>205726622</t>
+  </si>
+  <si>
+    <t>156634047</t>
+  </si>
+  <si>
+    <t>175963888</t>
+  </si>
+  <si>
+    <t>172365310</t>
+  </si>
+  <si>
+    <t>174200844</t>
+  </si>
+  <si>
+    <t>2910302653</t>
+  </si>
+  <si>
+    <t>159390177</t>
+  </si>
+  <si>
+    <t>3742959</t>
+  </si>
+  <si>
+    <t>152494472</t>
+  </si>
+  <si>
+    <t>71864017</t>
+  </si>
+  <si>
+    <t>53145804</t>
+  </si>
+  <si>
+    <t>120991184</t>
+  </si>
+  <si>
+    <t>160212601</t>
+  </si>
+  <si>
+    <t>125596622</t>
+  </si>
+  <si>
+    <t>53421856</t>
+  </si>
+  <si>
+    <t>55312793</t>
+  </si>
+  <si>
+    <t>114426456</t>
+  </si>
+  <si>
+    <t>104471815</t>
+  </si>
+  <si>
+    <t>70957220</t>
+  </si>
+  <si>
+    <t>63696750</t>
+  </si>
+  <si>
+    <t>50516716</t>
+  </si>
+  <si>
     <t>100474770</t>
   </si>
   <si>
-    <t>53706860</t>
+    <t>2909722689</t>
+  </si>
+  <si>
+    <t>162902727</t>
   </si>
   <si>
     <t>160934017</t>
   </si>
   <si>
-    <t>182745123</t>
-  </si>
-  <si>
-    <t>2909722689</t>
-  </si>
-  <si>
-    <t>70957220</t>
-  </si>
-  <si>
-    <t>175963888</t>
-  </si>
-  <si>
-    <t>152494472</t>
-  </si>
-  <si>
     <t>152100882</t>
   </si>
   <si>
-    <t>160212601</t>
-  </si>
-  <si>
-    <t>14171219</t>
-  </si>
-  <si>
-    <t>55312793</t>
-  </si>
-  <si>
-    <t>104471815</t>
-  </si>
-  <si>
-    <t>53145804</t>
-  </si>
-  <si>
-    <t>205726622</t>
-  </si>
-  <si>
-    <t>174200844</t>
-  </si>
-  <si>
-    <t>172365310</t>
-  </si>
-  <si>
-    <t>125596622</t>
-  </si>
-  <si>
-    <t>162902727</t>
-  </si>
-  <si>
-    <t>29510844</t>
-  </si>
-  <si>
-    <t>3742959</t>
-  </si>
-  <si>
-    <t>2910302653</t>
-  </si>
-  <si>
-    <t>156634047</t>
-  </si>
-  <si>
-    <t>159390177</t>
-  </si>
-  <si>
-    <t>50516716</t>
-  </si>
-  <si>
-    <t>7959160</t>
-  </si>
-  <si>
-    <t>71864017</t>
-  </si>
-  <si>
-    <t>120991184</t>
-  </si>
-  <si>
-    <t>53421856</t>
-  </si>
-  <si>
     <t>58395597</t>
   </si>
   <si>
-    <t>198072978</t>
-  </si>
-  <si>
-    <t>63696750</t>
-  </si>
-  <si>
-    <t>5589519</t>
-  </si>
-  <si>
-    <t>114426456</t>
-  </si>
-  <si>
     <t>2780339060</t>
   </si>
   <si>
+    <t>Montane ecology</t>
+  </si>
+  <si>
+    <t>Phytogeography</t>
+  </si>
+  <si>
     <t>Plant community</t>
   </si>
   <si>
+    <t>Soil retrogression and degradation</t>
+  </si>
+  <si>
+    <t>Revegetation</t>
+  </si>
+  <si>
+    <t>Yield gap</t>
+  </si>
+  <si>
+    <t>Selection cutting</t>
+  </si>
+  <si>
+    <t>Climax community</t>
+  </si>
+  <si>
+    <t>Soil stabilization</t>
+  </si>
+  <si>
+    <t>Soil governance</t>
+  </si>
+  <si>
+    <t>Certified wood</t>
+  </si>
+  <si>
+    <t>Sclerophyll</t>
+  </si>
+  <si>
+    <t>Pinus radiata</t>
+  </si>
+  <si>
+    <t>Catch crop</t>
+  </si>
+  <si>
+    <t>Forest product</t>
+  </si>
+  <si>
+    <t>Deciduous</t>
+  </si>
+  <si>
+    <t>Tropical agriculture</t>
+  </si>
+  <si>
+    <t>No-till farming</t>
+  </si>
+  <si>
+    <t>Vegetation classification</t>
+  </si>
+  <si>
+    <t>Near-threatened species</t>
+  </si>
+  <si>
+    <t>Habitat destruction</t>
+  </si>
+  <si>
+    <t>Beech</t>
+  </si>
+  <si>
+    <t>Tilth</t>
+  </si>
+  <si>
+    <t>Conventional tillage</t>
+  </si>
+  <si>
+    <t>Rainfed agriculture</t>
+  </si>
+  <si>
+    <t>Tropical rainforest</t>
+  </si>
+  <si>
+    <t>Plant nutrition</t>
+  </si>
+  <si>
+    <t>Undergrowth</t>
+  </si>
+  <si>
+    <t>Soil organic matter</t>
+  </si>
+  <si>
+    <t>Silviculture</t>
+  </si>
+  <si>
+    <t>Shrubland</t>
+  </si>
+  <si>
+    <t>Cultural methods</t>
+  </si>
+  <si>
+    <t>Species translocation</t>
+  </si>
+  <si>
+    <t>Soil functions</t>
+  </si>
+  <si>
+    <t>Evergreen forest</t>
+  </si>
+  <si>
+    <t>High forest</t>
+  </si>
+  <si>
+    <t>Ecosystem engineer</t>
+  </si>
+  <si>
+    <t>Tree breeding</t>
+  </si>
+  <si>
+    <t>Salvage logging</t>
+  </si>
+  <si>
+    <t>Soil fertility</t>
+  </si>
+  <si>
+    <t>Crop simulation model</t>
+  </si>
+  <si>
+    <t>DSSAT</t>
+  </si>
+  <si>
+    <t>Forb</t>
+  </si>
+  <si>
+    <t>Tropical forest</t>
+  </si>
+  <si>
+    <t>Felling</t>
+  </si>
+  <si>
+    <t>Bulk soil</t>
+  </si>
+  <si>
+    <t>Basal area</t>
+  </si>
+  <si>
+    <t>Soil health</t>
+  </si>
+  <si>
+    <t>Umbrella species</t>
+  </si>
+  <si>
+    <t>Environmental soil science</t>
+  </si>
+  <si>
+    <t>Reforestation</t>
+  </si>
+  <si>
+    <t>Community forestry</t>
+  </si>
+  <si>
+    <t>Plant strategies</t>
+  </si>
+  <si>
+    <t>Topsoil</t>
+  </si>
+  <si>
+    <t>Forestry law</t>
+  </si>
+  <si>
+    <t>Intercropping</t>
+  </si>
+  <si>
+    <t>Red List Index</t>
+  </si>
+  <si>
+    <t>Cover crop</t>
+  </si>
+  <si>
+    <t>Forest protection</t>
+  </si>
+  <si>
+    <t>Vascular plant</t>
+  </si>
+  <si>
+    <t>Plant breeding</t>
+  </si>
+  <si>
+    <t>Taiga</t>
+  </si>
+  <si>
+    <t>Tropical and subtropical dry broadleaf forests</t>
+  </si>
+  <si>
+    <t>Rainforest</t>
+  </si>
+  <si>
+    <t>Sustainable forest management</t>
+  </si>
+  <si>
+    <t>Biodiversity hotspot</t>
+  </si>
+  <si>
+    <t>Plant cover</t>
+  </si>
+  <si>
+    <t>Secondary forest</t>
+  </si>
+  <si>
+    <t>Forest inventory</t>
+  </si>
+  <si>
+    <t>Shelterwood cutting</t>
+  </si>
+  <si>
+    <t>Forest dynamics</t>
+  </si>
+  <si>
+    <t>Forest fragmentation</t>
+  </si>
+  <si>
+    <t>Seral community</t>
+  </si>
+  <si>
+    <t>Dipterocarpaceae</t>
+  </si>
+  <si>
+    <t>Scots pine</t>
+  </si>
+  <si>
+    <t>Forestry</t>
+  </si>
+  <si>
+    <t>Conservation reliant species</t>
+  </si>
+  <si>
+    <t>Understory</t>
+  </si>
+  <si>
+    <t>Clearcutting</t>
+  </si>
+  <si>
+    <t>Forest pathology</t>
+  </si>
+  <si>
+    <t>Flagship species</t>
+  </si>
+  <si>
     <t>Joint Forest Management</t>
   </si>
   <si>
-    <t>Forest protection</t>
-  </si>
-  <si>
-    <t>Reforestation</t>
-  </si>
-  <si>
-    <t>Soil retrogression and degradation</t>
-  </si>
-  <si>
-    <t>Deciduous</t>
-  </si>
-  <si>
-    <t>Community forestry</t>
-  </si>
-  <si>
-    <t>Secondary forest</t>
-  </si>
-  <si>
-    <t>Vascular plant</t>
-  </si>
-  <si>
-    <t>Soil functions</t>
-  </si>
-  <si>
-    <t>Environmental soil science</t>
-  </si>
-  <si>
-    <t>Forest product</t>
+    <t>Bumper crop</t>
+  </si>
+  <si>
+    <t>Pioneer species</t>
   </si>
   <si>
     <t>Crop protection</t>
   </si>
   <si>
-    <t>Soil stabilization</t>
-  </si>
-  <si>
-    <t>Tree breeding</t>
-  </si>
-  <si>
-    <t>Intercropping</t>
+    <t>Soil ecology</t>
+  </si>
+  <si>
+    <t>Threatened species</t>
+  </si>
+  <si>
+    <t>Quadrat</t>
+  </si>
+  <si>
+    <t>Plant functional type</t>
+  </si>
+  <si>
+    <t>Forest management</t>
   </si>
   <si>
     <t>Macroecology</t>
   </si>
   <si>
-    <t>Crop simulation model</t>
-  </si>
-  <si>
-    <t>Plant nutrition</t>
-  </si>
-  <si>
-    <t>Pioneer species</t>
-  </si>
-  <si>
-    <t>Seral community</t>
-  </si>
-  <si>
-    <t>Scots pine</t>
-  </si>
-  <si>
-    <t>Forest dynamics</t>
-  </si>
-  <si>
     <t>Temperate deciduous forest</t>
   </si>
   <si>
-    <t>Plant functional type</t>
-  </si>
-  <si>
-    <t>Sustainable forest management</t>
-  </si>
-  <si>
-    <t>No-till farming</t>
-  </si>
-  <si>
-    <t>Flagship species</t>
-  </si>
-  <si>
-    <t>Conservation reliant species</t>
-  </si>
-  <si>
-    <t>Felling</t>
-  </si>
-  <si>
-    <t>Quadrat</t>
-  </si>
-  <si>
-    <t>Selection cutting</t>
-  </si>
-  <si>
-    <t>Tropical rainforest</t>
-  </si>
-  <si>
-    <t>Soil organic matter</t>
-  </si>
-  <si>
-    <t>Sclerophyll</t>
-  </si>
-  <si>
-    <t>Shelterwood cutting</t>
-  </si>
-  <si>
-    <t>Conventional tillage</t>
-  </si>
-  <si>
-    <t>Understory</t>
-  </si>
-  <si>
-    <t>Basal area</t>
-  </si>
-  <si>
-    <t>Forb</t>
-  </si>
-  <si>
-    <t>Forest fragmentation</t>
-  </si>
-  <si>
-    <t>Soil health</t>
-  </si>
-  <si>
-    <t>Biodiversity hotspot</t>
-  </si>
-  <si>
-    <t>Soil fertility</t>
-  </si>
-  <si>
-    <t>Montane ecology</t>
-  </si>
-  <si>
-    <t>Climax community</t>
-  </si>
-  <si>
-    <t>Undergrowth</t>
-  </si>
-  <si>
-    <t>Red List Index</t>
-  </si>
-  <si>
-    <t>Rainforest</t>
-  </si>
-  <si>
-    <t>Vegetation classification</t>
-  </si>
-  <si>
-    <t>Plant breeding</t>
-  </si>
-  <si>
-    <t>Soil ecology</t>
-  </si>
-  <si>
-    <t>Cultural methods</t>
-  </si>
-  <si>
-    <t>Tilth</t>
-  </si>
-  <si>
-    <t>Bulk soil</t>
-  </si>
-  <si>
-    <t>Habitat destruction</t>
-  </si>
-  <si>
-    <t>Silviculture</t>
-  </si>
-  <si>
-    <t>Yield gap</t>
-  </si>
-  <si>
-    <t>Near-threatened species</t>
-  </si>
-  <si>
-    <t>Bumper crop</t>
-  </si>
-  <si>
-    <t>Forest pathology</t>
-  </si>
-  <si>
-    <t>Phytogeography</t>
-  </si>
-  <si>
-    <t>Pinus radiata</t>
-  </si>
-  <si>
-    <t>Threatened species</t>
-  </si>
-  <si>
-    <t>Evergreen forest</t>
-  </si>
-  <si>
-    <t>Soil governance</t>
-  </si>
-  <si>
-    <t>Tropical and subtropical dry broadleaf forests</t>
-  </si>
-  <si>
-    <t>Catch crop</t>
-  </si>
-  <si>
-    <t>DSSAT</t>
-  </si>
-  <si>
-    <t>Certified wood</t>
-  </si>
-  <si>
-    <t>Plant strategies</t>
-  </si>
-  <si>
-    <t>Salvage logging</t>
-  </si>
-  <si>
-    <t>Species translocation</t>
-  </si>
-  <si>
-    <t>Revegetation</t>
-  </si>
-  <si>
-    <t>Forest management</t>
-  </si>
-  <si>
-    <t>Umbrella species</t>
-  </si>
-  <si>
-    <t>Shrubland</t>
-  </si>
-  <si>
-    <t>Topsoil</t>
-  </si>
-  <si>
-    <t>Taiga</t>
-  </si>
-  <si>
-    <t>High forest</t>
-  </si>
-  <si>
-    <t>Rainfed agriculture</t>
-  </si>
-  <si>
-    <t>Clearcutting</t>
-  </si>
-  <si>
-    <t>Tropical forest</t>
-  </si>
-  <si>
-    <t>Forest inventory</t>
-  </si>
-  <si>
-    <t>Cover crop</t>
-  </si>
-  <si>
-    <t>Forestry law</t>
-  </si>
-  <si>
-    <t>Beech</t>
-  </si>
-  <si>
-    <t>Forestry</t>
-  </si>
-  <si>
-    <t>Ecosystem engineer</t>
-  </si>
-  <si>
-    <t>Dipterocarpaceae</t>
-  </si>
-  <si>
-    <t>Plant cover</t>
-  </si>
-  <si>
-    <t>Tropical agriculture</t>
-  </si>
-  <si>
     <t>Soil contamination</t>
   </si>
   <si>
+    <t>Hydric soil</t>
+  </si>
+  <si>
     <t>Membrane bioreactor</t>
   </si>
   <si>
-    <t>Hydric soil</t>
-  </si>
-  <si>
     <t>Deep sea</t>
   </si>
   <si>
     <t>Soil carbon</t>
   </si>
   <si>
+    <t>Soil gradation</t>
+  </si>
+  <si>
+    <t>Soil biodiversity</t>
+  </si>
+  <si>
+    <t>Soil pH</t>
+  </si>
+  <si>
+    <t>Agricultural soil science</t>
+  </si>
+  <si>
+    <t>Soil chemistry</t>
+  </si>
+  <si>
+    <t>Soil series</t>
+  </si>
+  <si>
+    <t>Soil morphology</t>
+  </si>
+  <si>
+    <t>Soil mechanics</t>
+  </si>
+  <si>
+    <t>Soil horizon</t>
+  </si>
+  <si>
+    <t>Soil texture</t>
+  </si>
+  <si>
+    <t>Soil microbiology</t>
+  </si>
+  <si>
+    <t>Unified Soil Classification System</t>
+  </si>
+  <si>
+    <t>SOIL EXPOSURE</t>
+  </si>
+  <si>
+    <t>Soil science</t>
+  </si>
+  <si>
+    <t>Soil survey</t>
+  </si>
+  <si>
+    <t>Soil classification</t>
+  </si>
+  <si>
+    <t>Soil map</t>
+  </si>
+  <si>
+    <t>Soil food web</t>
+  </si>
+  <si>
+    <t>Soil structure</t>
+  </si>
+  <si>
+    <t>World Reference Base for Soil Resources</t>
+  </si>
+  <si>
+    <t>Soil resilience</t>
+  </si>
+  <si>
+    <t>Soil biology</t>
+  </si>
+  <si>
+    <t>National Cooperative Soil Survey</t>
+  </si>
+  <si>
+    <t>Soil thermal properties</t>
+  </si>
+  <si>
+    <t>Digital soil mapping</t>
+  </si>
+  <si>
+    <t>Soil compaction</t>
+  </si>
+  <si>
+    <t>USDA soil taxonomy</t>
+  </si>
+  <si>
+    <t>Soil test</t>
+  </si>
+  <si>
     <t>Soil physics</t>
   </si>
   <si>
-    <t>Soil morphology</t>
+    <t>Soil Pollutants</t>
+  </si>
+  <si>
+    <t>Soil conditioner</t>
   </si>
   <si>
     <t>Soil type</t>
   </si>
   <si>
-    <t>Soil gradation</t>
-  </si>
-  <si>
-    <t>Soil Pollutants</t>
-  </si>
-  <si>
-    <t>Soil compaction</t>
-  </si>
-  <si>
-    <t>Soil texture</t>
-  </si>
-  <si>
-    <t>Soil classification</t>
-  </si>
-  <si>
     <t>Soil color</t>
   </si>
   <si>
-    <t>World Reference Base for Soil Resources</t>
-  </si>
-  <si>
-    <t>Agricultural soil science</t>
-  </si>
-  <si>
-    <t>National Cooperative Soil Survey</t>
-  </si>
-  <si>
-    <t>Digital soil mapping</t>
-  </si>
-  <si>
-    <t>Soil food web</t>
-  </si>
-  <si>
-    <t>Soil mechanics</t>
-  </si>
-  <si>
-    <t>Unified Soil Classification System</t>
-  </si>
-  <si>
-    <t>Soil microbiology</t>
-  </si>
-  <si>
-    <t>Soil resilience</t>
-  </si>
-  <si>
-    <t>Soil conditioner</t>
-  </si>
-  <si>
-    <t>Soil chemistry</t>
-  </si>
-  <si>
-    <t>Soil survey</t>
-  </si>
-  <si>
-    <t>SOIL EXPOSURE</t>
-  </si>
-  <si>
-    <t>Soil horizon</t>
-  </si>
-  <si>
-    <t>Soil science</t>
-  </si>
-  <si>
-    <t>Soil test</t>
-  </si>
-  <si>
-    <t>Soil biodiversity</t>
-  </si>
-  <si>
-    <t>Soil map</t>
-  </si>
-  <si>
-    <t>Soil structure</t>
-  </si>
-  <si>
-    <t>Soil biology</t>
-  </si>
-  <si>
     <t>Red soil</t>
   </si>
   <si>
-    <t>Soil pH</t>
-  </si>
-  <si>
-    <t>USDA soil taxonomy</t>
-  </si>
-  <si>
-    <t>Soil series</t>
-  </si>
-  <si>
-    <t>Soil thermal properties</t>
-  </si>
-  <si>
     <t>Subsoiler</t>
   </si>
   <si>
     <t>['8_NABS_FOS']</t>
   </si>
   <si>
-    <t>['1_FP7-4-SD_edited', '7_EC_Policy_Doc_Terms', '4_SDGPathfinder_Keywords', '8_NABS_FOS', '9_SIRIS_Science4SDGs']</t>
+    <t>['1_FP7-4-SD_edited', '8_NABS_FOS']</t>
+  </si>
+  <si>
+    <t>['8_NABS_FOS', '9_SIRIS_Science4SDGs', '7_EC_Policy_Doc_Terms', '1_FP7-4-SD_edited', '4_SDGPathfinder_Keywords']</t>
   </si>
   <si>
     <t>['4_SDGPathfinder_Keywords', '1_FP7-4-SD_edited', '8_NABS_FOS']</t>
   </si>
   <si>
-    <t>['1_FP7-4-SD_edited', '8_NABS_FOS']</t>
-  </si>
-  <si>
-    <t>['4_SDGPathfinder_Keywords', '1_FP7-4-SD_edited', '7_EC_Policy_Doc_Terms', '9_SIRIS_Science4SDGs']</t>
-  </si>
-  <si>
-    <t>['1_FP7-4-SD_edited', '7_EC_Policy_Doc_Terms', '10_PPMI_fos', '4_SDGPathfinder_Keywords', '9_SIRIS_Science4SDGs']</t>
-  </si>
-  <si>
-    <t>['1_FP7-4-SD_edited', '7_EC_Policy_Doc_Terms', '4_SDGPathfinder_Keywords', '3_SDGPathfinder_DocumentConcepts', '9_SIRIS_Science4SDGs']</t>
+    <t>['9_SIRIS_Science4SDGs', '4_SDGPathfinder_Keywords', '1_FP7-4-SD_edited', '7_EC_Policy_Doc_Terms']</t>
+  </si>
+  <si>
+    <t>['9_SIRIS_Science4SDGs', '7_EC_Policy_Doc_Terms', '1_FP7-4-SD_edited', '4_SDGPathfinder_Keywords', '10_PPMI_fos']</t>
+  </si>
+  <si>
+    <t>['9_SIRIS_Science4SDGs', '7_EC_Policy_Doc_Terms', '3_SDGPathfinder_DocumentConcepts', '1_FP7-4-SD_edited', '4_SDGPathfinder_Keywords']</t>
   </si>
   <si>
     <t>['1_FP7-4-SD_edited']</t>
   </si>
   <si>
-    <t>['0_PuigOntology', '6_SDGIO_terms']</t>
+    <t>['6_SDGIO_terms', '0_PuigOntology']</t>
+  </si>
+  <si>
+    <t>['10_PPMI_fos']</t>
   </si>
   <si>
     <t>['1_FP7-4-SD_edited', '10_PPMI_fos']</t>
   </si>
   <si>
-    <t>['0_PuigOntology', '6_SDGIO_terms', '10_PPMI_fos']</t>
-  </si>
-  <si>
-    <t>['10_PPMI_fos']</t>
+    <t>['10_PPMI_fos', '6_SDGIO_terms', '0_PuigOntology']</t>
   </si>
 </sst>
 </file>
@@ -1278,13 +1281,13 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -1301,13 +1304,13 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -1324,13 +1327,13 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -1347,13 +1350,10 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" t="s">
-        <v>278</v>
+        <v>150</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -1370,10 +1370,13 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="E6" t="s">
+        <v>279</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -1390,13 +1393,13 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -1413,13 +1416,13 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -1436,13 +1439,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -1459,13 +1462,10 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E10" t="s">
-        <v>278</v>
+        <v>155</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -1502,10 +1502,13 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="E12" t="s">
+        <v>279</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -1522,13 +1525,13 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -1545,13 +1548,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -1568,10 +1571,13 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="E15" t="s">
+        <v>280</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -1588,13 +1594,13 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -1611,10 +1617,10 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E17" t="s">
         <v>279</v>
@@ -1634,13 +1640,13 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E18" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -1657,13 +1663,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E19" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -1680,13 +1686,13 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E20" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -1703,13 +1709,13 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E21" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -1726,13 +1732,13 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E22" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
@@ -1749,13 +1755,13 @@
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E23" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1772,13 +1778,13 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E24" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1795,13 +1801,13 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E25" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -1818,13 +1824,13 @@
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E26" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -1841,13 +1847,13 @@
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E27" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -1864,13 +1870,13 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E28" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -1887,13 +1893,13 @@
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E29" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -1910,13 +1916,10 @@
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>174</v>
-      </c>
-      <c r="E30" t="s">
-        <v>278</v>
+        <v>175</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -1933,13 +1936,13 @@
         <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E31" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -1956,13 +1959,13 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E32" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -1979,13 +1982,13 @@
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E33" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -2002,13 +2005,13 @@
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E34" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -2025,10 +2028,10 @@
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -2045,13 +2048,13 @@
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E36" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -2068,13 +2071,13 @@
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E37" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -2091,13 +2094,13 @@
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E38" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -2114,19 +2117,19 @@
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E39" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2137,13 +2140,13 @@
         <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E40" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -2160,13 +2163,10 @@
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>185</v>
-      </c>
-      <c r="E41" t="s">
-        <v>278</v>
+        <v>186</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -2183,13 +2183,13 @@
         <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E42" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
@@ -2206,10 +2206,13 @@
         <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="E43" t="s">
+        <v>279</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -2226,13 +2229,13 @@
         <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E44" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -2249,10 +2252,13 @@
         <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="E45" t="s">
+        <v>279</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -2269,13 +2275,13 @@
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D46" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E46" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -2292,13 +2298,10 @@
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D47" t="s">
-        <v>191</v>
-      </c>
-      <c r="E47" t="s">
-        <v>278</v>
+        <v>192</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
@@ -2315,13 +2318,13 @@
         <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E48" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -2338,13 +2341,10 @@
         <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D49" t="s">
-        <v>193</v>
-      </c>
-      <c r="E49" t="s">
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
@@ -2361,13 +2361,13 @@
         <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D50" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E50" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
@@ -2384,13 +2384,10 @@
         <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D51" t="s">
-        <v>195</v>
-      </c>
-      <c r="E51" t="s">
-        <v>278</v>
+        <v>196</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -2407,13 +2404,13 @@
         <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D52" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -2430,10 +2427,13 @@
         <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D53" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="E53" t="s">
+        <v>279</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
@@ -2450,13 +2450,13 @@
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D54" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E54" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -2473,13 +2473,10 @@
         <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D55" t="s">
-        <v>199</v>
-      </c>
-      <c r="E55" t="s">
-        <v>278</v>
+        <v>200</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -2496,10 +2493,13 @@
         <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D56" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="E56" t="s">
+        <v>279</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -2516,13 +2516,13 @@
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D57" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E57" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -2539,13 +2539,13 @@
         <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D58" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E58" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F58" t="b">
         <v>0</v>
@@ -2562,13 +2562,13 @@
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D59" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E59" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -2585,13 +2585,13 @@
         <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D60" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E60" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D61" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E61" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -2631,13 +2631,13 @@
         <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D62" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E62" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -2654,13 +2654,13 @@
         <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D63" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E63" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -2677,13 +2677,13 @@
         <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D64" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E64" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -2700,13 +2700,13 @@
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D65" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E65" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F65" t="b">
         <v>0</v>
@@ -2723,13 +2723,13 @@
         <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D66" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E66" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -2746,10 +2746,13 @@
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D67" t="s">
-        <v>211</v>
+        <v>212</v>
+      </c>
+      <c r="E67" t="s">
+        <v>279</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -2766,13 +2769,13 @@
         <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D68" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E68" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -2789,13 +2792,13 @@
         <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D69" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E69" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -2812,13 +2815,13 @@
         <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D70" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E70" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -2835,13 +2838,13 @@
         <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E71" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -2858,13 +2861,13 @@
         <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D72" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -2881,13 +2884,13 @@
         <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D73" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E73" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -2904,13 +2907,13 @@
         <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D74" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E74" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -2927,13 +2930,13 @@
         <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D75" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E75" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -2950,13 +2953,13 @@
         <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D76" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E76" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -2973,13 +2976,13 @@
         <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D77" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E77" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -2996,13 +2999,13 @@
         <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D78" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E78" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -3019,16 +3022,19 @@
         <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D79" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="E79" t="s">
+        <v>279</v>
       </c>
       <c r="F79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3039,13 +3045,13 @@
         <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D80" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E80" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -3062,13 +3068,13 @@
         <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D81" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E81" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -3085,13 +3091,13 @@
         <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D82" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E82" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -3108,13 +3114,13 @@
         <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D83" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E83" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -3131,13 +3137,13 @@
         <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D84" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E84" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -3154,13 +3160,13 @@
         <v>13</v>
       </c>
       <c r="C85" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D85" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E85" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -3177,13 +3183,13 @@
         <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D86" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E86" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -3200,13 +3206,10 @@
         <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D87" t="s">
-        <v>231</v>
-      </c>
-      <c r="E87" t="s">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -3223,13 +3226,13 @@
         <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D88" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E88" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -3246,13 +3249,13 @@
         <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D89" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E89" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
@@ -3269,13 +3272,13 @@
         <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D90" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E90" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
@@ -3292,13 +3295,13 @@
         <v>13</v>
       </c>
       <c r="C91" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D91" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E91" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
@@ -3315,13 +3318,13 @@
         <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D92" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E92" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
@@ -3338,13 +3341,13 @@
         <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D93" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E93" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
@@ -3361,13 +3364,13 @@
         <v>13</v>
       </c>
       <c r="C94" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D94" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E94" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F94" t="b">
         <v>1</v>
@@ -3384,13 +3387,13 @@
         <v>13</v>
       </c>
       <c r="C95" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D95" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E95" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F95" t="b">
         <v>1</v>
@@ -3407,13 +3410,13 @@
         <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D96" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E96" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F96" t="b">
         <v>1</v>
@@ -3430,13 +3433,13 @@
         <v>13</v>
       </c>
       <c r="C97" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D97" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E97" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F97" t="b">
         <v>1</v>
@@ -3453,13 +3456,13 @@
         <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D98" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E98" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F98" t="b">
         <v>1</v>
@@ -3473,13 +3476,13 @@
         <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C99" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D99" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F99" t="b">
         <v>1</v>
@@ -3493,13 +3496,13 @@
         <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D100" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F100" t="b">
         <v>1</v>
@@ -3513,13 +3516,13 @@
         <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C101" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D101" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F101" t="b">
         <v>1</v>
@@ -3533,13 +3536,13 @@
         <v>12</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C102" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D102" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F102" t="b">
         <v>1</v>
@@ -3553,13 +3556,13 @@
         <v>12</v>
       </c>
       <c r="B103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C103" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D103" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F103" t="b">
         <v>1</v>
@@ -3573,13 +3576,13 @@
         <v>12</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C104" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D104" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F104" t="b">
         <v>1</v>
@@ -3593,13 +3596,13 @@
         <v>12</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C105" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D105" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F105" t="b">
         <v>1</v>
@@ -3613,13 +3616,13 @@
         <v>12</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C106" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D106" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F106" t="b">
         <v>1</v>
@@ -3633,13 +3636,13 @@
         <v>12</v>
       </c>
       <c r="B107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C107" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D107" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F107" t="b">
         <v>1</v>
@@ -3653,13 +3656,13 @@
         <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C108" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D108" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F108" t="b">
         <v>1</v>
@@ -3673,13 +3676,13 @@
         <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C109" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D109" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F109" t="b">
         <v>1</v>
@@ -3693,13 +3696,13 @@
         <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C110" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D110" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F110" t="b">
         <v>1</v>
@@ -3713,13 +3716,13 @@
         <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C111" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D111" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F111" t="b">
         <v>1</v>
@@ -3733,13 +3736,13 @@
         <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C112" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D112" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F112" t="b">
         <v>1</v>
@@ -3753,13 +3756,13 @@
         <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C113" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D113" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="F113" t="b">
         <v>1</v>
@@ -3773,13 +3776,13 @@
         <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C114" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D114" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F114" t="b">
         <v>1</v>
@@ -3793,13 +3796,13 @@
         <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C115" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D115" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F115" t="b">
         <v>1</v>
@@ -3813,13 +3816,13 @@
         <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C116" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="D116" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="F116" t="b">
         <v>1</v>
@@ -3833,13 +3836,13 @@
         <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C117" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D117" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F117" t="b">
         <v>1</v>
@@ -3853,13 +3856,13 @@
         <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C118" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D118" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F118" t="b">
         <v>1</v>
@@ -3873,13 +3876,13 @@
         <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C119" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D119" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F119" t="b">
         <v>1</v>
@@ -3893,13 +3896,13 @@
         <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C120" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D120" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F120" t="b">
         <v>1</v>
@@ -3913,13 +3916,13 @@
         <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C121" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D121" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F121" t="b">
         <v>1</v>
@@ -3933,13 +3936,13 @@
         <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C122" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D122" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F122" t="b">
         <v>1</v>
@@ -3953,13 +3956,13 @@
         <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C123" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D123" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F123" t="b">
         <v>1</v>
@@ -3973,13 +3976,13 @@
         <v>12</v>
       </c>
       <c r="B124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C124" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D124" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F124" t="b">
         <v>1</v>
@@ -3993,13 +3996,13 @@
         <v>12</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C125" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D125" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F125" t="b">
         <v>1</v>
@@ -4013,13 +4016,13 @@
         <v>12</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C126" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D126" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F126" t="b">
         <v>1</v>
@@ -4033,13 +4036,13 @@
         <v>12</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C127" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D127" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F127" t="b">
         <v>1</v>
@@ -4053,13 +4056,13 @@
         <v>12</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C128" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D128" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F128" t="b">
         <v>1</v>
@@ -4073,13 +4076,13 @@
         <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C129" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D129" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F129" t="b">
         <v>1</v>
@@ -4093,13 +4096,13 @@
         <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C130" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D130" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F130" t="b">
         <v>1</v>
@@ -4113,13 +4116,13 @@
         <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C131" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D131" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F131" t="b">
         <v>1</v>
@@ -4133,13 +4136,13 @@
         <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C132" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="D132" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="F132" t="b">
         <v>1</v>
@@ -4153,13 +4156,13 @@
         <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C133" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D133" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F133" t="b">
         <v>1</v>
@@ -4173,13 +4176,13 @@
         <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C134" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="D134" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="F134" t="b">
         <v>1</v>
@@ -4196,13 +4199,13 @@
         <v>13</v>
       </c>
       <c r="C135" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D135" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E135" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F135" t="b">
         <v>1</v>
@@ -4219,13 +4222,13 @@
         <v>13</v>
       </c>
       <c r="C136" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D136" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E136" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F136" t="b">
         <v>1</v>
@@ -4242,13 +4245,13 @@
         <v>13</v>
       </c>
       <c r="C137" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="D137" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="E137" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F137" t="b">
         <v>1</v>
@@ -4265,13 +4268,13 @@
         <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="D138" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="E138" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F138" t="b">
         <v>1</v>
@@ -4288,13 +4291,13 @@
         <v>13</v>
       </c>
       <c r="C139" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="D139" t="s">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="E139" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F139" t="b">
         <v>1</v>
@@ -4311,13 +4314,13 @@
         <v>13</v>
       </c>
       <c r="C140" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="D140" t="s">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c r="E140" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F140" t="b">
         <v>1</v>
@@ -4334,13 +4337,13 @@
         <v>13</v>
       </c>
       <c r="C141" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="D141" t="s">
-        <v>277</v>
+        <v>155</v>
       </c>
       <c r="E141" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F141" t="b">
         <v>1</v>
@@ -4357,10 +4360,10 @@
         <v>13</v>
       </c>
       <c r="C142" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D142" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E142" t="s">
         <v>286</v>
@@ -4380,13 +4383,13 @@
         <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D143" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="E143" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F143" t="b">
         <v>1</v>
@@ -4403,13 +4406,13 @@
         <v>13</v>
       </c>
       <c r="C144" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="D144" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F144" t="b">
         <v>1</v>
@@ -4426,13 +4429,13 @@
         <v>13</v>
       </c>
       <c r="C145" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="D145" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="E145" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F145" t="b">
         <v>1</v>
@@ -4449,13 +4452,13 @@
         <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D146" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="E146" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F146" t="b">
         <v>1</v>

--- a/comparison_fos_update.xlsx
+++ b/comparison_fos_update.xlsx
@@ -37,856 +37,856 @@
     <t>isinRemoved</t>
   </si>
   <si>
+    <t>SDG_15</t>
+  </si>
+  <si>
     <t>SDG_2</t>
   </si>
   <si>
+    <t>SDG_12</t>
+  </si>
+  <si>
+    <t>SDG_13</t>
+  </si>
+  <si>
     <t>SDG_3</t>
   </si>
   <si>
     <t>SDG_6</t>
   </si>
   <si>
-    <t>SDG_12</t>
-  </si>
-  <si>
-    <t>SDG_13</t>
-  </si>
-  <si>
-    <t>SDG_15</t>
+    <t>add</t>
   </si>
   <si>
     <t>removed</t>
   </si>
   <si>
-    <t>add</t>
+    <t>14171219</t>
+  </si>
+  <si>
+    <t>100474770</t>
+  </si>
+  <si>
+    <t>2909722689</t>
+  </si>
+  <si>
+    <t>175963888</t>
+  </si>
+  <si>
+    <t>58395597</t>
+  </si>
+  <si>
+    <t>55312793</t>
+  </si>
+  <si>
+    <t>39464130</t>
+  </si>
+  <si>
+    <t>5589519</t>
+  </si>
+  <si>
+    <t>70957220</t>
+  </si>
+  <si>
+    <t>65580899</t>
+  </si>
+  <si>
+    <t>160212601</t>
+  </si>
+  <si>
+    <t>162902727</t>
+  </si>
+  <si>
+    <t>198072978</t>
+  </si>
+  <si>
+    <t>159390177</t>
+  </si>
+  <si>
+    <t>104471815</t>
+  </si>
+  <si>
+    <t>172365310</t>
+  </si>
+  <si>
+    <t>71864017</t>
+  </si>
+  <si>
+    <t>53706860</t>
+  </si>
+  <si>
+    <t>29510844</t>
+  </si>
+  <si>
+    <t>53145804</t>
+  </si>
+  <si>
+    <t>114426456</t>
+  </si>
+  <si>
+    <t>7959160</t>
+  </si>
+  <si>
+    <t>156634047</t>
+  </si>
+  <si>
+    <t>50516716</t>
+  </si>
+  <si>
+    <t>205726622</t>
+  </si>
+  <si>
+    <t>53421856</t>
+  </si>
+  <si>
+    <t>160934017</t>
+  </si>
+  <si>
+    <t>174200844</t>
+  </si>
+  <si>
+    <t>63696750</t>
+  </si>
+  <si>
+    <t>2910302653</t>
+  </si>
+  <si>
+    <t>152100882</t>
+  </si>
+  <si>
+    <t>125596622</t>
+  </si>
+  <si>
+    <t>182745123</t>
+  </si>
+  <si>
+    <t>3742959</t>
+  </si>
+  <si>
+    <t>152494472</t>
+  </si>
+  <si>
+    <t>120991184</t>
+  </si>
+  <si>
+    <t>20529654</t>
+  </si>
+  <si>
+    <t>155987862</t>
+  </si>
+  <si>
+    <t>34070608</t>
+  </si>
+  <si>
+    <t>126589399</t>
+  </si>
+  <si>
+    <t>2775966360</t>
+  </si>
+  <si>
+    <t>2776500793</t>
+  </si>
+  <si>
+    <t>93944068</t>
+  </si>
+  <si>
+    <t>33283694</t>
+  </si>
+  <si>
+    <t>108216600</t>
+  </si>
+  <si>
+    <t>28631016</t>
+  </si>
+  <si>
+    <t>2776278397</t>
+  </si>
+  <si>
+    <t>31568149</t>
+  </si>
+  <si>
+    <t>2779128174</t>
+  </si>
+  <si>
+    <t>555313981</t>
+  </si>
+  <si>
+    <t>172817999</t>
+  </si>
+  <si>
+    <t>2776054349</t>
+  </si>
+  <si>
+    <t>87621631</t>
+  </si>
+  <si>
+    <t>154575652</t>
+  </si>
+  <si>
+    <t>153427425</t>
+  </si>
+  <si>
+    <t>2776285232</t>
+  </si>
+  <si>
+    <t>2780086105</t>
+  </si>
+  <si>
+    <t>2776554196</t>
+  </si>
+  <si>
+    <t>54625482</t>
+  </si>
+  <si>
+    <t>2619416</t>
+  </si>
+  <si>
+    <t>2777387638</t>
+  </si>
+  <si>
+    <t>2781208722</t>
+  </si>
+  <si>
+    <t>2780946806</t>
+  </si>
+  <si>
+    <t>63651461</t>
+  </si>
+  <si>
+    <t>133382796</t>
+  </si>
+  <si>
+    <t>2780528068</t>
+  </si>
+  <si>
+    <t>156086215</t>
+  </si>
+  <si>
+    <t>42731165</t>
+  </si>
+  <si>
+    <t>154702282</t>
+  </si>
+  <si>
+    <t>147103442</t>
+  </si>
+  <si>
+    <t>15147509</t>
+  </si>
+  <si>
+    <t>119249163</t>
+  </si>
+  <si>
+    <t>116370137</t>
+  </si>
+  <si>
+    <t>126914827</t>
+  </si>
+  <si>
+    <t>2777380357</t>
+  </si>
+  <si>
+    <t>2777399377</t>
+  </si>
+  <si>
+    <t>2776562576</t>
+  </si>
+  <si>
+    <t>118694661</t>
+  </si>
+  <si>
+    <t>62158283</t>
+  </si>
+  <si>
+    <t>32120771</t>
+  </si>
+  <si>
+    <t>2777472530</t>
+  </si>
+  <si>
+    <t>2778361644</t>
+  </si>
+  <si>
+    <t>64229544</t>
+  </si>
+  <si>
+    <t>182124840</t>
+  </si>
+  <si>
+    <t>121850381</t>
+  </si>
+  <si>
+    <t>2776492830</t>
+  </si>
+  <si>
+    <t>59804570</t>
+  </si>
+  <si>
+    <t>2777106113</t>
+  </si>
+  <si>
+    <t>38774213</t>
+  </si>
+  <si>
+    <t>192392207</t>
+  </si>
+  <si>
+    <t>2778625682</t>
+  </si>
+  <si>
+    <t>2775841215</t>
+  </si>
+  <si>
+    <t>33411773</t>
+  </si>
+  <si>
+    <t>2777132354</t>
+  </si>
+  <si>
+    <t>532801124</t>
+  </si>
+  <si>
+    <t>198979508</t>
+  </si>
+  <si>
+    <t>89295123</t>
+  </si>
+  <si>
+    <t>2779004245</t>
+  </si>
+  <si>
+    <t>53002841</t>
+  </si>
+  <si>
+    <t>91354502</t>
+  </si>
+  <si>
+    <t>2775999090</t>
+  </si>
+  <si>
+    <t>2776978901</t>
+  </si>
+  <si>
+    <t>201401522</t>
+  </si>
+  <si>
+    <t>2776801807</t>
+  </si>
+  <si>
+    <t>123917164</t>
+  </si>
+  <si>
+    <t>2780816530</t>
+  </si>
+  <si>
+    <t>141185391</t>
+  </si>
+  <si>
+    <t>152491559</t>
   </si>
   <si>
     <t>23519681</t>
   </si>
   <si>
-    <t>93944068</t>
-  </si>
-  <si>
-    <t>53002841</t>
-  </si>
-  <si>
-    <t>141185391</t>
-  </si>
-  <si>
-    <t>2776278397</t>
-  </si>
-  <si>
-    <t>2778361644</t>
-  </si>
-  <si>
-    <t>155987862</t>
-  </si>
-  <si>
-    <t>118694661</t>
+    <t>59898753</t>
+  </si>
+  <si>
+    <t>126408429</t>
+  </si>
+  <si>
+    <t>139518226</t>
+  </si>
+  <si>
+    <t>197320908</t>
+  </si>
+  <si>
+    <t>2776596991</t>
+  </si>
+  <si>
+    <t>150436541</t>
   </si>
   <si>
     <t>2780189059</t>
   </si>
   <si>
-    <t>59804570</t>
-  </si>
-  <si>
-    <t>121850381</t>
-  </si>
-  <si>
-    <t>139518226</t>
-  </si>
-  <si>
-    <t>2776801807</t>
-  </si>
-  <si>
-    <t>2777472530</t>
-  </si>
-  <si>
-    <t>2780086105</t>
-  </si>
-  <si>
-    <t>33283694</t>
-  </si>
-  <si>
-    <t>63651461</t>
-  </si>
-  <si>
-    <t>116370137</t>
-  </si>
-  <si>
-    <t>2776054349</t>
-  </si>
-  <si>
-    <t>31568149</t>
-  </si>
-  <si>
-    <t>64229544</t>
-  </si>
-  <si>
-    <t>2776500793</t>
-  </si>
-  <si>
-    <t>2779004245</t>
+    <t>2777707638</t>
+  </si>
+  <si>
+    <t>25382069</t>
+  </si>
+  <si>
+    <t>2776107028</t>
+  </si>
+  <si>
+    <t>60989497</t>
+  </si>
+  <si>
+    <t>155015343</t>
+  </si>
+  <si>
+    <t>173795300</t>
+  </si>
+  <si>
+    <t>24518262</t>
+  </si>
+  <si>
+    <t>97137747</t>
+  </si>
+  <si>
+    <t>39571515</t>
   </si>
   <si>
     <t>2780696901</t>
   </si>
   <si>
-    <t>2777380357</t>
-  </si>
-  <si>
-    <t>555313981</t>
-  </si>
-  <si>
-    <t>2780528068</t>
-  </si>
-  <si>
-    <t>39571515</t>
-  </si>
-  <si>
-    <t>182124840</t>
-  </si>
-  <si>
-    <t>2775966360</t>
-  </si>
-  <si>
-    <t>59898753</t>
-  </si>
-  <si>
-    <t>2776596991</t>
-  </si>
-  <si>
-    <t>62158283</t>
-  </si>
-  <si>
-    <t>172817999</t>
-  </si>
-  <si>
-    <t>2776554196</t>
-  </si>
-  <si>
-    <t>2778625682</t>
-  </si>
-  <si>
-    <t>32120771</t>
-  </si>
-  <si>
-    <t>2776978901</t>
-  </si>
-  <si>
-    <t>173795300</t>
-  </si>
-  <si>
-    <t>38774213</t>
-  </si>
-  <si>
-    <t>2777106113</t>
-  </si>
-  <si>
-    <t>2777399377</t>
-  </si>
-  <si>
-    <t>150436541</t>
-  </si>
-  <si>
-    <t>2776285232</t>
-  </si>
-  <si>
-    <t>119249163</t>
-  </si>
-  <si>
-    <t>33411773</t>
-  </si>
-  <si>
-    <t>91354502</t>
-  </si>
-  <si>
-    <t>126408429</t>
-  </si>
-  <si>
-    <t>126589399</t>
-  </si>
-  <si>
-    <t>42731165</t>
-  </si>
-  <si>
-    <t>154575652</t>
-  </si>
-  <si>
-    <t>54625482</t>
-  </si>
-  <si>
-    <t>2776562576</t>
-  </si>
-  <si>
-    <t>20529654</t>
-  </si>
-  <si>
-    <t>2777387638</t>
-  </si>
-  <si>
-    <t>2781208722</t>
-  </si>
-  <si>
-    <t>60989497</t>
-  </si>
-  <si>
-    <t>34070608</t>
-  </si>
-  <si>
-    <t>2780816530</t>
-  </si>
-  <si>
-    <t>2777707638</t>
-  </si>
-  <si>
-    <t>155015343</t>
-  </si>
-  <si>
-    <t>87621631</t>
-  </si>
-  <si>
-    <t>108216600</t>
-  </si>
-  <si>
-    <t>2619416</t>
-  </si>
-  <si>
-    <t>2775841215</t>
-  </si>
-  <si>
-    <t>153427425</t>
-  </si>
-  <si>
-    <t>201401522</t>
-  </si>
-  <si>
-    <t>133382796</t>
-  </si>
-  <si>
-    <t>147103442</t>
-  </si>
-  <si>
-    <t>2777132354</t>
-  </si>
-  <si>
-    <t>2776107028</t>
-  </si>
-  <si>
-    <t>198979508</t>
-  </si>
-  <si>
-    <t>25382069</t>
-  </si>
-  <si>
-    <t>2776492830</t>
-  </si>
-  <si>
-    <t>2779128174</t>
-  </si>
-  <si>
-    <t>97137747</t>
-  </si>
-  <si>
-    <t>15147509</t>
+    <t>107394435</t>
+  </si>
+  <si>
+    <t>21790881</t>
+  </si>
+  <si>
+    <t>2780339060</t>
   </si>
   <si>
     <t>139669111</t>
   </si>
   <si>
-    <t>192392207</t>
-  </si>
-  <si>
-    <t>89295123</t>
-  </si>
-  <si>
-    <t>126914827</t>
-  </si>
-  <si>
-    <t>2775999090</t>
-  </si>
-  <si>
-    <t>123917164</t>
-  </si>
-  <si>
-    <t>197320908</t>
-  </si>
-  <si>
-    <t>532801124</t>
-  </si>
-  <si>
-    <t>156086215</t>
-  </si>
-  <si>
-    <t>24518262</t>
-  </si>
-  <si>
-    <t>107394435</t>
-  </si>
-  <si>
-    <t>2780946806</t>
-  </si>
-  <si>
-    <t>28631016</t>
-  </si>
-  <si>
-    <t>152491559</t>
-  </si>
-  <si>
-    <t>154702282</t>
-  </si>
-  <si>
-    <t>65580899</t>
+    <t>2776266027</t>
   </si>
   <si>
     <t>28362043</t>
   </si>
   <si>
-    <t>2776266027</t>
-  </si>
-  <si>
-    <t>21790881</t>
-  </si>
-  <si>
-    <t>39464130</t>
-  </si>
-  <si>
-    <t>182745123</t>
-  </si>
-  <si>
-    <t>7959160</t>
-  </si>
-  <si>
-    <t>198072978</t>
-  </si>
-  <si>
-    <t>14171219</t>
-  </si>
-  <si>
-    <t>29510844</t>
-  </si>
-  <si>
-    <t>5589519</t>
-  </si>
-  <si>
-    <t>53706860</t>
-  </si>
-  <si>
-    <t>205726622</t>
-  </si>
-  <si>
-    <t>156634047</t>
-  </si>
-  <si>
-    <t>175963888</t>
-  </si>
-  <si>
-    <t>172365310</t>
-  </si>
-  <si>
-    <t>174200844</t>
-  </si>
-  <si>
-    <t>2910302653</t>
-  </si>
-  <si>
-    <t>159390177</t>
-  </si>
-  <si>
-    <t>3742959</t>
-  </si>
-  <si>
-    <t>152494472</t>
-  </si>
-  <si>
-    <t>71864017</t>
-  </si>
-  <si>
-    <t>53145804</t>
-  </si>
-  <si>
-    <t>120991184</t>
-  </si>
-  <si>
-    <t>160212601</t>
-  </si>
-  <si>
-    <t>125596622</t>
-  </si>
-  <si>
-    <t>53421856</t>
-  </si>
-  <si>
-    <t>55312793</t>
-  </si>
-  <si>
-    <t>114426456</t>
-  </si>
-  <si>
-    <t>104471815</t>
-  </si>
-  <si>
-    <t>70957220</t>
-  </si>
-  <si>
-    <t>63696750</t>
-  </si>
-  <si>
-    <t>50516716</t>
-  </si>
-  <si>
-    <t>100474770</t>
-  </si>
-  <si>
-    <t>2909722689</t>
-  </si>
-  <si>
-    <t>162902727</t>
-  </si>
-  <si>
-    <t>160934017</t>
-  </si>
-  <si>
-    <t>152100882</t>
-  </si>
-  <si>
-    <t>58395597</t>
-  </si>
-  <si>
-    <t>2780339060</t>
+    <t>Agricultural soil science</t>
+  </si>
+  <si>
+    <t>Soil physics</t>
+  </si>
+  <si>
+    <t>Soil Pollutants</t>
+  </si>
+  <si>
+    <t>Soil texture</t>
+  </si>
+  <si>
+    <t>Red soil</t>
+  </si>
+  <si>
+    <t>National Cooperative Soil Survey</t>
+  </si>
+  <si>
+    <t>Soil carbon</t>
+  </si>
+  <si>
+    <t>Soil series</t>
+  </si>
+  <si>
+    <t>Soil compaction</t>
+  </si>
+  <si>
+    <t>Soil contamination</t>
+  </si>
+  <si>
+    <t>World Reference Base for Soil Resources</t>
+  </si>
+  <si>
+    <t>Soil conditioner</t>
+  </si>
+  <si>
+    <t>Soil pH</t>
+  </si>
+  <si>
+    <t>Soil science</t>
+  </si>
+  <si>
+    <t>Digital soil mapping</t>
+  </si>
+  <si>
+    <t>Soil microbiology</t>
+  </si>
+  <si>
+    <t>Soil map</t>
+  </si>
+  <si>
+    <t>Soil morphology</t>
+  </si>
+  <si>
+    <t>Soil chemistry</t>
+  </si>
+  <si>
+    <t>Soil food web</t>
+  </si>
+  <si>
+    <t>Soil thermal properties</t>
+  </si>
+  <si>
+    <t>Soil biodiversity</t>
+  </si>
+  <si>
+    <t>Soil horizon</t>
+  </si>
+  <si>
+    <t>Soil test</t>
+  </si>
+  <si>
+    <t>Soil mechanics</t>
+  </si>
+  <si>
+    <t>Soil biology</t>
+  </si>
+  <si>
+    <t>Soil type</t>
+  </si>
+  <si>
+    <t>Unified Soil Classification System</t>
+  </si>
+  <si>
+    <t>USDA soil taxonomy</t>
+  </si>
+  <si>
+    <t>SOIL EXPOSURE</t>
+  </si>
+  <si>
+    <t>Soil color</t>
+  </si>
+  <si>
+    <t>Soil resilience</t>
+  </si>
+  <si>
+    <t>Soil gradation</t>
+  </si>
+  <si>
+    <t>Soil survey</t>
+  </si>
+  <si>
+    <t>Soil classification</t>
+  </si>
+  <si>
+    <t>Soil structure</t>
+  </si>
+  <si>
+    <t>Topsoil</t>
+  </si>
+  <si>
+    <t>Selection cutting</t>
+  </si>
+  <si>
+    <t>Cover crop</t>
+  </si>
+  <si>
+    <t>Umbrella species</t>
+  </si>
+  <si>
+    <t>Silviculture</t>
+  </si>
+  <si>
+    <t>Beech</t>
+  </si>
+  <si>
+    <t>Phytogeography</t>
+  </si>
+  <si>
+    <t>Deciduous</t>
+  </si>
+  <si>
+    <t>Tropical and subtropical dry broadleaf forests</t>
+  </si>
+  <si>
+    <t>Forest management</t>
+  </si>
+  <si>
+    <t>Revegetation</t>
+  </si>
+  <si>
+    <t>Near-threatened species</t>
+  </si>
+  <si>
+    <t>Scots pine</t>
+  </si>
+  <si>
+    <t>Tropical rainforest</t>
+  </si>
+  <si>
+    <t>Soil functions</t>
+  </si>
+  <si>
+    <t>Vegetation classification</t>
+  </si>
+  <si>
+    <t>Taiga</t>
+  </si>
+  <si>
+    <t>Reforestation</t>
+  </si>
+  <si>
+    <t>Biodiversity hotspot</t>
+  </si>
+  <si>
+    <t>Tropical forest</t>
+  </si>
+  <si>
+    <t>Forest product</t>
+  </si>
+  <si>
+    <t>Evergreen forest</t>
+  </si>
+  <si>
+    <t>Community forestry</t>
+  </si>
+  <si>
+    <t>Rainforest</t>
+  </si>
+  <si>
+    <t>Forestry law</t>
+  </si>
+  <si>
+    <t>Intercropping</t>
+  </si>
+  <si>
+    <t>Plant functional type</t>
+  </si>
+  <si>
+    <t>Tropical agriculture</t>
+  </si>
+  <si>
+    <t>Secondary forest</t>
+  </si>
+  <si>
+    <t>Plant nutrition</t>
+  </si>
+  <si>
+    <t>Soil ecology</t>
+  </si>
+  <si>
+    <t>Environmental soil science</t>
+  </si>
+  <si>
+    <t>Temperate deciduous forest</t>
+  </si>
+  <si>
+    <t>Forest inventory</t>
+  </si>
+  <si>
+    <t>Conservation reliant species</t>
+  </si>
+  <si>
+    <t>Felling</t>
+  </si>
+  <si>
+    <t>No-till farming</t>
+  </si>
+  <si>
+    <t>Flagship species</t>
+  </si>
+  <si>
+    <t>Rainfed agriculture</t>
+  </si>
+  <si>
+    <t>DSSAT</t>
+  </si>
+  <si>
+    <t>Plant strategies</t>
+  </si>
+  <si>
+    <t>Climax community</t>
+  </si>
+  <si>
+    <t>Species translocation</t>
+  </si>
+  <si>
+    <t>Ecosystem engineer</t>
+  </si>
+  <si>
+    <t>Catch crop</t>
+  </si>
+  <si>
+    <t>Yield gap</t>
+  </si>
+  <si>
+    <t>Habitat destruction</t>
+  </si>
+  <si>
+    <t>Soil organic matter</t>
+  </si>
+  <si>
+    <t>Certified wood</t>
+  </si>
+  <si>
+    <t>Dipterocarpaceae</t>
+  </si>
+  <si>
+    <t>Soil governance</t>
+  </si>
+  <si>
+    <t>Crop simulation model</t>
+  </si>
+  <si>
+    <t>Soil fertility</t>
+  </si>
+  <si>
+    <t>Clearcutting</t>
+  </si>
+  <si>
+    <t>High forest</t>
+  </si>
+  <si>
+    <t>Sustainable forest management</t>
+  </si>
+  <si>
+    <t>Bulk soil</t>
+  </si>
+  <si>
+    <t>Shelterwood cutting</t>
+  </si>
+  <si>
+    <t>Crop protection</t>
+  </si>
+  <si>
+    <t>Forest fragmentation</t>
+  </si>
+  <si>
+    <t>Forest pathology</t>
+  </si>
+  <si>
+    <t>Tilth</t>
+  </si>
+  <si>
+    <t>Plant community</t>
+  </si>
+  <si>
+    <t>Basal area</t>
+  </si>
+  <si>
+    <t>Joint Forest Management</t>
+  </si>
+  <si>
+    <t>Tree breeding</t>
+  </si>
+  <si>
+    <t>Plant cover</t>
+  </si>
+  <si>
+    <t>Pinus radiata</t>
+  </si>
+  <si>
+    <t>Bumper crop</t>
+  </si>
+  <si>
+    <t>Forest protection</t>
+  </si>
+  <si>
+    <t>Soil retrogression and degradation</t>
+  </si>
+  <si>
+    <t>Macroecology</t>
   </si>
   <si>
     <t>Montane ecology</t>
   </si>
   <si>
-    <t>Phytogeography</t>
-  </si>
-  <si>
-    <t>Plant community</t>
-  </si>
-  <si>
-    <t>Soil retrogression and degradation</t>
-  </si>
-  <si>
-    <t>Revegetation</t>
-  </si>
-  <si>
-    <t>Yield gap</t>
-  </si>
-  <si>
-    <t>Selection cutting</t>
-  </si>
-  <si>
-    <t>Climax community</t>
+    <t>Shrubland</t>
+  </si>
+  <si>
+    <t>Soil health</t>
+  </si>
+  <si>
+    <t>Sclerophyll</t>
+  </si>
+  <si>
+    <t>Pioneer species</t>
+  </si>
+  <si>
+    <t>Cultural methods</t>
+  </si>
+  <si>
+    <t>Forb</t>
   </si>
   <si>
     <t>Soil stabilization</t>
   </si>
   <si>
-    <t>Soil governance</t>
-  </si>
-  <si>
-    <t>Certified wood</t>
-  </si>
-  <si>
-    <t>Sclerophyll</t>
-  </si>
-  <si>
-    <t>Pinus radiata</t>
-  </si>
-  <si>
-    <t>Catch crop</t>
-  </si>
-  <si>
-    <t>Forest product</t>
-  </si>
-  <si>
-    <t>Deciduous</t>
-  </si>
-  <si>
-    <t>Tropical agriculture</t>
-  </si>
-  <si>
-    <t>No-till farming</t>
-  </si>
-  <si>
-    <t>Vegetation classification</t>
-  </si>
-  <si>
-    <t>Near-threatened species</t>
-  </si>
-  <si>
-    <t>Habitat destruction</t>
-  </si>
-  <si>
-    <t>Beech</t>
-  </si>
-  <si>
-    <t>Tilth</t>
+    <t>Vascular plant</t>
+  </si>
+  <si>
+    <t>Seral community</t>
+  </si>
+  <si>
+    <t>Forest dynamics</t>
+  </si>
+  <si>
+    <t>Red List Index</t>
+  </si>
+  <si>
+    <t>Plant breeding</t>
+  </si>
+  <si>
+    <t>Salvage logging</t>
+  </si>
+  <si>
+    <t>Threatened species</t>
+  </si>
+  <si>
+    <t>Forestry</t>
+  </si>
+  <si>
+    <t>Undergrowth</t>
   </si>
   <si>
     <t>Conventional tillage</t>
   </si>
   <si>
-    <t>Rainfed agriculture</t>
-  </si>
-  <si>
-    <t>Tropical rainforest</t>
-  </si>
-  <si>
-    <t>Plant nutrition</t>
-  </si>
-  <si>
-    <t>Undergrowth</t>
-  </si>
-  <si>
-    <t>Soil organic matter</t>
-  </si>
-  <si>
-    <t>Silviculture</t>
-  </si>
-  <si>
-    <t>Shrubland</t>
-  </si>
-  <si>
-    <t>Cultural methods</t>
-  </si>
-  <si>
-    <t>Species translocation</t>
-  </si>
-  <si>
-    <t>Soil functions</t>
-  </si>
-  <si>
-    <t>Evergreen forest</t>
-  </si>
-  <si>
-    <t>High forest</t>
-  </si>
-  <si>
-    <t>Ecosystem engineer</t>
-  </si>
-  <si>
-    <t>Tree breeding</t>
-  </si>
-  <si>
-    <t>Salvage logging</t>
-  </si>
-  <si>
-    <t>Soil fertility</t>
-  </si>
-  <si>
-    <t>Crop simulation model</t>
-  </si>
-  <si>
-    <t>DSSAT</t>
-  </si>
-  <si>
-    <t>Forb</t>
-  </si>
-  <si>
-    <t>Tropical forest</t>
-  </si>
-  <si>
-    <t>Felling</t>
-  </si>
-  <si>
-    <t>Bulk soil</t>
-  </si>
-  <si>
-    <t>Basal area</t>
-  </si>
-  <si>
-    <t>Soil health</t>
-  </si>
-  <si>
-    <t>Umbrella species</t>
-  </si>
-  <si>
-    <t>Environmental soil science</t>
-  </si>
-  <si>
-    <t>Reforestation</t>
-  </si>
-  <si>
-    <t>Community forestry</t>
-  </si>
-  <si>
-    <t>Plant strategies</t>
-  </si>
-  <si>
-    <t>Topsoil</t>
-  </si>
-  <si>
-    <t>Forestry law</t>
-  </si>
-  <si>
-    <t>Intercropping</t>
-  </si>
-  <si>
-    <t>Red List Index</t>
-  </si>
-  <si>
-    <t>Cover crop</t>
-  </si>
-  <si>
-    <t>Forest protection</t>
-  </si>
-  <si>
-    <t>Vascular plant</t>
-  </si>
-  <si>
-    <t>Plant breeding</t>
-  </si>
-  <si>
-    <t>Taiga</t>
-  </si>
-  <si>
-    <t>Tropical and subtropical dry broadleaf forests</t>
-  </si>
-  <si>
-    <t>Rainforest</t>
-  </si>
-  <si>
-    <t>Sustainable forest management</t>
-  </si>
-  <si>
-    <t>Biodiversity hotspot</t>
-  </si>
-  <si>
-    <t>Plant cover</t>
-  </si>
-  <si>
-    <t>Secondary forest</t>
-  </si>
-  <si>
-    <t>Forest inventory</t>
-  </si>
-  <si>
-    <t>Shelterwood cutting</t>
-  </si>
-  <si>
-    <t>Forest dynamics</t>
-  </si>
-  <si>
-    <t>Forest fragmentation</t>
-  </si>
-  <si>
-    <t>Seral community</t>
-  </si>
-  <si>
-    <t>Dipterocarpaceae</t>
-  </si>
-  <si>
-    <t>Scots pine</t>
-  </si>
-  <si>
-    <t>Forestry</t>
-  </si>
-  <si>
-    <t>Conservation reliant species</t>
+    <t>Quadrat</t>
+  </si>
+  <si>
+    <t>Deep sea</t>
+  </si>
+  <si>
+    <t>Subsoiler</t>
   </si>
   <si>
     <t>Understory</t>
   </si>
   <si>
-    <t>Clearcutting</t>
-  </si>
-  <si>
-    <t>Forest pathology</t>
-  </si>
-  <si>
-    <t>Flagship species</t>
-  </si>
-  <si>
-    <t>Joint Forest Management</t>
-  </si>
-  <si>
-    <t>Bumper crop</t>
-  </si>
-  <si>
-    <t>Pioneer species</t>
-  </si>
-  <si>
-    <t>Crop protection</t>
-  </si>
-  <si>
-    <t>Soil ecology</t>
-  </si>
-  <si>
-    <t>Threatened species</t>
-  </si>
-  <si>
-    <t>Quadrat</t>
-  </si>
-  <si>
-    <t>Plant functional type</t>
-  </si>
-  <si>
-    <t>Forest management</t>
-  </si>
-  <si>
-    <t>Macroecology</t>
-  </si>
-  <si>
-    <t>Temperate deciduous forest</t>
-  </si>
-  <si>
-    <t>Soil contamination</t>
+    <t>Membrane bioreactor</t>
   </si>
   <si>
     <t>Hydric soil</t>
   </si>
   <si>
-    <t>Membrane bioreactor</t>
-  </si>
-  <si>
-    <t>Deep sea</t>
-  </si>
-  <si>
-    <t>Soil carbon</t>
-  </si>
-  <si>
-    <t>Soil gradation</t>
-  </si>
-  <si>
-    <t>Soil biodiversity</t>
-  </si>
-  <si>
-    <t>Soil pH</t>
-  </si>
-  <si>
-    <t>Agricultural soil science</t>
-  </si>
-  <si>
-    <t>Soil chemistry</t>
-  </si>
-  <si>
-    <t>Soil series</t>
-  </si>
-  <si>
-    <t>Soil morphology</t>
-  </si>
-  <si>
-    <t>Soil mechanics</t>
-  </si>
-  <si>
-    <t>Soil horizon</t>
-  </si>
-  <si>
-    <t>Soil texture</t>
-  </si>
-  <si>
-    <t>Soil microbiology</t>
-  </si>
-  <si>
-    <t>Unified Soil Classification System</t>
-  </si>
-  <si>
-    <t>SOIL EXPOSURE</t>
-  </si>
-  <si>
-    <t>Soil science</t>
-  </si>
-  <si>
-    <t>Soil survey</t>
-  </si>
-  <si>
-    <t>Soil classification</t>
-  </si>
-  <si>
-    <t>Soil map</t>
-  </si>
-  <si>
-    <t>Soil food web</t>
-  </si>
-  <si>
-    <t>Soil structure</t>
-  </si>
-  <si>
-    <t>World Reference Base for Soil Resources</t>
-  </si>
-  <si>
-    <t>Soil resilience</t>
-  </si>
-  <si>
-    <t>Soil biology</t>
-  </si>
-  <si>
-    <t>National Cooperative Soil Survey</t>
-  </si>
-  <si>
-    <t>Soil thermal properties</t>
-  </si>
-  <si>
-    <t>Digital soil mapping</t>
-  </si>
-  <si>
-    <t>Soil compaction</t>
-  </si>
-  <si>
-    <t>USDA soil taxonomy</t>
-  </si>
-  <si>
-    <t>Soil test</t>
-  </si>
-  <si>
-    <t>Soil physics</t>
-  </si>
-  <si>
-    <t>Soil Pollutants</t>
-  </si>
-  <si>
-    <t>Soil conditioner</t>
-  </si>
-  <si>
-    <t>Soil type</t>
-  </si>
-  <si>
-    <t>Soil color</t>
-  </si>
-  <si>
-    <t>Red soil</t>
-  </si>
-  <si>
-    <t>Subsoiler</t>
-  </si>
-  <si>
     <t>['8_NABS_FOS']</t>
   </si>
   <si>
+    <t>['9_SIRIS_Science4SDGs', '1_FP7-4-SD_edited', '7_EC_Policy_Doc_Terms', '4_SDGPathfinder_Keywords', '8_NABS_FOS']</t>
+  </si>
+  <si>
     <t>['1_FP7-4-SD_edited', '8_NABS_FOS']</t>
   </si>
   <si>
-    <t>['8_NABS_FOS', '9_SIRIS_Science4SDGs', '7_EC_Policy_Doc_Terms', '1_FP7-4-SD_edited', '4_SDGPathfinder_Keywords']</t>
-  </si>
-  <si>
     <t>['4_SDGPathfinder_Keywords', '1_FP7-4-SD_edited', '8_NABS_FOS']</t>
   </si>
   <si>
-    <t>['9_SIRIS_Science4SDGs', '4_SDGPathfinder_Keywords', '1_FP7-4-SD_edited', '7_EC_Policy_Doc_Terms']</t>
-  </si>
-  <si>
-    <t>['9_SIRIS_Science4SDGs', '7_EC_Policy_Doc_Terms', '1_FP7-4-SD_edited', '4_SDGPathfinder_Keywords', '10_PPMI_fos']</t>
-  </si>
-  <si>
-    <t>['9_SIRIS_Science4SDGs', '7_EC_Policy_Doc_Terms', '3_SDGPathfinder_DocumentConcepts', '1_FP7-4-SD_edited', '4_SDGPathfinder_Keywords']</t>
+    <t>['9_SIRIS_Science4SDGs', '1_FP7-4-SD_edited', '7_EC_Policy_Doc_Terms', '4_SDGPathfinder_Keywords', '3_SDGPathfinder_DocumentConcepts']</t>
   </si>
   <si>
     <t>['1_FP7-4-SD_edited']</t>
   </si>
   <si>
+    <t>['7_EC_Policy_Doc_Terms', '4_SDGPathfinder_Keywords', '9_SIRIS_Science4SDGs', '1_FP7-4-SD_edited']</t>
+  </si>
+  <si>
+    <t>['10_PPMI_fos', '1_FP7-4-SD_edited']</t>
+  </si>
+  <si>
     <t>['6_SDGIO_terms', '0_PuigOntology']</t>
   </si>
   <si>
     <t>['10_PPMI_fos']</t>
   </si>
   <si>
-    <t>['1_FP7-4-SD_edited', '10_PPMI_fos']</t>
-  </si>
-  <si>
-    <t>['10_PPMI_fos', '6_SDGIO_terms', '0_PuigOntology']</t>
+    <t>['6_SDGIO_terms', '10_PPMI_fos', '0_PuigOntology']</t>
+  </si>
+  <si>
+    <t>['10_PPMI_fos', '9_SIRIS_Science4SDGs', '1_FP7-4-SD_edited', '7_EC_Policy_Doc_Terms', '4_SDGPathfinder_Keywords']</t>
   </si>
 </sst>
 </file>
@@ -1286,14 +1286,11 @@
       <c r="D2" t="s">
         <v>147</v>
       </c>
-      <c r="E2" t="s">
-        <v>279</v>
-      </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1309,14 +1306,11 @@
       <c r="D3" t="s">
         <v>148</v>
       </c>
-      <c r="E3" t="s">
-        <v>279</v>
-      </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1332,14 +1326,11 @@
       <c r="D4" t="s">
         <v>149</v>
       </c>
-      <c r="E4" t="s">
-        <v>279</v>
-      </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1356,10 +1347,10 @@
         <v>150</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1375,14 +1366,11 @@
       <c r="D6" t="s">
         <v>151</v>
       </c>
-      <c r="E6" t="s">
-        <v>279</v>
-      </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1398,14 +1386,11 @@
       <c r="D7" t="s">
         <v>152</v>
       </c>
-      <c r="E7" t="s">
-        <v>279</v>
-      </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1421,14 +1406,11 @@
       <c r="D8" t="s">
         <v>153</v>
       </c>
-      <c r="E8" t="s">
-        <v>279</v>
-      </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1444,14 +1426,11 @@
       <c r="D9" t="s">
         <v>154</v>
       </c>
-      <c r="E9" t="s">
-        <v>279</v>
-      </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1468,10 +1447,10 @@
         <v>155</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1488,10 +1467,10 @@
         <v>156</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1507,14 +1486,11 @@
       <c r="D12" t="s">
         <v>157</v>
       </c>
-      <c r="E12" t="s">
-        <v>279</v>
-      </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1530,14 +1506,11 @@
       <c r="D13" t="s">
         <v>158</v>
       </c>
-      <c r="E13" t="s">
-        <v>279</v>
-      </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1553,14 +1526,11 @@
       <c r="D14" t="s">
         <v>159</v>
       </c>
-      <c r="E14" t="s">
-        <v>279</v>
-      </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1576,14 +1546,11 @@
       <c r="D15" t="s">
         <v>160</v>
       </c>
-      <c r="E15" t="s">
-        <v>280</v>
-      </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1599,14 +1566,11 @@
       <c r="D16" t="s">
         <v>161</v>
       </c>
-      <c r="E16" t="s">
-        <v>279</v>
-      </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1622,14 +1586,11 @@
       <c r="D17" t="s">
         <v>162</v>
       </c>
-      <c r="E17" t="s">
-        <v>279</v>
-      </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1645,14 +1606,11 @@
       <c r="D18" t="s">
         <v>163</v>
       </c>
-      <c r="E18" t="s">
-        <v>279</v>
-      </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1668,14 +1626,11 @@
       <c r="D19" t="s">
         <v>164</v>
       </c>
-      <c r="E19" t="s">
-        <v>279</v>
-      </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1691,14 +1646,11 @@
       <c r="D20" t="s">
         <v>165</v>
       </c>
-      <c r="E20" t="s">
-        <v>279</v>
-      </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1714,14 +1666,11 @@
       <c r="D21" t="s">
         <v>166</v>
       </c>
-      <c r="E21" t="s">
-        <v>279</v>
-      </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1737,14 +1686,11 @@
       <c r="D22" t="s">
         <v>167</v>
       </c>
-      <c r="E22" t="s">
-        <v>279</v>
-      </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1760,14 +1706,11 @@
       <c r="D23" t="s">
         <v>168</v>
       </c>
-      <c r="E23" t="s">
-        <v>279</v>
-      </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1783,14 +1726,11 @@
       <c r="D24" t="s">
         <v>169</v>
       </c>
-      <c r="E24" t="s">
-        <v>279</v>
-      </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1806,14 +1746,11 @@
       <c r="D25" t="s">
         <v>170</v>
       </c>
-      <c r="E25" t="s">
-        <v>279</v>
-      </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1829,14 +1766,11 @@
       <c r="D26" t="s">
         <v>171</v>
       </c>
-      <c r="E26" t="s">
-        <v>279</v>
-      </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1852,14 +1786,11 @@
       <c r="D27" t="s">
         <v>172</v>
       </c>
-      <c r="E27" t="s">
-        <v>279</v>
-      </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1875,14 +1806,11 @@
       <c r="D28" t="s">
         <v>173</v>
       </c>
-      <c r="E28" t="s">
-        <v>279</v>
-      </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1898,14 +1826,11 @@
       <c r="D29" t="s">
         <v>174</v>
       </c>
-      <c r="E29" t="s">
-        <v>279</v>
-      </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1922,10 +1847,10 @@
         <v>175</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1941,14 +1866,11 @@
       <c r="D31" t="s">
         <v>176</v>
       </c>
-      <c r="E31" t="s">
-        <v>279</v>
-      </c>
       <c r="F31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1964,14 +1886,11 @@
       <c r="D32" t="s">
         <v>177</v>
       </c>
-      <c r="E32" t="s">
-        <v>279</v>
-      </c>
       <c r="F32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1987,14 +1906,11 @@
       <c r="D33" t="s">
         <v>178</v>
       </c>
-      <c r="E33" t="s">
-        <v>279</v>
-      </c>
       <c r="F33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2010,14 +1926,11 @@
       <c r="D34" t="s">
         <v>179</v>
       </c>
-      <c r="E34" t="s">
-        <v>279</v>
-      </c>
       <c r="F34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2034,10 +1947,10 @@
         <v>180</v>
       </c>
       <c r="F35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2053,14 +1966,11 @@
       <c r="D36" t="s">
         <v>181</v>
       </c>
-      <c r="E36" t="s">
-        <v>279</v>
-      </c>
       <c r="F36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2076,22 +1986,19 @@
       <c r="D37" t="s">
         <v>182</v>
       </c>
-      <c r="E37" t="s">
-        <v>279</v>
-      </c>
       <c r="F37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
         <v>51</v>
@@ -2099,9 +2006,6 @@
       <c r="D38" t="s">
         <v>183</v>
       </c>
-      <c r="E38" t="s">
-        <v>279</v>
-      </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
@@ -2111,10 +2015,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
         <v>52</v>
@@ -2134,10 +2038,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
         <v>53</v>
@@ -2157,10 +2061,10 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
         <v>54</v>
@@ -2168,6 +2072,9 @@
       <c r="D41" t="s">
         <v>186</v>
       </c>
+      <c r="E41" t="s">
+        <v>279</v>
+      </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
@@ -2177,10 +2084,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
         <v>55</v>
@@ -2200,10 +2107,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
         <v>56</v>
@@ -2223,10 +2130,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
         <v>57</v>
@@ -2246,10 +2153,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
         <v>58</v>
@@ -2269,10 +2176,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
         <v>59</v>
@@ -2292,10 +2199,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
         <v>60</v>
@@ -2303,6 +2210,9 @@
       <c r="D47" t="s">
         <v>192</v>
       </c>
+      <c r="E47" t="s">
+        <v>279</v>
+      </c>
       <c r="F47" t="b">
         <v>0</v>
       </c>
@@ -2312,10 +2222,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
         <v>61</v>
@@ -2335,10 +2245,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
         <v>62</v>
@@ -2346,6 +2256,9 @@
       <c r="D49" t="s">
         <v>194</v>
       </c>
+      <c r="E49" t="s">
+        <v>279</v>
+      </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
@@ -2355,10 +2268,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s">
         <v>63</v>
@@ -2378,10 +2291,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
         <v>64</v>
@@ -2389,6 +2302,9 @@
       <c r="D51" t="s">
         <v>196</v>
       </c>
+      <c r="E51" t="s">
+        <v>279</v>
+      </c>
       <c r="F51" t="b">
         <v>0</v>
       </c>
@@ -2398,10 +2314,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
         <v>65</v>
@@ -2409,9 +2325,6 @@
       <c r="D52" t="s">
         <v>197</v>
       </c>
-      <c r="E52" t="s">
-        <v>279</v>
-      </c>
       <c r="F52" t="b">
         <v>0</v>
       </c>
@@ -2421,10 +2334,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
         <v>66</v>
@@ -2444,10 +2357,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
         <v>67</v>
@@ -2467,10 +2380,10 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -2478,6 +2391,9 @@
       <c r="D55" t="s">
         <v>200</v>
       </c>
+      <c r="E55" t="s">
+        <v>279</v>
+      </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
@@ -2487,10 +2403,10 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
         <v>69</v>
@@ -2510,10 +2426,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
         <v>70</v>
@@ -2522,7 +2438,7 @@
         <v>202</v>
       </c>
       <c r="E57" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F57" t="b">
         <v>0</v>
@@ -2533,10 +2449,10 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
         <v>71</v>
@@ -2556,10 +2472,10 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
         <v>72</v>
@@ -2579,10 +2495,10 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
         <v>73</v>
@@ -2602,10 +2518,10 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
         <v>74</v>
@@ -2625,10 +2541,10 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
         <v>75</v>
@@ -2637,7 +2553,7 @@
         <v>207</v>
       </c>
       <c r="E62" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F62" t="b">
         <v>0</v>
@@ -2648,10 +2564,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
         <v>76</v>
@@ -2660,7 +2576,7 @@
         <v>208</v>
       </c>
       <c r="E63" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -2671,10 +2587,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C64" t="s">
         <v>77</v>
@@ -2694,10 +2610,10 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
         <v>78</v>
@@ -2717,10 +2633,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
         <v>79</v>
@@ -2740,10 +2656,10 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
         <v>80</v>
@@ -2763,10 +2679,10 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C68" t="s">
         <v>81</v>
@@ -2774,9 +2690,6 @@
       <c r="D68" t="s">
         <v>213</v>
       </c>
-      <c r="E68" t="s">
-        <v>279</v>
-      </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
@@ -2786,10 +2699,10 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C69" t="s">
         <v>82</v>
@@ -2797,9 +2710,6 @@
       <c r="D69" t="s">
         <v>214</v>
       </c>
-      <c r="E69" t="s">
-        <v>279</v>
-      </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
@@ -2809,10 +2719,10 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
         <v>83</v>
@@ -2832,10 +2742,10 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C71" t="s">
         <v>84</v>
@@ -2855,10 +2765,10 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s">
         <v>85</v>
@@ -2878,10 +2788,10 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C73" t="s">
         <v>86</v>
@@ -2901,10 +2811,10 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
         <v>87</v>
@@ -2924,10 +2834,10 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C75" t="s">
         <v>88</v>
@@ -2947,10 +2857,10 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C76" t="s">
         <v>89</v>
@@ -2970,10 +2880,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C77" t="s">
         <v>90</v>
@@ -2993,10 +2903,10 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
         <v>91</v>
@@ -3016,10 +2926,10 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C79" t="s">
         <v>92</v>
@@ -3031,18 +2941,18 @@
         <v>279</v>
       </c>
       <c r="F79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C80" t="s">
         <v>93</v>
@@ -3062,10 +2972,10 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C81" t="s">
         <v>94</v>
@@ -3085,10 +2995,10 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s">
         <v>95</v>
@@ -3097,7 +3007,7 @@
         <v>227</v>
       </c>
       <c r="E82" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -3108,10 +3018,10 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C83" t="s">
         <v>96</v>
@@ -3131,10 +3041,10 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C84" t="s">
         <v>97</v>
@@ -3154,10 +3064,10 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C85" t="s">
         <v>98</v>
@@ -3165,9 +3075,6 @@
       <c r="D85" t="s">
         <v>230</v>
       </c>
-      <c r="E85" t="s">
-        <v>279</v>
-      </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
@@ -3177,10 +3084,10 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C86" t="s">
         <v>99</v>
@@ -3200,10 +3107,10 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C87" t="s">
         <v>100</v>
@@ -3211,6 +3118,9 @@
       <c r="D87" t="s">
         <v>232</v>
       </c>
+      <c r="E87" t="s">
+        <v>279</v>
+      </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
@@ -3220,10 +3130,10 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C88" t="s">
         <v>101</v>
@@ -3231,9 +3141,6 @@
       <c r="D88" t="s">
         <v>233</v>
       </c>
-      <c r="E88" t="s">
-        <v>279</v>
-      </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
@@ -3243,10 +3150,10 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C89" t="s">
         <v>102</v>
@@ -3266,10 +3173,10 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C90" t="s">
         <v>103</v>
@@ -3277,9 +3184,6 @@
       <c r="D90" t="s">
         <v>235</v>
       </c>
-      <c r="E90" t="s">
-        <v>279</v>
-      </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
@@ -3289,10 +3193,10 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C91" t="s">
         <v>104</v>
@@ -3312,10 +3216,10 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C92" t="s">
         <v>105</v>
@@ -3335,10 +3239,10 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C93" t="s">
         <v>106</v>
@@ -3361,7 +3265,7 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C94" t="s">
         <v>107</v>
@@ -3369,22 +3273,19 @@
       <c r="D94" t="s">
         <v>239</v>
       </c>
-      <c r="E94" t="s">
-        <v>283</v>
-      </c>
       <c r="F94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C95" t="s">
         <v>108</v>
@@ -3396,18 +3297,18 @@
         <v>279</v>
       </c>
       <c r="F95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C96" t="s">
         <v>109</v>
@@ -3416,21 +3317,21 @@
         <v>241</v>
       </c>
       <c r="E96" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C97" t="s">
         <v>110</v>
@@ -3439,21 +3340,21 @@
         <v>242</v>
       </c>
       <c r="E97" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C98" t="s">
         <v>111</v>
@@ -3462,18 +3363,18 @@
         <v>243</v>
       </c>
       <c r="E98" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B99" t="s">
         <v>14</v>
@@ -3484,16 +3385,19 @@
       <c r="D99" t="s">
         <v>244</v>
       </c>
+      <c r="E99" t="s">
+        <v>279</v>
+      </c>
       <c r="F99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B100" t="s">
         <v>14</v>
@@ -3504,16 +3408,19 @@
       <c r="D100" t="s">
         <v>245</v>
       </c>
+      <c r="E100" t="s">
+        <v>279</v>
+      </c>
       <c r="F100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B101" t="s">
         <v>14</v>
@@ -3524,16 +3431,19 @@
       <c r="D101" t="s">
         <v>246</v>
       </c>
+      <c r="E101" t="s">
+        <v>279</v>
+      </c>
       <c r="F101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B102" t="s">
         <v>14</v>
@@ -3544,16 +3454,19 @@
       <c r="D102" t="s">
         <v>247</v>
       </c>
+      <c r="E102" t="s">
+        <v>279</v>
+      </c>
       <c r="F102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B103" t="s">
         <v>14</v>
@@ -3564,16 +3477,19 @@
       <c r="D103" t="s">
         <v>248</v>
       </c>
+      <c r="E103" t="s">
+        <v>279</v>
+      </c>
       <c r="F103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B104" t="s">
         <v>14</v>
@@ -3584,16 +3500,19 @@
       <c r="D104" t="s">
         <v>249</v>
       </c>
+      <c r="E104" t="s">
+        <v>279</v>
+      </c>
       <c r="F104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B105" t="s">
         <v>14</v>
@@ -3604,16 +3523,19 @@
       <c r="D105" t="s">
         <v>250</v>
       </c>
+      <c r="E105" t="s">
+        <v>279</v>
+      </c>
       <c r="F105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B106" t="s">
         <v>14</v>
@@ -3624,16 +3546,19 @@
       <c r="D106" t="s">
         <v>251</v>
       </c>
+      <c r="E106" t="s">
+        <v>279</v>
+      </c>
       <c r="F106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B107" t="s">
         <v>14</v>
@@ -3644,16 +3569,19 @@
       <c r="D107" t="s">
         <v>252</v>
       </c>
+      <c r="E107" t="s">
+        <v>279</v>
+      </c>
       <c r="F107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B108" t="s">
         <v>14</v>
@@ -3665,15 +3593,15 @@
         <v>253</v>
       </c>
       <c r="F108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B109" t="s">
         <v>14</v>
@@ -3684,16 +3612,19 @@
       <c r="D109" t="s">
         <v>254</v>
       </c>
+      <c r="E109" t="s">
+        <v>279</v>
+      </c>
       <c r="F109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B110" t="s">
         <v>14</v>
@@ -3704,16 +3635,19 @@
       <c r="D110" t="s">
         <v>255</v>
       </c>
+      <c r="E110" t="s">
+        <v>279</v>
+      </c>
       <c r="F110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B111" t="s">
         <v>14</v>
@@ -3724,16 +3658,19 @@
       <c r="D111" t="s">
         <v>256</v>
       </c>
+      <c r="E111" t="s">
+        <v>279</v>
+      </c>
       <c r="F111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B112" t="s">
         <v>14</v>
@@ -3745,15 +3682,15 @@
         <v>257</v>
       </c>
       <c r="F112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B113" t="s">
         <v>14</v>
@@ -3764,16 +3701,19 @@
       <c r="D113" t="s">
         <v>258</v>
       </c>
+      <c r="E113" t="s">
+        <v>279</v>
+      </c>
       <c r="F113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B114" t="s">
         <v>14</v>
@@ -3784,16 +3724,19 @@
       <c r="D114" t="s">
         <v>259</v>
       </c>
+      <c r="E114" t="s">
+        <v>279</v>
+      </c>
       <c r="F114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B115" t="s">
         <v>14</v>
@@ -3804,16 +3747,19 @@
       <c r="D115" t="s">
         <v>260</v>
       </c>
+      <c r="E115" t="s">
+        <v>279</v>
+      </c>
       <c r="F115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B116" t="s">
         <v>14</v>
@@ -3824,16 +3770,19 @@
       <c r="D116" t="s">
         <v>261</v>
       </c>
+      <c r="E116" t="s">
+        <v>279</v>
+      </c>
       <c r="F116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B117" t="s">
         <v>14</v>
@@ -3845,15 +3794,15 @@
         <v>262</v>
       </c>
       <c r="F117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B118" t="s">
         <v>14</v>
@@ -3864,16 +3813,19 @@
       <c r="D118" t="s">
         <v>263</v>
       </c>
+      <c r="E118" t="s">
+        <v>279</v>
+      </c>
       <c r="F118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B119" t="s">
         <v>14</v>
@@ -3884,16 +3836,19 @@
       <c r="D119" t="s">
         <v>264</v>
       </c>
+      <c r="E119" t="s">
+        <v>279</v>
+      </c>
       <c r="F119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B120" t="s">
         <v>14</v>
@@ -3904,16 +3859,19 @@
       <c r="D120" t="s">
         <v>265</v>
       </c>
+      <c r="E120" t="s">
+        <v>279</v>
+      </c>
       <c r="F120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B121" t="s">
         <v>14</v>
@@ -3924,16 +3882,19 @@
       <c r="D121" t="s">
         <v>266</v>
       </c>
+      <c r="E121" t="s">
+        <v>279</v>
+      </c>
       <c r="F121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B122" t="s">
         <v>14</v>
@@ -3944,16 +3905,19 @@
       <c r="D122" t="s">
         <v>267</v>
       </c>
+      <c r="E122" t="s">
+        <v>282</v>
+      </c>
       <c r="F122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B123" t="s">
         <v>14</v>
@@ -3964,16 +3928,19 @@
       <c r="D123" t="s">
         <v>268</v>
       </c>
+      <c r="E123" t="s">
+        <v>279</v>
+      </c>
       <c r="F123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B124" t="s">
         <v>14</v>
@@ -3984,16 +3951,19 @@
       <c r="D124" t="s">
         <v>269</v>
       </c>
+      <c r="E124" t="s">
+        <v>279</v>
+      </c>
       <c r="F124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B125" t="s">
         <v>14</v>
@@ -4004,16 +3974,19 @@
       <c r="D125" t="s">
         <v>270</v>
       </c>
+      <c r="E125" t="s">
+        <v>279</v>
+      </c>
       <c r="F125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B126" t="s">
         <v>14</v>
@@ -4024,16 +3997,19 @@
       <c r="D126" t="s">
         <v>271</v>
       </c>
+      <c r="E126" t="s">
+        <v>279</v>
+      </c>
       <c r="F126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B127" t="s">
         <v>14</v>
@@ -4044,16 +4020,19 @@
       <c r="D127" t="s">
         <v>272</v>
       </c>
+      <c r="E127" t="s">
+        <v>279</v>
+      </c>
       <c r="F127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B128" t="s">
         <v>14</v>
@@ -4064,16 +4043,19 @@
       <c r="D128" t="s">
         <v>273</v>
       </c>
+      <c r="E128" t="s">
+        <v>279</v>
+      </c>
       <c r="F128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B129" t="s">
         <v>14</v>
@@ -4084,6 +4066,9 @@
       <c r="D129" t="s">
         <v>274</v>
       </c>
+      <c r="E129" t="s">
+        <v>283</v>
+      </c>
       <c r="F129" t="b">
         <v>1</v>
       </c>
@@ -4093,16 +4078,19 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B130" t="s">
         <v>14</v>
       </c>
       <c r="C130" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="D130" t="s">
-        <v>275</v>
+        <v>153</v>
+      </c>
+      <c r="E130" t="s">
+        <v>284</v>
       </c>
       <c r="F130" t="b">
         <v>1</v>
@@ -4113,16 +4101,19 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B131" t="s">
         <v>14</v>
       </c>
       <c r="C131" t="s">
-        <v>144</v>
+        <v>51</v>
       </c>
       <c r="D131" t="s">
-        <v>276</v>
+        <v>183</v>
+      </c>
+      <c r="E131" t="s">
+        <v>285</v>
       </c>
       <c r="F131" t="b">
         <v>1</v>
@@ -4133,16 +4124,19 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B132" t="s">
         <v>14</v>
       </c>
       <c r="C132" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="D132" t="s">
-        <v>239</v>
+        <v>253</v>
+      </c>
+      <c r="E132" t="s">
+        <v>286</v>
       </c>
       <c r="F132" t="b">
         <v>1</v>
@@ -4153,16 +4147,19 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B133" t="s">
         <v>14</v>
       </c>
       <c r="C133" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D133" t="s">
-        <v>277</v>
+        <v>262</v>
+      </c>
+      <c r="E133" t="s">
+        <v>287</v>
       </c>
       <c r="F133" t="b">
         <v>1</v>
@@ -4173,16 +4170,19 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B134" t="s">
         <v>14</v>
       </c>
       <c r="C134" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D134" t="s">
-        <v>243</v>
+        <v>239</v>
+      </c>
+      <c r="E134" t="s">
+        <v>284</v>
       </c>
       <c r="F134" t="b">
         <v>1</v>
@@ -4193,19 +4193,19 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C135" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D135" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="E135" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F135" t="b">
         <v>1</v>
@@ -4216,19 +4216,19 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C136" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="D136" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="E136" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F136" t="b">
         <v>1</v>
@@ -4239,19 +4239,19 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C137" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="D137" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="E137" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F137" t="b">
         <v>1</v>
@@ -4262,19 +4262,19 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C138" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="D138" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="E138" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F138" t="b">
         <v>1</v>
@@ -4285,19 +4285,19 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C139" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="D139" t="s">
-        <v>150</v>
+        <v>233</v>
       </c>
       <c r="E139" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F139" t="b">
         <v>1</v>
@@ -4308,16 +4308,16 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C140" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D140" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E140" t="s">
         <v>288</v>
@@ -4331,16 +4331,16 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C141" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="D141" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="E141" t="s">
         <v>287</v>
@@ -4354,19 +4354,19 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C142" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="D142" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="E142" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F142" t="b">
         <v>1</v>
@@ -4377,19 +4377,19 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C143" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="D143" t="s">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F143" t="b">
         <v>1</v>
@@ -4400,19 +4400,19 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C144" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D144" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="E144" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F144" t="b">
         <v>1</v>
@@ -4426,16 +4426,16 @@
         <v>12</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C145" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="D145" t="s">
-        <v>192</v>
+        <v>277</v>
       </c>
       <c r="E145" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F145" t="b">
         <v>1</v>
@@ -4449,16 +4449,16 @@
         <v>12</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C146" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="D146" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="E146" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="F146" t="b">
         <v>1</v>

--- a/comparison_fos_update.xlsx
+++ b/comparison_fos_update.xlsx
@@ -61,387 +61,387 @@
     <t>removed</t>
   </si>
   <si>
+    <t>175963888</t>
+  </si>
+  <si>
+    <t>63696750</t>
+  </si>
+  <si>
+    <t>162902727</t>
+  </si>
+  <si>
+    <t>205726622</t>
+  </si>
+  <si>
+    <t>156634047</t>
+  </si>
+  <si>
+    <t>3742959</t>
+  </si>
+  <si>
+    <t>182745123</t>
+  </si>
+  <si>
+    <t>65580899</t>
+  </si>
+  <si>
+    <t>125596622</t>
+  </si>
+  <si>
+    <t>152100882</t>
+  </si>
+  <si>
+    <t>70957220</t>
+  </si>
+  <si>
+    <t>55312793</t>
+  </si>
+  <si>
+    <t>172365310</t>
+  </si>
+  <si>
+    <t>104471815</t>
+  </si>
+  <si>
+    <t>2909722689</t>
+  </si>
+  <si>
+    <t>53706860</t>
+  </si>
+  <si>
+    <t>152494472</t>
+  </si>
+  <si>
+    <t>53421856</t>
+  </si>
+  <si>
+    <t>120991184</t>
+  </si>
+  <si>
+    <t>53145804</t>
+  </si>
+  <si>
+    <t>29510844</t>
+  </si>
+  <si>
     <t>14171219</t>
   </si>
   <si>
+    <t>39464130</t>
+  </si>
+  <si>
+    <t>160934017</t>
+  </si>
+  <si>
+    <t>159390177</t>
+  </si>
+  <si>
+    <t>198072978</t>
+  </si>
+  <si>
+    <t>7959160</t>
+  </si>
+  <si>
     <t>100474770</t>
   </si>
   <si>
-    <t>2909722689</t>
-  </si>
-  <si>
-    <t>175963888</t>
+    <t>5589519</t>
+  </si>
+  <si>
+    <t>2910302653</t>
+  </si>
+  <si>
+    <t>160212601</t>
+  </si>
+  <si>
+    <t>71864017</t>
   </si>
   <si>
     <t>58395597</t>
   </si>
   <si>
-    <t>55312793</t>
-  </si>
-  <si>
-    <t>39464130</t>
-  </si>
-  <si>
-    <t>5589519</t>
-  </si>
-  <si>
-    <t>70957220</t>
-  </si>
-  <si>
-    <t>65580899</t>
-  </si>
-  <si>
-    <t>160212601</t>
-  </si>
-  <si>
-    <t>162902727</t>
-  </si>
-  <si>
-    <t>198072978</t>
-  </si>
-  <si>
-    <t>159390177</t>
-  </si>
-  <si>
-    <t>104471815</t>
-  </si>
-  <si>
-    <t>172365310</t>
-  </si>
-  <si>
-    <t>71864017</t>
-  </si>
-  <si>
-    <t>53706860</t>
-  </si>
-  <si>
-    <t>29510844</t>
-  </si>
-  <si>
-    <t>53145804</t>
-  </si>
-  <si>
     <t>114426456</t>
   </si>
   <si>
-    <t>7959160</t>
-  </si>
-  <si>
-    <t>156634047</t>
+    <t>174200844</t>
   </si>
   <si>
     <t>50516716</t>
   </si>
   <si>
-    <t>205726622</t>
-  </si>
-  <si>
-    <t>53421856</t>
-  </si>
-  <si>
-    <t>160934017</t>
-  </si>
-  <si>
-    <t>174200844</t>
-  </si>
-  <si>
-    <t>63696750</t>
-  </si>
-  <si>
-    <t>2910302653</t>
-  </si>
-  <si>
-    <t>152100882</t>
-  </si>
-  <si>
-    <t>125596622</t>
-  </si>
-  <si>
-    <t>182745123</t>
-  </si>
-  <si>
-    <t>3742959</t>
-  </si>
-  <si>
-    <t>152494472</t>
-  </si>
-  <si>
-    <t>120991184</t>
+    <t>2778361644</t>
+  </si>
+  <si>
+    <t>2777707638</t>
+  </si>
+  <si>
+    <t>91354502</t>
+  </si>
+  <si>
+    <t>2776562576</t>
+  </si>
+  <si>
+    <t>2778625682</t>
+  </si>
+  <si>
+    <t>2775999090</t>
+  </si>
+  <si>
+    <t>2780946806</t>
+  </si>
+  <si>
+    <t>2776054349</t>
+  </si>
+  <si>
+    <t>2776500793</t>
+  </si>
+  <si>
+    <t>93944068</t>
+  </si>
+  <si>
+    <t>155015343</t>
+  </si>
+  <si>
+    <t>59898753</t>
+  </si>
+  <si>
+    <t>42731165</t>
+  </si>
+  <si>
+    <t>38774213</t>
+  </si>
+  <si>
+    <t>54625482</t>
+  </si>
+  <si>
+    <t>139518226</t>
+  </si>
+  <si>
+    <t>154702282</t>
+  </si>
+  <si>
+    <t>2777472530</t>
+  </si>
+  <si>
+    <t>62158283</t>
+  </si>
+  <si>
+    <t>192392207</t>
+  </si>
+  <si>
+    <t>197320908</t>
+  </si>
+  <si>
+    <t>119249163</t>
+  </si>
+  <si>
+    <t>2777399377</t>
+  </si>
+  <si>
+    <t>126589399</t>
+  </si>
+  <si>
+    <t>2779004245</t>
+  </si>
+  <si>
+    <t>133382796</t>
+  </si>
+  <si>
+    <t>2776978901</t>
+  </si>
+  <si>
+    <t>2777106113</t>
+  </si>
+  <si>
+    <t>28631016</t>
+  </si>
+  <si>
+    <t>2776285232</t>
+  </si>
+  <si>
+    <t>2777387638</t>
+  </si>
+  <si>
+    <t>2776107028</t>
+  </si>
+  <si>
+    <t>2777132354</t>
+  </si>
+  <si>
+    <t>2776278397</t>
+  </si>
+  <si>
+    <t>87621631</t>
+  </si>
+  <si>
+    <t>23519681</t>
+  </si>
+  <si>
+    <t>63651461</t>
+  </si>
+  <si>
+    <t>53002841</t>
+  </si>
+  <si>
+    <t>2779128174</t>
+  </si>
+  <si>
+    <t>33283694</t>
+  </si>
+  <si>
+    <t>150436541</t>
+  </si>
+  <si>
+    <t>2780528068</t>
+  </si>
+  <si>
+    <t>201401522</t>
+  </si>
+  <si>
+    <t>153427425</t>
+  </si>
+  <si>
+    <t>59804570</t>
+  </si>
+  <si>
+    <t>555313981</t>
+  </si>
+  <si>
+    <t>39571515</t>
+  </si>
+  <si>
+    <t>32120771</t>
+  </si>
+  <si>
+    <t>2780696901</t>
+  </si>
+  <si>
+    <t>156086215</t>
+  </si>
+  <si>
+    <t>34070608</t>
+  </si>
+  <si>
+    <t>172817999</t>
+  </si>
+  <si>
+    <t>2619416</t>
+  </si>
+  <si>
+    <t>25382069</t>
+  </si>
+  <si>
+    <t>15147509</t>
+  </si>
+  <si>
+    <t>2780189059</t>
+  </si>
+  <si>
+    <t>118694661</t>
+  </si>
+  <si>
+    <t>141185391</t>
+  </si>
+  <si>
+    <t>89295123</t>
+  </si>
+  <si>
+    <t>24518262</t>
+  </si>
+  <si>
+    <t>147103442</t>
+  </si>
+  <si>
+    <t>116370137</t>
+  </si>
+  <si>
+    <t>2776596991</t>
+  </si>
+  <si>
+    <t>198979508</t>
+  </si>
+  <si>
+    <t>2776801807</t>
+  </si>
+  <si>
+    <t>2780816530</t>
+  </si>
+  <si>
+    <t>2777380357</t>
+  </si>
+  <si>
+    <t>60989497</t>
+  </si>
+  <si>
+    <t>2775841215</t>
+  </si>
+  <si>
+    <t>532801124</t>
+  </si>
+  <si>
+    <t>33411773</t>
+  </si>
+  <si>
+    <t>126914827</t>
+  </si>
+  <si>
+    <t>121850381</t>
+  </si>
+  <si>
+    <t>97137747</t>
+  </si>
+  <si>
+    <t>173795300</t>
+  </si>
+  <si>
+    <t>2775966360</t>
+  </si>
+  <si>
+    <t>154575652</t>
+  </si>
+  <si>
+    <t>123917164</t>
+  </si>
+  <si>
+    <t>2776554196</t>
+  </si>
+  <si>
+    <t>152491559</t>
+  </si>
+  <si>
+    <t>2780086105</t>
+  </si>
+  <si>
+    <t>2776492830</t>
+  </si>
+  <si>
+    <t>182124840</t>
   </si>
   <si>
     <t>20529654</t>
   </si>
   <si>
+    <t>107394435</t>
+  </si>
+  <si>
+    <t>31568149</t>
+  </si>
+  <si>
     <t>155987862</t>
   </si>
   <si>
-    <t>34070608</t>
-  </si>
-  <si>
-    <t>126589399</t>
-  </si>
-  <si>
-    <t>2775966360</t>
-  </si>
-  <si>
-    <t>2776500793</t>
-  </si>
-  <si>
-    <t>93944068</t>
-  </si>
-  <si>
-    <t>33283694</t>
+    <t>126408429</t>
+  </si>
+  <si>
+    <t>64229544</t>
   </si>
   <si>
     <t>108216600</t>
   </si>
   <si>
-    <t>28631016</t>
-  </si>
-  <si>
-    <t>2776278397</t>
-  </si>
-  <si>
-    <t>31568149</t>
-  </si>
-  <si>
-    <t>2779128174</t>
-  </si>
-  <si>
-    <t>555313981</t>
-  </si>
-  <si>
-    <t>172817999</t>
-  </si>
-  <si>
-    <t>2776054349</t>
-  </si>
-  <si>
-    <t>87621631</t>
-  </si>
-  <si>
-    <t>154575652</t>
-  </si>
-  <si>
-    <t>153427425</t>
-  </si>
-  <si>
-    <t>2776285232</t>
-  </si>
-  <si>
-    <t>2780086105</t>
-  </si>
-  <si>
-    <t>2776554196</t>
-  </si>
-  <si>
-    <t>54625482</t>
-  </si>
-  <si>
-    <t>2619416</t>
-  </si>
-  <si>
-    <t>2777387638</t>
-  </si>
-  <si>
     <t>2781208722</t>
   </si>
   <si>
-    <t>2780946806</t>
-  </si>
-  <si>
-    <t>63651461</t>
-  </si>
-  <si>
-    <t>133382796</t>
-  </si>
-  <si>
-    <t>2780528068</t>
-  </si>
-  <si>
-    <t>156086215</t>
-  </si>
-  <si>
-    <t>42731165</t>
-  </si>
-  <si>
-    <t>154702282</t>
-  </si>
-  <si>
-    <t>147103442</t>
-  </si>
-  <si>
-    <t>15147509</t>
-  </si>
-  <si>
-    <t>119249163</t>
-  </si>
-  <si>
-    <t>116370137</t>
-  </si>
-  <si>
-    <t>126914827</t>
-  </si>
-  <si>
-    <t>2777380357</t>
-  </si>
-  <si>
-    <t>2777399377</t>
-  </si>
-  <si>
-    <t>2776562576</t>
-  </si>
-  <si>
-    <t>118694661</t>
-  </si>
-  <si>
-    <t>62158283</t>
-  </si>
-  <si>
-    <t>32120771</t>
-  </si>
-  <si>
-    <t>2777472530</t>
-  </si>
-  <si>
-    <t>2778361644</t>
-  </si>
-  <si>
-    <t>64229544</t>
-  </si>
-  <si>
-    <t>182124840</t>
-  </si>
-  <si>
-    <t>121850381</t>
-  </si>
-  <si>
-    <t>2776492830</t>
-  </si>
-  <si>
-    <t>59804570</t>
-  </si>
-  <si>
-    <t>2777106113</t>
-  </si>
-  <si>
-    <t>38774213</t>
-  </si>
-  <si>
-    <t>192392207</t>
-  </si>
-  <si>
-    <t>2778625682</t>
-  </si>
-  <si>
-    <t>2775841215</t>
-  </si>
-  <si>
-    <t>33411773</t>
-  </si>
-  <si>
-    <t>2777132354</t>
-  </si>
-  <si>
-    <t>532801124</t>
-  </si>
-  <si>
-    <t>198979508</t>
-  </si>
-  <si>
-    <t>89295123</t>
-  </si>
-  <si>
-    <t>2779004245</t>
-  </si>
-  <si>
-    <t>53002841</t>
-  </si>
-  <si>
-    <t>91354502</t>
-  </si>
-  <si>
-    <t>2775999090</t>
-  </si>
-  <si>
-    <t>2776978901</t>
-  </si>
-  <si>
-    <t>201401522</t>
-  </si>
-  <si>
-    <t>2776801807</t>
-  </si>
-  <si>
-    <t>123917164</t>
-  </si>
-  <si>
-    <t>2780816530</t>
-  </si>
-  <si>
-    <t>141185391</t>
-  </si>
-  <si>
-    <t>152491559</t>
-  </si>
-  <si>
-    <t>23519681</t>
-  </si>
-  <si>
-    <t>59898753</t>
-  </si>
-  <si>
-    <t>126408429</t>
-  </si>
-  <si>
-    <t>139518226</t>
-  </si>
-  <si>
-    <t>197320908</t>
-  </si>
-  <si>
-    <t>2776596991</t>
-  </si>
-  <si>
-    <t>150436541</t>
-  </si>
-  <si>
-    <t>2780189059</t>
-  </si>
-  <si>
-    <t>2777707638</t>
-  </si>
-  <si>
-    <t>25382069</t>
-  </si>
-  <si>
-    <t>2776107028</t>
-  </si>
-  <si>
-    <t>60989497</t>
-  </si>
-  <si>
-    <t>155015343</t>
-  </si>
-  <si>
-    <t>173795300</t>
-  </si>
-  <si>
-    <t>24518262</t>
-  </si>
-  <si>
-    <t>97137747</t>
-  </si>
-  <si>
-    <t>39571515</t>
-  </si>
-  <si>
-    <t>2780696901</t>
-  </si>
-  <si>
-    <t>107394435</t>
-  </si>
-  <si>
     <t>21790881</t>
   </si>
   <si>
@@ -451,393 +451,393 @@
     <t>139669111</t>
   </si>
   <si>
+    <t>28362043</t>
+  </si>
+  <si>
     <t>2776266027</t>
   </si>
   <si>
-    <t>28362043</t>
+    <t>Soil texture</t>
+  </si>
+  <si>
+    <t>USDA soil taxonomy</t>
+  </si>
+  <si>
+    <t>Soil conditioner</t>
+  </si>
+  <si>
+    <t>Soil mechanics</t>
+  </si>
+  <si>
+    <t>Soil horizon</t>
+  </si>
+  <si>
+    <t>Soil survey</t>
+  </si>
+  <si>
+    <t>Soil gradation</t>
+  </si>
+  <si>
+    <t>Soil contamination</t>
+  </si>
+  <si>
+    <t>Soil resilience</t>
+  </si>
+  <si>
+    <t>Soil color</t>
+  </si>
+  <si>
+    <t>Soil compaction</t>
+  </si>
+  <si>
+    <t>National Cooperative Soil Survey</t>
+  </si>
+  <si>
+    <t>Soil microbiology</t>
+  </si>
+  <si>
+    <t>Digital soil mapping</t>
+  </si>
+  <si>
+    <t>Soil Pollutants</t>
+  </si>
+  <si>
+    <t>Soil morphology</t>
+  </si>
+  <si>
+    <t>Soil classification</t>
+  </si>
+  <si>
+    <t>Soil biology</t>
+  </si>
+  <si>
+    <t>Soil structure</t>
+  </si>
+  <si>
+    <t>Soil food web</t>
+  </si>
+  <si>
+    <t>Soil chemistry</t>
   </si>
   <si>
     <t>Agricultural soil science</t>
   </si>
   <si>
+    <t>Soil carbon</t>
+  </si>
+  <si>
+    <t>Soil type</t>
+  </si>
+  <si>
+    <t>Soil science</t>
+  </si>
+  <si>
+    <t>Soil pH</t>
+  </si>
+  <si>
+    <t>Soil biodiversity</t>
+  </si>
+  <si>
     <t>Soil physics</t>
   </si>
   <si>
-    <t>Soil Pollutants</t>
-  </si>
-  <si>
-    <t>Soil texture</t>
+    <t>Soil series</t>
+  </si>
+  <si>
+    <t>SOIL EXPOSURE</t>
+  </si>
+  <si>
+    <t>World Reference Base for Soil Resources</t>
+  </si>
+  <si>
+    <t>Soil map</t>
   </si>
   <si>
     <t>Red soil</t>
   </si>
   <si>
-    <t>National Cooperative Soil Survey</t>
-  </si>
-  <si>
-    <t>Soil carbon</t>
-  </si>
-  <si>
-    <t>Soil series</t>
-  </si>
-  <si>
-    <t>Soil compaction</t>
-  </si>
-  <si>
-    <t>Soil contamination</t>
-  </si>
-  <si>
-    <t>World Reference Base for Soil Resources</t>
-  </si>
-  <si>
-    <t>Soil conditioner</t>
-  </si>
-  <si>
-    <t>Soil pH</t>
-  </si>
-  <si>
-    <t>Soil science</t>
-  </si>
-  <si>
-    <t>Digital soil mapping</t>
-  </si>
-  <si>
-    <t>Soil microbiology</t>
-  </si>
-  <si>
-    <t>Soil map</t>
-  </si>
-  <si>
-    <t>Soil morphology</t>
-  </si>
-  <si>
-    <t>Soil chemistry</t>
-  </si>
-  <si>
-    <t>Soil food web</t>
-  </si>
-  <si>
     <t>Soil thermal properties</t>
   </si>
   <si>
-    <t>Soil biodiversity</t>
-  </si>
-  <si>
-    <t>Soil horizon</t>
+    <t>Unified Soil Classification System</t>
   </si>
   <si>
     <t>Soil test</t>
   </si>
   <si>
-    <t>Soil mechanics</t>
-  </si>
-  <si>
-    <t>Soil biology</t>
-  </si>
-  <si>
-    <t>Soil type</t>
-  </si>
-  <si>
-    <t>Unified Soil Classification System</t>
-  </si>
-  <si>
-    <t>USDA soil taxonomy</t>
-  </si>
-  <si>
-    <t>SOIL EXPOSURE</t>
-  </si>
-  <si>
-    <t>Soil color</t>
-  </si>
-  <si>
-    <t>Soil resilience</t>
-  </si>
-  <si>
-    <t>Soil gradation</t>
-  </si>
-  <si>
-    <t>Soil survey</t>
-  </si>
-  <si>
-    <t>Soil classification</t>
-  </si>
-  <si>
-    <t>Soil structure</t>
+    <t>Yield gap</t>
+  </si>
+  <si>
+    <t>Vascular plant</t>
+  </si>
+  <si>
+    <t>Basal area</t>
+  </si>
+  <si>
+    <t>Plant strategies</t>
+  </si>
+  <si>
+    <t>High forest</t>
+  </si>
+  <si>
+    <t>Joint Forest Management</t>
+  </si>
+  <si>
+    <t>Plant functional type</t>
+  </si>
+  <si>
+    <t>Vegetation classification</t>
+  </si>
+  <si>
+    <t>Beech</t>
+  </si>
+  <si>
+    <t>Phytogeography</t>
+  </si>
+  <si>
+    <t>Plant breeding</t>
+  </si>
+  <si>
+    <t>Shrubland</t>
+  </si>
+  <si>
+    <t>Environmental soil science</t>
+  </si>
+  <si>
+    <t>Soil fertility</t>
+  </si>
+  <si>
+    <t>Community forestry</t>
+  </si>
+  <si>
+    <t>Sclerophyll</t>
+  </si>
+  <si>
+    <t>Temperate deciduous forest</t>
+  </si>
+  <si>
+    <t>Catch crop</t>
+  </si>
+  <si>
+    <t>Species translocation</t>
+  </si>
+  <si>
+    <t>Clearcutting</t>
+  </si>
+  <si>
+    <t>Pioneer species</t>
+  </si>
+  <si>
+    <t>Felling</t>
+  </si>
+  <si>
+    <t>DSSAT</t>
+  </si>
+  <si>
+    <t>Umbrella species</t>
+  </si>
+  <si>
+    <t>Tilth</t>
+  </si>
+  <si>
+    <t>Secondary forest</t>
+  </si>
+  <si>
+    <t>Tree breeding</t>
+  </si>
+  <si>
+    <t>Crop simulation model</t>
+  </si>
+  <si>
+    <t>Forest management</t>
+  </si>
+  <si>
+    <t>Tropical forest</t>
+  </si>
+  <si>
+    <t>Forestry law</t>
+  </si>
+  <si>
+    <t>Forest dynamics</t>
+  </si>
+  <si>
+    <t>Shelterwood cutting</t>
+  </si>
+  <si>
+    <t>Revegetation</t>
+  </si>
+  <si>
+    <t>Taiga</t>
+  </si>
+  <si>
+    <t>Montane ecology</t>
+  </si>
+  <si>
+    <t>Tropical agriculture</t>
+  </si>
+  <si>
+    <t>Plant community</t>
+  </si>
+  <si>
+    <t>Scots pine</t>
+  </si>
+  <si>
+    <t>Deciduous</t>
+  </si>
+  <si>
+    <t>Forb</t>
+  </si>
+  <si>
+    <t>Plant nutrition</t>
+  </si>
+  <si>
+    <t>Plant cover</t>
+  </si>
+  <si>
+    <t>Biodiversity hotspot</t>
+  </si>
+  <si>
+    <t>Soil governance</t>
+  </si>
+  <si>
+    <t>Tropical rainforest</t>
+  </si>
+  <si>
+    <t>Undergrowth</t>
+  </si>
+  <si>
+    <t>Ecosystem engineer</t>
+  </si>
+  <si>
+    <t>Conventional tillage</t>
+  </si>
+  <si>
+    <t>Soil ecology</t>
+  </si>
+  <si>
+    <t>Cover crop</t>
+  </si>
+  <si>
+    <t>Soil functions</t>
+  </si>
+  <si>
+    <t>Rainforest</t>
+  </si>
+  <si>
+    <t>Seral community</t>
+  </si>
+  <si>
+    <t>Conservation reliant species</t>
+  </si>
+  <si>
+    <t>Soil stabilization</t>
+  </si>
+  <si>
+    <t>Climax community</t>
+  </si>
+  <si>
+    <t>Soil retrogression and degradation</t>
+  </si>
+  <si>
+    <t>Forest pathology</t>
+  </si>
+  <si>
+    <t>Threatened species</t>
+  </si>
+  <si>
+    <t>Forest inventory</t>
+  </si>
+  <si>
+    <t>No-till farming</t>
+  </si>
+  <si>
+    <t>Cultural methods</t>
+  </si>
+  <si>
+    <t>Forest fragmentation</t>
+  </si>
+  <si>
+    <t>Pinus radiata</t>
+  </si>
+  <si>
+    <t>Forest protection</t>
+  </si>
+  <si>
+    <t>Rainfed agriculture</t>
+  </si>
+  <si>
+    <t>Red List Index</t>
+  </si>
+  <si>
+    <t>Sustainable forest management</t>
+  </si>
+  <si>
+    <t>Crop protection</t>
+  </si>
+  <si>
+    <t>Bulk soil</t>
+  </si>
+  <si>
+    <t>Flagship species</t>
+  </si>
+  <si>
+    <t>Certified wood</t>
+  </si>
+  <si>
+    <t>Forestry</t>
+  </si>
+  <si>
+    <t>Salvage logging</t>
+  </si>
+  <si>
+    <t>Silviculture</t>
+  </si>
+  <si>
+    <t>Reforestation</t>
+  </si>
+  <si>
+    <t>Bumper crop</t>
+  </si>
+  <si>
+    <t>Evergreen forest</t>
+  </si>
+  <si>
+    <t>Macroecology</t>
+  </si>
+  <si>
+    <t>Forest product</t>
+  </si>
+  <si>
+    <t>Dipterocarpaceae</t>
+  </si>
+  <si>
+    <t>Soil organic matter</t>
   </si>
   <si>
     <t>Topsoil</t>
   </si>
   <si>
+    <t>Quadrat</t>
+  </si>
+  <si>
+    <t>Near-threatened species</t>
+  </si>
+  <si>
     <t>Selection cutting</t>
   </si>
   <si>
-    <t>Cover crop</t>
-  </si>
-  <si>
-    <t>Umbrella species</t>
-  </si>
-  <si>
-    <t>Silviculture</t>
-  </si>
-  <si>
-    <t>Beech</t>
-  </si>
-  <si>
-    <t>Phytogeography</t>
-  </si>
-  <si>
-    <t>Deciduous</t>
+    <t>Soil health</t>
+  </si>
+  <si>
+    <t>Habitat destruction</t>
   </si>
   <si>
     <t>Tropical and subtropical dry broadleaf forests</t>
   </si>
   <si>
-    <t>Forest management</t>
-  </si>
-  <si>
-    <t>Revegetation</t>
-  </si>
-  <si>
-    <t>Near-threatened species</t>
-  </si>
-  <si>
-    <t>Scots pine</t>
-  </si>
-  <si>
-    <t>Tropical rainforest</t>
-  </si>
-  <si>
-    <t>Soil functions</t>
-  </si>
-  <si>
-    <t>Vegetation classification</t>
-  </si>
-  <si>
-    <t>Taiga</t>
-  </si>
-  <si>
-    <t>Reforestation</t>
-  </si>
-  <si>
-    <t>Biodiversity hotspot</t>
-  </si>
-  <si>
-    <t>Tropical forest</t>
-  </si>
-  <si>
-    <t>Forest product</t>
-  </si>
-  <si>
-    <t>Evergreen forest</t>
-  </si>
-  <si>
-    <t>Community forestry</t>
-  </si>
-  <si>
-    <t>Rainforest</t>
-  </si>
-  <si>
-    <t>Forestry law</t>
-  </si>
-  <si>
     <t>Intercropping</t>
   </si>
   <si>
-    <t>Plant functional type</t>
-  </si>
-  <si>
-    <t>Tropical agriculture</t>
-  </si>
-  <si>
-    <t>Secondary forest</t>
-  </si>
-  <si>
-    <t>Plant nutrition</t>
-  </si>
-  <si>
-    <t>Soil ecology</t>
-  </si>
-  <si>
-    <t>Environmental soil science</t>
-  </si>
-  <si>
-    <t>Temperate deciduous forest</t>
-  </si>
-  <si>
-    <t>Forest inventory</t>
-  </si>
-  <si>
-    <t>Conservation reliant species</t>
-  </si>
-  <si>
-    <t>Felling</t>
-  </si>
-  <si>
-    <t>No-till farming</t>
-  </si>
-  <si>
-    <t>Flagship species</t>
-  </si>
-  <si>
-    <t>Rainfed agriculture</t>
-  </si>
-  <si>
-    <t>DSSAT</t>
-  </si>
-  <si>
-    <t>Plant strategies</t>
-  </si>
-  <si>
-    <t>Climax community</t>
-  </si>
-  <si>
-    <t>Species translocation</t>
-  </si>
-  <si>
-    <t>Ecosystem engineer</t>
-  </si>
-  <si>
-    <t>Catch crop</t>
-  </si>
-  <si>
-    <t>Yield gap</t>
-  </si>
-  <si>
-    <t>Habitat destruction</t>
-  </si>
-  <si>
-    <t>Soil organic matter</t>
-  </si>
-  <si>
-    <t>Certified wood</t>
-  </si>
-  <si>
-    <t>Dipterocarpaceae</t>
-  </si>
-  <si>
-    <t>Soil governance</t>
-  </si>
-  <si>
-    <t>Crop simulation model</t>
-  </si>
-  <si>
-    <t>Soil fertility</t>
-  </si>
-  <si>
-    <t>Clearcutting</t>
-  </si>
-  <si>
-    <t>High forest</t>
-  </si>
-  <si>
-    <t>Sustainable forest management</t>
-  </si>
-  <si>
-    <t>Bulk soil</t>
-  </si>
-  <si>
-    <t>Shelterwood cutting</t>
-  </si>
-  <si>
-    <t>Crop protection</t>
-  </si>
-  <si>
-    <t>Forest fragmentation</t>
-  </si>
-  <si>
-    <t>Forest pathology</t>
-  </si>
-  <si>
-    <t>Tilth</t>
-  </si>
-  <si>
-    <t>Plant community</t>
-  </si>
-  <si>
-    <t>Basal area</t>
-  </si>
-  <si>
-    <t>Joint Forest Management</t>
-  </si>
-  <si>
-    <t>Tree breeding</t>
-  </si>
-  <si>
-    <t>Plant cover</t>
-  </si>
-  <si>
-    <t>Pinus radiata</t>
-  </si>
-  <si>
-    <t>Bumper crop</t>
-  </si>
-  <si>
-    <t>Forest protection</t>
-  </si>
-  <si>
-    <t>Soil retrogression and degradation</t>
-  </si>
-  <si>
-    <t>Macroecology</t>
-  </si>
-  <si>
-    <t>Montane ecology</t>
-  </si>
-  <si>
-    <t>Shrubland</t>
-  </si>
-  <si>
-    <t>Soil health</t>
-  </si>
-  <si>
-    <t>Sclerophyll</t>
-  </si>
-  <si>
-    <t>Pioneer species</t>
-  </si>
-  <si>
-    <t>Cultural methods</t>
-  </si>
-  <si>
-    <t>Forb</t>
-  </si>
-  <si>
-    <t>Soil stabilization</t>
-  </si>
-  <si>
-    <t>Vascular plant</t>
-  </si>
-  <si>
-    <t>Seral community</t>
-  </si>
-  <si>
-    <t>Forest dynamics</t>
-  </si>
-  <si>
-    <t>Red List Index</t>
-  </si>
-  <si>
-    <t>Plant breeding</t>
-  </si>
-  <si>
-    <t>Salvage logging</t>
-  </si>
-  <si>
-    <t>Threatened species</t>
-  </si>
-  <si>
-    <t>Forestry</t>
-  </si>
-  <si>
-    <t>Undergrowth</t>
-  </si>
-  <si>
-    <t>Conventional tillage</t>
-  </si>
-  <si>
-    <t>Quadrat</t>
-  </si>
-  <si>
     <t>Deep sea</t>
   </si>
   <si>
@@ -847,46 +847,46 @@
     <t>Understory</t>
   </si>
   <si>
+    <t>Hydric soil</t>
+  </si>
+  <si>
     <t>Membrane bioreactor</t>
   </si>
   <si>
-    <t>Hydric soil</t>
-  </si>
-  <si>
     <t>['8_NABS_FOS']</t>
   </si>
   <si>
-    <t>['9_SIRIS_Science4SDGs', '1_FP7-4-SD_edited', '7_EC_Policy_Doc_Terms', '4_SDGPathfinder_Keywords', '8_NABS_FOS']</t>
+    <t>['1_FP7-4-SD_edited', '8_NABS_FOS', '4_SDGPathfinder_Keywords']</t>
   </si>
   <si>
     <t>['1_FP7-4-SD_edited', '8_NABS_FOS']</t>
   </si>
   <si>
-    <t>['4_SDGPathfinder_Keywords', '1_FP7-4-SD_edited', '8_NABS_FOS']</t>
-  </si>
-  <si>
-    <t>['9_SIRIS_Science4SDGs', '1_FP7-4-SD_edited', '7_EC_Policy_Doc_Terms', '4_SDGPathfinder_Keywords', '3_SDGPathfinder_DocumentConcepts']</t>
+    <t>['1_FP7-4-SD_edited', '7_EC_Policy_Doc_Terms', '9_SIRIS_Science4SDGs', '8_NABS_FOS', '4_SDGPathfinder_Keywords']</t>
+  </si>
+  <si>
+    <t>['3_SDGPathfinder_DocumentConcepts', '1_FP7-4-SD_edited', '7_EC_Policy_Doc_Terms', '9_SIRIS_Science4SDGs', '4_SDGPathfinder_Keywords']</t>
   </si>
   <si>
     <t>['1_FP7-4-SD_edited']</t>
   </si>
   <si>
-    <t>['7_EC_Policy_Doc_Terms', '4_SDGPathfinder_Keywords', '9_SIRIS_Science4SDGs', '1_FP7-4-SD_edited']</t>
-  </si>
-  <si>
-    <t>['10_PPMI_fos', '1_FP7-4-SD_edited']</t>
-  </si>
-  <si>
-    <t>['6_SDGIO_terms', '0_PuigOntology']</t>
+    <t>['0_PuigOntology', '6_SDGIO_terms']</t>
+  </si>
+  <si>
+    <t>['1_FP7-4-SD_edited', '10_PPMI_fos']</t>
+  </si>
+  <si>
+    <t>['1_FP7-4-SD_edited', '7_EC_Policy_Doc_Terms', '4_SDGPathfinder_Keywords', '9_SIRIS_Science4SDGs']</t>
   </si>
   <si>
     <t>['10_PPMI_fos']</t>
   </si>
   <si>
-    <t>['6_SDGIO_terms', '10_PPMI_fos', '0_PuigOntology']</t>
-  </si>
-  <si>
-    <t>['10_PPMI_fos', '9_SIRIS_Science4SDGs', '1_FP7-4-SD_edited', '7_EC_Policy_Doc_Terms', '4_SDGPathfinder_Keywords']</t>
+    <t>['10_PPMI_fos', '0_PuigOntology', '6_SDGIO_terms']</t>
+  </si>
+  <si>
+    <t>['1_FP7-4-SD_edited', '10_PPMI_fos', '7_EC_Policy_Doc_Terms', '9_SIRIS_Science4SDGs', '4_SDGPathfinder_Keywords']</t>
   </si>
 </sst>
 </file>
@@ -2006,6 +2006,9 @@
       <c r="D38" t="s">
         <v>183</v>
       </c>
+      <c r="E38" t="s">
+        <v>279</v>
+      </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
@@ -2234,7 +2237,7 @@
         <v>193</v>
       </c>
       <c r="E48" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -2279,9 +2282,6 @@
       <c r="D50" t="s">
         <v>195</v>
       </c>
-      <c r="E50" t="s">
-        <v>279</v>
-      </c>
       <c r="F50" t="b">
         <v>0</v>
       </c>
@@ -2302,9 +2302,6 @@
       <c r="D51" t="s">
         <v>196</v>
       </c>
-      <c r="E51" t="s">
-        <v>279</v>
-      </c>
       <c r="F51" t="b">
         <v>0</v>
       </c>
@@ -2325,6 +2322,9 @@
       <c r="D52" t="s">
         <v>197</v>
       </c>
+      <c r="E52" t="s">
+        <v>279</v>
+      </c>
       <c r="F52" t="b">
         <v>0</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>200</v>
       </c>
       <c r="E55" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>208</v>
       </c>
       <c r="E63" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -2690,6 +2690,9 @@
       <c r="D68" t="s">
         <v>213</v>
       </c>
+      <c r="E68" t="s">
+        <v>279</v>
+      </c>
       <c r="F68" t="b">
         <v>0</v>
       </c>
@@ -2710,6 +2713,9 @@
       <c r="D69" t="s">
         <v>214</v>
       </c>
+      <c r="E69" t="s">
+        <v>279</v>
+      </c>
       <c r="F69" t="b">
         <v>0</v>
       </c>
@@ -3006,9 +3012,6 @@
       <c r="D82" t="s">
         <v>227</v>
       </c>
-      <c r="E82" t="s">
-        <v>281</v>
-      </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
@@ -3075,6 +3078,9 @@
       <c r="D85" t="s">
         <v>230</v>
       </c>
+      <c r="E85" t="s">
+        <v>279</v>
+      </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
@@ -3118,9 +3124,6 @@
       <c r="D87" t="s">
         <v>232</v>
       </c>
-      <c r="E87" t="s">
-        <v>279</v>
-      </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
@@ -3141,6 +3144,9 @@
       <c r="D88" t="s">
         <v>233</v>
       </c>
+      <c r="E88" t="s">
+        <v>279</v>
+      </c>
       <c r="F88" t="b">
         <v>0</v>
       </c>
@@ -3161,9 +3167,6 @@
       <c r="D89" t="s">
         <v>234</v>
       </c>
-      <c r="E89" t="s">
-        <v>279</v>
-      </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
@@ -3184,6 +3187,9 @@
       <c r="D90" t="s">
         <v>235</v>
       </c>
+      <c r="E90" t="s">
+        <v>279</v>
+      </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
@@ -3250,9 +3256,6 @@
       <c r="D93" t="s">
         <v>238</v>
       </c>
-      <c r="E93" t="s">
-        <v>279</v>
-      </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
@@ -3273,6 +3276,9 @@
       <c r="D94" t="s">
         <v>239</v>
       </c>
+      <c r="E94" t="s">
+        <v>279</v>
+      </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
@@ -3293,9 +3299,6 @@
       <c r="D95" t="s">
         <v>240</v>
       </c>
-      <c r="E95" t="s">
-        <v>279</v>
-      </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
@@ -3681,6 +3684,9 @@
       <c r="D112" t="s">
         <v>257</v>
       </c>
+      <c r="E112" t="s">
+        <v>279</v>
+      </c>
       <c r="F112" t="b">
         <v>0</v>
       </c>
@@ -3793,6 +3799,9 @@
       <c r="D117" t="s">
         <v>262</v>
       </c>
+      <c r="E117" t="s">
+        <v>279</v>
+      </c>
       <c r="F117" t="b">
         <v>0</v>
       </c>
@@ -3859,9 +3868,6 @@
       <c r="D120" t="s">
         <v>265</v>
       </c>
-      <c r="E120" t="s">
-        <v>279</v>
-      </c>
       <c r="F120" t="b">
         <v>0</v>
       </c>
@@ -3882,9 +3888,6 @@
       <c r="D121" t="s">
         <v>266</v>
       </c>
-      <c r="E121" t="s">
-        <v>279</v>
-      </c>
       <c r="F121" t="b">
         <v>0</v>
       </c>
@@ -3906,7 +3909,7 @@
         <v>267</v>
       </c>
       <c r="E122" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F122" t="b">
         <v>0</v>
@@ -3974,9 +3977,6 @@
       <c r="D125" t="s">
         <v>270</v>
       </c>
-      <c r="E125" t="s">
-        <v>279</v>
-      </c>
       <c r="F125" t="b">
         <v>0</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>273</v>
       </c>
       <c r="E128" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
@@ -4084,10 +4084,10 @@
         <v>14</v>
       </c>
       <c r="C130" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D130" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="E130" t="s">
         <v>284</v>
@@ -4107,10 +4107,10 @@
         <v>14</v>
       </c>
       <c r="C131" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="D131" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="E131" t="s">
         <v>285</v>
@@ -4130,13 +4130,13 @@
         <v>14</v>
       </c>
       <c r="C132" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D132" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E132" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F132" t="b">
         <v>1</v>
@@ -4153,13 +4153,13 @@
         <v>14</v>
       </c>
       <c r="C133" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D133" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E133" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F133" t="b">
         <v>1</v>
@@ -4176,13 +4176,13 @@
         <v>14</v>
       </c>
       <c r="C134" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D134" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E134" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F134" t="b">
         <v>1</v>
@@ -4199,13 +4199,13 @@
         <v>14</v>
       </c>
       <c r="C135" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="D135" t="s">
-        <v>213</v>
+        <v>266</v>
       </c>
       <c r="E135" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F135" t="b">
         <v>1</v>
@@ -4222,13 +4222,13 @@
         <v>14</v>
       </c>
       <c r="C136" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D136" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="E136" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F136" t="b">
         <v>1</v>
@@ -4245,13 +4245,13 @@
         <v>14</v>
       </c>
       <c r="C137" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="D137" t="s">
-        <v>230</v>
+        <v>275</v>
       </c>
       <c r="E137" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F137" t="b">
         <v>1</v>
@@ -4268,13 +4268,13 @@
         <v>14</v>
       </c>
       <c r="C138" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="D138" t="s">
-        <v>257</v>
+        <v>195</v>
       </c>
       <c r="E138" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F138" t="b">
         <v>1</v>
@@ -4291,13 +4291,13 @@
         <v>14</v>
       </c>
       <c r="C139" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D139" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="E139" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F139" t="b">
         <v>1</v>
@@ -4314,13 +4314,13 @@
         <v>14</v>
       </c>
       <c r="C140" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D140" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E140" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F140" t="b">
         <v>1</v>
@@ -4337,13 +4337,13 @@
         <v>14</v>
       </c>
       <c r="C141" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D141" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E141" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F141" t="b">
         <v>1</v>
@@ -4360,13 +4360,13 @@
         <v>14</v>
       </c>
       <c r="C142" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="D142" t="s">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="E142" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F142" t="b">
         <v>1</v>
@@ -4406,13 +4406,13 @@
         <v>14</v>
       </c>
       <c r="C144" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D144" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F144" t="b">
         <v>1</v>
@@ -4435,7 +4435,7 @@
         <v>277</v>
       </c>
       <c r="E145" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="F145" t="b">
         <v>1</v>
@@ -4458,7 +4458,7 @@
         <v>278</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="F146" t="b">
         <v>1</v>

--- a/comparison_fos_update.xlsx
+++ b/comparison_fos_update.xlsx
@@ -61,387 +61,387 @@
     <t>removed</t>
   </si>
   <si>
+    <t>205726622</t>
+  </si>
+  <si>
+    <t>120991184</t>
+  </si>
+  <si>
+    <t>162902727</t>
+  </si>
+  <si>
+    <t>63696750</t>
+  </si>
+  <si>
+    <t>58395597</t>
+  </si>
+  <si>
+    <t>70957220</t>
+  </si>
+  <si>
+    <t>50516716</t>
+  </si>
+  <si>
+    <t>53706860</t>
+  </si>
+  <si>
+    <t>160212601</t>
+  </si>
+  <si>
+    <t>55312793</t>
+  </si>
+  <si>
+    <t>152100882</t>
+  </si>
+  <si>
+    <t>182745123</t>
+  </si>
+  <si>
+    <t>2909722689</t>
+  </si>
+  <si>
+    <t>114426456</t>
+  </si>
+  <si>
+    <t>174200844</t>
+  </si>
+  <si>
+    <t>172365310</t>
+  </si>
+  <si>
+    <t>53421856</t>
+  </si>
+  <si>
+    <t>125596622</t>
+  </si>
+  <si>
+    <t>156634047</t>
+  </si>
+  <si>
+    <t>39464130</t>
+  </si>
+  <si>
+    <t>198072978</t>
+  </si>
+  <si>
+    <t>65580899</t>
+  </si>
+  <si>
+    <t>29510844</t>
+  </si>
+  <si>
+    <t>53145804</t>
+  </si>
+  <si>
+    <t>100474770</t>
+  </si>
+  <si>
     <t>175963888</t>
   </si>
   <si>
-    <t>63696750</t>
-  </si>
-  <si>
-    <t>162902727</t>
-  </si>
-  <si>
-    <t>205726622</t>
-  </si>
-  <si>
-    <t>156634047</t>
+    <t>152494472</t>
   </si>
   <si>
     <t>3742959</t>
   </si>
   <si>
-    <t>182745123</t>
-  </si>
-  <si>
-    <t>65580899</t>
-  </si>
-  <si>
-    <t>125596622</t>
-  </si>
-  <si>
-    <t>152100882</t>
-  </si>
-  <si>
-    <t>70957220</t>
-  </si>
-  <si>
-    <t>55312793</t>
-  </si>
-  <si>
-    <t>172365310</t>
+    <t>2910302653</t>
+  </si>
+  <si>
+    <t>71864017</t>
+  </si>
+  <si>
+    <t>14171219</t>
+  </si>
+  <si>
+    <t>159390177</t>
+  </si>
+  <si>
+    <t>7959160</t>
+  </si>
+  <si>
+    <t>160934017</t>
+  </si>
+  <si>
+    <t>5589519</t>
   </si>
   <si>
     <t>104471815</t>
   </si>
   <si>
-    <t>2909722689</t>
-  </si>
-  <si>
-    <t>53706860</t>
-  </si>
-  <si>
-    <t>152494472</t>
-  </si>
-  <si>
-    <t>53421856</t>
-  </si>
-  <si>
-    <t>120991184</t>
-  </si>
-  <si>
-    <t>53145804</t>
-  </si>
-  <si>
-    <t>29510844</t>
-  </si>
-  <si>
-    <t>14171219</t>
-  </si>
-  <si>
-    <t>39464130</t>
-  </si>
-  <si>
-    <t>160934017</t>
-  </si>
-  <si>
-    <t>159390177</t>
-  </si>
-  <si>
-    <t>198072978</t>
-  </si>
-  <si>
-    <t>7959160</t>
-  </si>
-  <si>
-    <t>100474770</t>
-  </si>
-  <si>
-    <t>5589519</t>
-  </si>
-  <si>
-    <t>2910302653</t>
-  </si>
-  <si>
-    <t>160212601</t>
-  </si>
-  <si>
-    <t>71864017</t>
-  </si>
-  <si>
-    <t>58395597</t>
-  </si>
-  <si>
-    <t>114426456</t>
-  </si>
-  <si>
-    <t>174200844</t>
-  </si>
-  <si>
-    <t>50516716</t>
+    <t>53002841</t>
+  </si>
+  <si>
+    <t>2780086105</t>
+  </si>
+  <si>
+    <t>34070608</t>
+  </si>
+  <si>
+    <t>197320908</t>
+  </si>
+  <si>
+    <t>126408429</t>
+  </si>
+  <si>
+    <t>116370137</t>
+  </si>
+  <si>
+    <t>126589399</t>
+  </si>
+  <si>
+    <t>42731165</t>
+  </si>
+  <si>
+    <t>2776107028</t>
+  </si>
+  <si>
+    <t>91354502</t>
+  </si>
+  <si>
+    <t>154575652</t>
+  </si>
+  <si>
+    <t>2776500793</t>
+  </si>
+  <si>
+    <t>2778625682</t>
+  </si>
+  <si>
+    <t>147103442</t>
+  </si>
+  <si>
+    <t>23519681</t>
+  </si>
+  <si>
+    <t>31568149</t>
+  </si>
+  <si>
+    <t>2781208722</t>
+  </si>
+  <si>
+    <t>153427425</t>
+  </si>
+  <si>
+    <t>126914827</t>
+  </si>
+  <si>
+    <t>154702282</t>
+  </si>
+  <si>
+    <t>150436541</t>
+  </si>
+  <si>
+    <t>2777399377</t>
+  </si>
+  <si>
+    <t>201401522</t>
+  </si>
+  <si>
+    <t>119249163</t>
+  </si>
+  <si>
+    <t>192392207</t>
+  </si>
+  <si>
+    <t>2776596991</t>
+  </si>
+  <si>
+    <t>25382069</t>
+  </si>
+  <si>
+    <t>93944068</t>
+  </si>
+  <si>
+    <t>97137747</t>
+  </si>
+  <si>
+    <t>2776562576</t>
+  </si>
+  <si>
+    <t>33283694</t>
+  </si>
+  <si>
+    <t>108216600</t>
+  </si>
+  <si>
+    <t>2775966360</t>
+  </si>
+  <si>
+    <t>2777132354</t>
+  </si>
+  <si>
+    <t>532801124</t>
+  </si>
+  <si>
+    <t>121850381</t>
+  </si>
+  <si>
+    <t>24518262</t>
+  </si>
+  <si>
+    <t>155015343</t>
+  </si>
+  <si>
+    <t>2777380357</t>
+  </si>
+  <si>
+    <t>2777472530</t>
+  </si>
+  <si>
+    <t>2776492830</t>
+  </si>
+  <si>
+    <t>118694661</t>
+  </si>
+  <si>
+    <t>2775999090</t>
+  </si>
+  <si>
+    <t>123917164</t>
+  </si>
+  <si>
+    <t>2780816530</t>
+  </si>
+  <si>
+    <t>2780528068</t>
+  </si>
+  <si>
+    <t>155987862</t>
+  </si>
+  <si>
+    <t>173795300</t>
   </si>
   <si>
     <t>2778361644</t>
   </si>
   <si>
+    <t>28631016</t>
+  </si>
+  <si>
+    <t>64229544</t>
+  </si>
+  <si>
+    <t>63651461</t>
+  </si>
+  <si>
+    <t>33411773</t>
+  </si>
+  <si>
+    <t>2775841215</t>
+  </si>
+  <si>
+    <t>59898753</t>
+  </si>
+  <si>
+    <t>39571515</t>
+  </si>
+  <si>
+    <t>2780696901</t>
+  </si>
+  <si>
+    <t>198979508</t>
+  </si>
+  <si>
     <t>2777707638</t>
   </si>
   <si>
-    <t>91354502</t>
-  </si>
-  <si>
-    <t>2776562576</t>
-  </si>
-  <si>
-    <t>2778625682</t>
-  </si>
-  <si>
-    <t>2775999090</t>
+    <t>2777387638</t>
+  </si>
+  <si>
+    <t>172817999</t>
+  </si>
+  <si>
+    <t>2780189059</t>
+  </si>
+  <si>
+    <t>555313981</t>
+  </si>
+  <si>
+    <t>2776801807</t>
+  </si>
+  <si>
+    <t>107394435</t>
+  </si>
+  <si>
+    <t>2776054349</t>
+  </si>
+  <si>
+    <t>62158283</t>
+  </si>
+  <si>
+    <t>89295123</t>
+  </si>
+  <si>
+    <t>38774213</t>
+  </si>
+  <si>
+    <t>87621631</t>
+  </si>
+  <si>
+    <t>15147509</t>
+  </si>
+  <si>
+    <t>182124840</t>
+  </si>
+  <si>
+    <t>59804570</t>
+  </si>
+  <si>
+    <t>20529654</t>
+  </si>
+  <si>
+    <t>54625482</t>
   </si>
   <si>
     <t>2780946806</t>
   </si>
   <si>
-    <t>2776054349</t>
-  </si>
-  <si>
-    <t>2776500793</t>
-  </si>
-  <si>
-    <t>93944068</t>
-  </si>
-  <si>
-    <t>155015343</t>
-  </si>
-  <si>
-    <t>59898753</t>
-  </si>
-  <si>
-    <t>42731165</t>
-  </si>
-  <si>
-    <t>38774213</t>
-  </si>
-  <si>
-    <t>54625482</t>
-  </si>
-  <si>
     <t>139518226</t>
   </si>
   <si>
-    <t>154702282</t>
-  </si>
-  <si>
-    <t>2777472530</t>
-  </si>
-  <si>
-    <t>62158283</t>
-  </si>
-  <si>
-    <t>192392207</t>
-  </si>
-  <si>
-    <t>197320908</t>
-  </si>
-  <si>
-    <t>119249163</t>
-  </si>
-  <si>
-    <t>2777399377</t>
-  </si>
-  <si>
-    <t>126589399</t>
+    <t>2779128174</t>
+  </si>
+  <si>
+    <t>32120771</t>
+  </si>
+  <si>
+    <t>141185391</t>
+  </si>
+  <si>
+    <t>2776978901</t>
+  </si>
+  <si>
+    <t>60989497</t>
+  </si>
+  <si>
+    <t>152491559</t>
+  </si>
+  <si>
+    <t>2776278397</t>
   </si>
   <si>
     <t>2779004245</t>
   </si>
   <si>
+    <t>156086215</t>
+  </si>
+  <si>
+    <t>2619416</t>
+  </si>
+  <si>
+    <t>2776554196</t>
+  </si>
+  <si>
+    <t>2777106113</t>
+  </si>
+  <si>
+    <t>2776285232</t>
+  </si>
+  <si>
     <t>133382796</t>
   </si>
   <si>
-    <t>2776978901</t>
-  </si>
-  <si>
-    <t>2777106113</t>
-  </si>
-  <si>
-    <t>28631016</t>
-  </si>
-  <si>
-    <t>2776285232</t>
-  </si>
-  <si>
-    <t>2777387638</t>
-  </si>
-  <si>
-    <t>2776107028</t>
-  </si>
-  <si>
-    <t>2777132354</t>
-  </si>
-  <si>
-    <t>2776278397</t>
-  </si>
-  <si>
-    <t>87621631</t>
-  </si>
-  <si>
-    <t>23519681</t>
-  </si>
-  <si>
-    <t>63651461</t>
-  </si>
-  <si>
-    <t>53002841</t>
-  </si>
-  <si>
-    <t>2779128174</t>
-  </si>
-  <si>
-    <t>33283694</t>
-  </si>
-  <si>
-    <t>150436541</t>
-  </si>
-  <si>
-    <t>2780528068</t>
-  </si>
-  <si>
-    <t>201401522</t>
-  </si>
-  <si>
-    <t>153427425</t>
-  </si>
-  <si>
-    <t>59804570</t>
-  </si>
-  <si>
-    <t>555313981</t>
-  </si>
-  <si>
-    <t>39571515</t>
-  </si>
-  <si>
-    <t>32120771</t>
-  </si>
-  <si>
-    <t>2780696901</t>
-  </si>
-  <si>
-    <t>156086215</t>
-  </si>
-  <si>
-    <t>34070608</t>
-  </si>
-  <si>
-    <t>172817999</t>
-  </si>
-  <si>
-    <t>2619416</t>
-  </si>
-  <si>
-    <t>25382069</t>
-  </si>
-  <si>
-    <t>15147509</t>
-  </si>
-  <si>
-    <t>2780189059</t>
-  </si>
-  <si>
-    <t>118694661</t>
-  </si>
-  <si>
-    <t>141185391</t>
-  </si>
-  <si>
-    <t>89295123</t>
-  </si>
-  <si>
-    <t>24518262</t>
-  </si>
-  <si>
-    <t>147103442</t>
-  </si>
-  <si>
-    <t>116370137</t>
-  </si>
-  <si>
-    <t>2776596991</t>
-  </si>
-  <si>
-    <t>198979508</t>
-  </si>
-  <si>
-    <t>2776801807</t>
-  </si>
-  <si>
-    <t>2780816530</t>
-  </si>
-  <si>
-    <t>2777380357</t>
-  </si>
-  <si>
-    <t>60989497</t>
-  </si>
-  <si>
-    <t>2775841215</t>
-  </si>
-  <si>
-    <t>532801124</t>
-  </si>
-  <si>
-    <t>33411773</t>
-  </si>
-  <si>
-    <t>126914827</t>
-  </si>
-  <si>
-    <t>121850381</t>
-  </si>
-  <si>
-    <t>97137747</t>
-  </si>
-  <si>
-    <t>173795300</t>
-  </si>
-  <si>
-    <t>2775966360</t>
-  </si>
-  <si>
-    <t>154575652</t>
-  </si>
-  <si>
-    <t>123917164</t>
-  </si>
-  <si>
-    <t>2776554196</t>
-  </si>
-  <si>
-    <t>152491559</t>
-  </si>
-  <si>
-    <t>2780086105</t>
-  </si>
-  <si>
-    <t>2776492830</t>
-  </si>
-  <si>
-    <t>182124840</t>
-  </si>
-  <si>
-    <t>20529654</t>
-  </si>
-  <si>
-    <t>107394435</t>
-  </si>
-  <si>
-    <t>31568149</t>
-  </si>
-  <si>
-    <t>155987862</t>
-  </si>
-  <si>
-    <t>126408429</t>
-  </si>
-  <si>
-    <t>64229544</t>
-  </si>
-  <si>
-    <t>108216600</t>
-  </si>
-  <si>
-    <t>2781208722</t>
-  </si>
-  <si>
     <t>21790881</t>
   </si>
   <si>
@@ -457,387 +457,387 @@
     <t>2776266027</t>
   </si>
   <si>
+    <t>Soil mechanics</t>
+  </si>
+  <si>
+    <t>Soil structure</t>
+  </si>
+  <si>
+    <t>Soil conditioner</t>
+  </si>
+  <si>
+    <t>USDA soil taxonomy</t>
+  </si>
+  <si>
+    <t>Red soil</t>
+  </si>
+  <si>
+    <t>Soil compaction</t>
+  </si>
+  <si>
+    <t>Soil test</t>
+  </si>
+  <si>
+    <t>Soil morphology</t>
+  </si>
+  <si>
+    <t>World Reference Base for Soil Resources</t>
+  </si>
+  <si>
+    <t>National Cooperative Soil Survey</t>
+  </si>
+  <si>
+    <t>Soil color</t>
+  </si>
+  <si>
+    <t>Soil gradation</t>
+  </si>
+  <si>
+    <t>Soil Pollutants</t>
+  </si>
+  <si>
+    <t>Soil thermal properties</t>
+  </si>
+  <si>
+    <t>Unified Soil Classification System</t>
+  </si>
+  <si>
+    <t>Soil microbiology</t>
+  </si>
+  <si>
+    <t>Soil biology</t>
+  </si>
+  <si>
+    <t>Soil resilience</t>
+  </si>
+  <si>
+    <t>Soil horizon</t>
+  </si>
+  <si>
+    <t>Soil carbon</t>
+  </si>
+  <si>
+    <t>Soil pH</t>
+  </si>
+  <si>
+    <t>Soil contamination</t>
+  </si>
+  <si>
+    <t>Soil chemistry</t>
+  </si>
+  <si>
+    <t>Soil food web</t>
+  </si>
+  <si>
+    <t>Soil physics</t>
+  </si>
+  <si>
     <t>Soil texture</t>
   </si>
   <si>
-    <t>USDA soil taxonomy</t>
-  </si>
-  <si>
-    <t>Soil conditioner</t>
-  </si>
-  <si>
-    <t>Soil mechanics</t>
-  </si>
-  <si>
-    <t>Soil horizon</t>
+    <t>Soil classification</t>
   </si>
   <si>
     <t>Soil survey</t>
   </si>
   <si>
-    <t>Soil gradation</t>
-  </si>
-  <si>
-    <t>Soil contamination</t>
-  </si>
-  <si>
-    <t>Soil resilience</t>
-  </si>
-  <si>
-    <t>Soil color</t>
-  </si>
-  <si>
-    <t>Soil compaction</t>
-  </si>
-  <si>
-    <t>National Cooperative Soil Survey</t>
-  </si>
-  <si>
-    <t>Soil microbiology</t>
+    <t>SOIL EXPOSURE</t>
+  </si>
+  <si>
+    <t>Soil map</t>
+  </si>
+  <si>
+    <t>Agricultural soil science</t>
+  </si>
+  <si>
+    <t>Soil science</t>
+  </si>
+  <si>
+    <t>Soil biodiversity</t>
+  </si>
+  <si>
+    <t>Soil type</t>
+  </si>
+  <si>
+    <t>Soil series</t>
   </si>
   <si>
     <t>Digital soil mapping</t>
   </si>
   <si>
-    <t>Soil Pollutants</t>
-  </si>
-  <si>
-    <t>Soil morphology</t>
-  </si>
-  <si>
-    <t>Soil classification</t>
-  </si>
-  <si>
-    <t>Soil biology</t>
-  </si>
-  <si>
-    <t>Soil structure</t>
-  </si>
-  <si>
-    <t>Soil food web</t>
-  </si>
-  <si>
-    <t>Soil chemistry</t>
-  </si>
-  <si>
-    <t>Agricultural soil science</t>
-  </si>
-  <si>
-    <t>Soil carbon</t>
-  </si>
-  <si>
-    <t>Soil type</t>
-  </si>
-  <si>
-    <t>Soil science</t>
-  </si>
-  <si>
-    <t>Soil pH</t>
-  </si>
-  <si>
-    <t>Soil biodiversity</t>
-  </si>
-  <si>
-    <t>Soil physics</t>
-  </si>
-  <si>
-    <t>Soil series</t>
-  </si>
-  <si>
-    <t>SOIL EXPOSURE</t>
-  </si>
-  <si>
-    <t>World Reference Base for Soil Resources</t>
-  </si>
-  <si>
-    <t>Soil map</t>
-  </si>
-  <si>
-    <t>Red soil</t>
-  </si>
-  <si>
-    <t>Soil thermal properties</t>
-  </si>
-  <si>
-    <t>Unified Soil Classification System</t>
-  </si>
-  <si>
-    <t>Soil test</t>
+    <t>Plant community</t>
+  </si>
+  <si>
+    <t>Forest product</t>
+  </si>
+  <si>
+    <t>Cover crop</t>
+  </si>
+  <si>
+    <t>Pioneer species</t>
+  </si>
+  <si>
+    <t>Soil health</t>
+  </si>
+  <si>
+    <t>No-till farming</t>
+  </si>
+  <si>
+    <t>Umbrella species</t>
+  </si>
+  <si>
+    <t>Environmental soil science</t>
+  </si>
+  <si>
+    <t>Forest dynamics</t>
+  </si>
+  <si>
+    <t>Basal area</t>
+  </si>
+  <si>
+    <t>Reforestation</t>
+  </si>
+  <si>
+    <t>Beech</t>
+  </si>
+  <si>
+    <t>High forest</t>
+  </si>
+  <si>
+    <t>Forest inventory</t>
+  </si>
+  <si>
+    <t>Montane ecology</t>
+  </si>
+  <si>
+    <t>Near-threatened species</t>
+  </si>
+  <si>
+    <t>Intercropping</t>
+  </si>
+  <si>
+    <t>Biodiversity hotspot</t>
+  </si>
+  <si>
+    <t>Flagship species</t>
+  </si>
+  <si>
+    <t>Temperate deciduous forest</t>
+  </si>
+  <si>
+    <t>Forb</t>
+  </si>
+  <si>
+    <t>DSSAT</t>
+  </si>
+  <si>
+    <t>Plant cover</t>
+  </si>
+  <si>
+    <t>Felling</t>
+  </si>
+  <si>
+    <t>Clearcutting</t>
+  </si>
+  <si>
+    <t>Cultural methods</t>
+  </si>
+  <si>
+    <t>Seral community</t>
+  </si>
+  <si>
+    <t>Phytogeography</t>
+  </si>
+  <si>
+    <t>Forestry</t>
+  </si>
+  <si>
+    <t>Plant strategies</t>
+  </si>
+  <si>
+    <t>Deciduous</t>
+  </si>
+  <si>
+    <t>Tropical and subtropical dry broadleaf forests</t>
+  </si>
+  <si>
+    <t>Silviculture</t>
+  </si>
+  <si>
+    <t>Shelterwood cutting</t>
+  </si>
+  <si>
+    <t>Crop protection</t>
+  </si>
+  <si>
+    <t>Certified wood</t>
+  </si>
+  <si>
+    <t>Threatened species</t>
+  </si>
+  <si>
+    <t>Plant breeding</t>
+  </si>
+  <si>
+    <t>Rainfed agriculture</t>
+  </si>
+  <si>
+    <t>Catch crop</t>
+  </si>
+  <si>
+    <t>Dipterocarpaceae</t>
+  </si>
+  <si>
+    <t>Climax community</t>
+  </si>
+  <si>
+    <t>Joint Forest Management</t>
+  </si>
+  <si>
+    <t>Bumper crop</t>
+  </si>
+  <si>
+    <t>Forest protection</t>
+  </si>
+  <si>
+    <t>Plant nutrition</t>
+  </si>
+  <si>
+    <t>Selection cutting</t>
+  </si>
+  <si>
+    <t>Salvage logging</t>
   </si>
   <si>
     <t>Yield gap</t>
   </si>
   <si>
+    <t>Forest management</t>
+  </si>
+  <si>
+    <t>Habitat destruction</t>
+  </si>
+  <si>
+    <t>Tropical agriculture</t>
+  </si>
+  <si>
+    <t>Bulk soil</t>
+  </si>
+  <si>
+    <t>Sustainable forest management</t>
+  </si>
+  <si>
+    <t>Shrubland</t>
+  </si>
+  <si>
+    <t>Undergrowth</t>
+  </si>
+  <si>
+    <t>Conventional tillage</t>
+  </si>
+  <si>
+    <t>Forest fragmentation</t>
+  </si>
+  <si>
     <t>Vascular plant</t>
   </si>
   <si>
-    <t>Basal area</t>
-  </si>
-  <si>
-    <t>Plant strategies</t>
-  </si>
-  <si>
-    <t>High forest</t>
-  </si>
-  <si>
-    <t>Joint Forest Management</t>
+    <t>Forestry law</t>
+  </si>
+  <si>
+    <t>Soil functions</t>
+  </si>
+  <si>
+    <t>Soil stabilization</t>
+  </si>
+  <si>
+    <t>Tropical rainforest</t>
+  </si>
+  <si>
+    <t>Pinus radiata</t>
+  </si>
+  <si>
+    <t>Quadrat</t>
+  </si>
+  <si>
+    <t>Vegetation classification</t>
+  </si>
+  <si>
+    <t>Species translocation</t>
+  </si>
+  <si>
+    <t>Forest pathology</t>
+  </si>
+  <si>
+    <t>Soil fertility</t>
+  </si>
+  <si>
+    <t>Taiga</t>
+  </si>
+  <si>
+    <t>Conservation reliant species</t>
+  </si>
+  <si>
+    <t>Soil organic matter</t>
+  </si>
+  <si>
+    <t>Soil governance</t>
+  </si>
+  <si>
+    <t>Topsoil</t>
+  </si>
+  <si>
+    <t>Community forestry</t>
   </si>
   <si>
     <t>Plant functional type</t>
   </si>
   <si>
-    <t>Vegetation classification</t>
-  </si>
-  <si>
-    <t>Beech</t>
-  </si>
-  <si>
-    <t>Phytogeography</t>
-  </si>
-  <si>
-    <t>Plant breeding</t>
-  </si>
-  <si>
-    <t>Shrubland</t>
-  </si>
-  <si>
-    <t>Environmental soil science</t>
-  </si>
-  <si>
-    <t>Soil fertility</t>
-  </si>
-  <si>
-    <t>Community forestry</t>
-  </si>
-  <si>
     <t>Sclerophyll</t>
   </si>
   <si>
-    <t>Temperate deciduous forest</t>
-  </si>
-  <si>
-    <t>Catch crop</t>
-  </si>
-  <si>
-    <t>Species translocation</t>
-  </si>
-  <si>
-    <t>Clearcutting</t>
-  </si>
-  <si>
-    <t>Pioneer species</t>
-  </si>
-  <si>
-    <t>Felling</t>
-  </si>
-  <si>
-    <t>DSSAT</t>
-  </si>
-  <si>
-    <t>Umbrella species</t>
+    <t>Scots pine</t>
+  </si>
+  <si>
+    <t>Ecosystem engineer</t>
+  </si>
+  <si>
+    <t>Soil retrogression and degradation</t>
+  </si>
+  <si>
+    <t>Tree breeding</t>
+  </si>
+  <si>
+    <t>Red List Index</t>
+  </si>
+  <si>
+    <t>Macroecology</t>
+  </si>
+  <si>
+    <t>Revegetation</t>
   </si>
   <si>
     <t>Tilth</t>
   </si>
   <si>
+    <t>Soil ecology</t>
+  </si>
+  <si>
+    <t>Rainforest</t>
+  </si>
+  <si>
+    <t>Evergreen forest</t>
+  </si>
+  <si>
+    <t>Crop simulation model</t>
+  </si>
+  <si>
+    <t>Tropical forest</t>
+  </si>
+  <si>
     <t>Secondary forest</t>
   </si>
   <si>
-    <t>Tree breeding</t>
-  </si>
-  <si>
-    <t>Crop simulation model</t>
-  </si>
-  <si>
-    <t>Forest management</t>
-  </si>
-  <si>
-    <t>Tropical forest</t>
-  </si>
-  <si>
-    <t>Forestry law</t>
-  </si>
-  <si>
-    <t>Forest dynamics</t>
-  </si>
-  <si>
-    <t>Shelterwood cutting</t>
-  </si>
-  <si>
-    <t>Revegetation</t>
-  </si>
-  <si>
-    <t>Taiga</t>
-  </si>
-  <si>
-    <t>Montane ecology</t>
-  </si>
-  <si>
-    <t>Tropical agriculture</t>
-  </si>
-  <si>
-    <t>Plant community</t>
-  </si>
-  <si>
-    <t>Scots pine</t>
-  </si>
-  <si>
-    <t>Deciduous</t>
-  </si>
-  <si>
-    <t>Forb</t>
-  </si>
-  <si>
-    <t>Plant nutrition</t>
-  </si>
-  <si>
-    <t>Plant cover</t>
-  </si>
-  <si>
-    <t>Biodiversity hotspot</t>
-  </si>
-  <si>
-    <t>Soil governance</t>
-  </si>
-  <si>
-    <t>Tropical rainforest</t>
-  </si>
-  <si>
-    <t>Undergrowth</t>
-  </si>
-  <si>
-    <t>Ecosystem engineer</t>
-  </si>
-  <si>
-    <t>Conventional tillage</t>
-  </si>
-  <si>
-    <t>Soil ecology</t>
-  </si>
-  <si>
-    <t>Cover crop</t>
-  </si>
-  <si>
-    <t>Soil functions</t>
-  </si>
-  <si>
-    <t>Rainforest</t>
-  </si>
-  <si>
-    <t>Seral community</t>
-  </si>
-  <si>
-    <t>Conservation reliant species</t>
-  </si>
-  <si>
-    <t>Soil stabilization</t>
-  </si>
-  <si>
-    <t>Climax community</t>
-  </si>
-  <si>
-    <t>Soil retrogression and degradation</t>
-  </si>
-  <si>
-    <t>Forest pathology</t>
-  </si>
-  <si>
-    <t>Threatened species</t>
-  </si>
-  <si>
-    <t>Forest inventory</t>
-  </si>
-  <si>
-    <t>No-till farming</t>
-  </si>
-  <si>
-    <t>Cultural methods</t>
-  </si>
-  <si>
-    <t>Forest fragmentation</t>
-  </si>
-  <si>
-    <t>Pinus radiata</t>
-  </si>
-  <si>
-    <t>Forest protection</t>
-  </si>
-  <si>
-    <t>Rainfed agriculture</t>
-  </si>
-  <si>
-    <t>Red List Index</t>
-  </si>
-  <si>
-    <t>Sustainable forest management</t>
-  </si>
-  <si>
-    <t>Crop protection</t>
-  </si>
-  <si>
-    <t>Bulk soil</t>
-  </si>
-  <si>
-    <t>Flagship species</t>
-  </si>
-  <si>
-    <t>Certified wood</t>
-  </si>
-  <si>
-    <t>Forestry</t>
-  </si>
-  <si>
-    <t>Salvage logging</t>
-  </si>
-  <si>
-    <t>Silviculture</t>
-  </si>
-  <si>
-    <t>Reforestation</t>
-  </si>
-  <si>
-    <t>Bumper crop</t>
-  </si>
-  <si>
-    <t>Evergreen forest</t>
-  </si>
-  <si>
-    <t>Macroecology</t>
-  </si>
-  <si>
-    <t>Forest product</t>
-  </si>
-  <si>
-    <t>Dipterocarpaceae</t>
-  </si>
-  <si>
-    <t>Soil organic matter</t>
-  </si>
-  <si>
-    <t>Topsoil</t>
-  </si>
-  <si>
-    <t>Quadrat</t>
-  </si>
-  <si>
-    <t>Near-threatened species</t>
-  </si>
-  <si>
-    <t>Selection cutting</t>
-  </si>
-  <si>
-    <t>Soil health</t>
-  </si>
-  <si>
-    <t>Habitat destruction</t>
-  </si>
-  <si>
-    <t>Tropical and subtropical dry broadleaf forests</t>
-  </si>
-  <si>
-    <t>Intercropping</t>
-  </si>
-  <si>
     <t>Deep sea</t>
   </si>
   <si>
@@ -856,37 +856,37 @@
     <t>['8_NABS_FOS']</t>
   </si>
   <si>
-    <t>['1_FP7-4-SD_edited', '8_NABS_FOS', '4_SDGPathfinder_Keywords']</t>
-  </si>
-  <si>
-    <t>['1_FP7-4-SD_edited', '8_NABS_FOS']</t>
-  </si>
-  <si>
-    <t>['1_FP7-4-SD_edited', '7_EC_Policy_Doc_Terms', '9_SIRIS_Science4SDGs', '8_NABS_FOS', '4_SDGPathfinder_Keywords']</t>
-  </si>
-  <si>
-    <t>['3_SDGPathfinder_DocumentConcepts', '1_FP7-4-SD_edited', '7_EC_Policy_Doc_Terms', '9_SIRIS_Science4SDGs', '4_SDGPathfinder_Keywords']</t>
+    <t>['8_NABS_FOS', '4_SDGPathfinder_Keywords', '7_EC_Policy_Doc_Terms', '1_FP7-4-SD_edited', '9_SIRIS_Science4SDGs']</t>
+  </si>
+  <si>
+    <t>['8_NABS_FOS', '1_FP7-4-SD_edited', '4_SDGPathfinder_Keywords']</t>
+  </si>
+  <si>
+    <t>['8_NABS_FOS', '1_FP7-4-SD_edited']</t>
+  </si>
+  <si>
+    <t>['3_SDGPathfinder_DocumentConcepts', '4_SDGPathfinder_Keywords', '7_EC_Policy_Doc_Terms', '1_FP7-4-SD_edited', '9_SIRIS_Science4SDGs']</t>
   </si>
   <si>
     <t>['1_FP7-4-SD_edited']</t>
   </si>
   <si>
-    <t>['0_PuigOntology', '6_SDGIO_terms']</t>
+    <t>['6_SDGIO_terms', '0_PuigOntology']</t>
+  </si>
+  <si>
+    <t>['6_SDGIO_terms', '0_PuigOntology', '10_PPMI_fos']</t>
+  </si>
+  <si>
+    <t>['9_SIRIS_Science4SDGs', '7_EC_Policy_Doc_Terms', '1_FP7-4-SD_edited', '4_SDGPathfinder_Keywords']</t>
+  </si>
+  <si>
+    <t>['10_PPMI_fos']</t>
   </si>
   <si>
     <t>['1_FP7-4-SD_edited', '10_PPMI_fos']</t>
   </si>
   <si>
-    <t>['1_FP7-4-SD_edited', '7_EC_Policy_Doc_Terms', '4_SDGPathfinder_Keywords', '9_SIRIS_Science4SDGs']</t>
-  </si>
-  <si>
-    <t>['10_PPMI_fos']</t>
-  </si>
-  <si>
-    <t>['10_PPMI_fos', '0_PuigOntology', '6_SDGIO_terms']</t>
-  </si>
-  <si>
-    <t>['1_FP7-4-SD_edited', '10_PPMI_fos', '7_EC_Policy_Doc_Terms', '9_SIRIS_Science4SDGs', '4_SDGPathfinder_Keywords']</t>
+    <t>['4_SDGPathfinder_Keywords', '7_EC_Policy_Doc_Terms', '1_FP7-4-SD_edited', '9_SIRIS_Science4SDGs', '10_PPMI_fos']</t>
   </si>
 </sst>
 </file>
@@ -2098,9 +2098,6 @@
       <c r="D42" t="s">
         <v>187</v>
       </c>
-      <c r="E42" t="s">
-        <v>279</v>
-      </c>
       <c r="F42" t="b">
         <v>0</v>
       </c>
@@ -2167,9 +2164,6 @@
       <c r="D45" t="s">
         <v>190</v>
       </c>
-      <c r="E45" t="s">
-        <v>279</v>
-      </c>
       <c r="F45" t="b">
         <v>0</v>
       </c>
@@ -2237,7 +2231,7 @@
         <v>193</v>
       </c>
       <c r="E48" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
@@ -2282,6 +2276,9 @@
       <c r="D50" t="s">
         <v>195</v>
       </c>
+      <c r="E50" t="s">
+        <v>279</v>
+      </c>
       <c r="F50" t="b">
         <v>0</v>
       </c>
@@ -2302,6 +2299,9 @@
       <c r="D51" t="s">
         <v>196</v>
       </c>
+      <c r="E51" t="s">
+        <v>279</v>
+      </c>
       <c r="F51" t="b">
         <v>0</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>199</v>
       </c>
       <c r="E54" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -2392,7 +2392,7 @@
         <v>200</v>
       </c>
       <c r="E55" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>220</v>
       </c>
       <c r="E75" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>222</v>
       </c>
       <c r="E77" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -3012,6 +3012,9 @@
       <c r="D82" t="s">
         <v>227</v>
       </c>
+      <c r="E82" t="s">
+        <v>279</v>
+      </c>
       <c r="F82" t="b">
         <v>0</v>
       </c>
@@ -3124,6 +3127,9 @@
       <c r="D87" t="s">
         <v>232</v>
       </c>
+      <c r="E87" t="s">
+        <v>279</v>
+      </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
@@ -3167,6 +3173,9 @@
       <c r="D89" t="s">
         <v>234</v>
       </c>
+      <c r="E89" t="s">
+        <v>279</v>
+      </c>
       <c r="F89" t="b">
         <v>0</v>
       </c>
@@ -3187,9 +3196,6 @@
       <c r="D90" t="s">
         <v>235</v>
       </c>
-      <c r="E90" t="s">
-        <v>279</v>
-      </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
@@ -3256,6 +3262,9 @@
       <c r="D93" t="s">
         <v>238</v>
       </c>
+      <c r="E93" t="s">
+        <v>279</v>
+      </c>
       <c r="F93" t="b">
         <v>0</v>
       </c>
@@ -3299,6 +3308,9 @@
       <c r="D95" t="s">
         <v>240</v>
       </c>
+      <c r="E95" t="s">
+        <v>279</v>
+      </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
@@ -3365,9 +3377,6 @@
       <c r="D98" t="s">
         <v>243</v>
       </c>
-      <c r="E98" t="s">
-        <v>279</v>
-      </c>
       <c r="F98" t="b">
         <v>0</v>
       </c>
@@ -3388,9 +3397,6 @@
       <c r="D99" t="s">
         <v>244</v>
       </c>
-      <c r="E99" t="s">
-        <v>279</v>
-      </c>
       <c r="F99" t="b">
         <v>0</v>
       </c>
@@ -3549,9 +3555,6 @@
       <c r="D106" t="s">
         <v>251</v>
       </c>
-      <c r="E106" t="s">
-        <v>279</v>
-      </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
@@ -3595,6 +3598,9 @@
       <c r="D108" t="s">
         <v>253</v>
       </c>
+      <c r="E108" t="s">
+        <v>279</v>
+      </c>
       <c r="F108" t="b">
         <v>0</v>
       </c>
@@ -3615,9 +3621,6 @@
       <c r="D109" t="s">
         <v>254</v>
       </c>
-      <c r="E109" t="s">
-        <v>279</v>
-      </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
@@ -3638,9 +3641,6 @@
       <c r="D110" t="s">
         <v>255</v>
       </c>
-      <c r="E110" t="s">
-        <v>279</v>
-      </c>
       <c r="F110" t="b">
         <v>0</v>
       </c>
@@ -3661,9 +3661,6 @@
       <c r="D111" t="s">
         <v>256</v>
       </c>
-      <c r="E111" t="s">
-        <v>279</v>
-      </c>
       <c r="F111" t="b">
         <v>0</v>
       </c>
@@ -3799,9 +3796,6 @@
       <c r="D117" t="s">
         <v>262</v>
       </c>
-      <c r="E117" t="s">
-        <v>279</v>
-      </c>
       <c r="F117" t="b">
         <v>0</v>
       </c>
@@ -3868,6 +3862,9 @@
       <c r="D120" t="s">
         <v>265</v>
       </c>
+      <c r="E120" t="s">
+        <v>279</v>
+      </c>
       <c r="F120" t="b">
         <v>0</v>
       </c>
@@ -3888,6 +3885,9 @@
       <c r="D121" t="s">
         <v>266</v>
       </c>
+      <c r="E121" t="s">
+        <v>279</v>
+      </c>
       <c r="F121" t="b">
         <v>0</v>
       </c>
@@ -3931,9 +3931,6 @@
       <c r="D123" t="s">
         <v>268</v>
       </c>
-      <c r="E123" t="s">
-        <v>279</v>
-      </c>
       <c r="F123" t="b">
         <v>0</v>
       </c>
@@ -3977,6 +3974,9 @@
       <c r="D125" t="s">
         <v>270</v>
       </c>
+      <c r="E125" t="s">
+        <v>279</v>
+      </c>
       <c r="F125" t="b">
         <v>0</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>273</v>
       </c>
       <c r="E128" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
@@ -4084,10 +4084,10 @@
         <v>14</v>
       </c>
       <c r="C130" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D130" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E130" t="s">
         <v>284</v>
@@ -4107,13 +4107,13 @@
         <v>14</v>
       </c>
       <c r="C131" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D131" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E131" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F131" t="b">
         <v>1</v>
@@ -4130,13 +4130,13 @@
         <v>14</v>
       </c>
       <c r="C132" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="D132" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="E132" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F132" t="b">
         <v>1</v>
@@ -4153,10 +4153,10 @@
         <v>14</v>
       </c>
       <c r="C133" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D133" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="E133" t="s">
         <v>285</v>
@@ -4176,10 +4176,10 @@
         <v>14</v>
       </c>
       <c r="C134" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="D134" t="s">
-        <v>240</v>
+        <v>187</v>
       </c>
       <c r="E134" t="s">
         <v>286</v>
@@ -4199,13 +4199,13 @@
         <v>14</v>
       </c>
       <c r="C135" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D135" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="E135" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F135" t="b">
         <v>1</v>
@@ -4222,13 +4222,13 @@
         <v>14</v>
       </c>
       <c r="C136" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="D136" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="E136" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F136" t="b">
         <v>1</v>
@@ -4268,10 +4268,10 @@
         <v>14</v>
       </c>
       <c r="C138" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D138" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E138" t="s">
         <v>288</v>
@@ -4291,13 +4291,13 @@
         <v>14</v>
       </c>
       <c r="C139" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="D139" t="s">
-        <v>196</v>
+        <v>262</v>
       </c>
       <c r="E139" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F139" t="b">
         <v>1</v>
@@ -4314,13 +4314,13 @@
         <v>14</v>
       </c>
       <c r="C140" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="D140" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="E140" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F140" t="b">
         <v>1</v>
@@ -4337,13 +4337,13 @@
         <v>14</v>
       </c>
       <c r="C141" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D141" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="E141" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F141" t="b">
         <v>1</v>
@@ -4360,13 +4360,13 @@
         <v>14</v>
       </c>
       <c r="C142" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D142" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E142" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F142" t="b">
         <v>1</v>
@@ -4406,10 +4406,10 @@
         <v>14</v>
       </c>
       <c r="C144" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D144" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="E144" t="s">
         <v>287</v>

--- a/comparison_fos_update.xlsx
+++ b/comparison_fos_update.xlsx
@@ -61,387 +61,387 @@
     <t>removed</t>
   </si>
   <si>
+    <t>160212601</t>
+  </si>
+  <si>
+    <t>198072978</t>
+  </si>
+  <si>
+    <t>55312793</t>
+  </si>
+  <si>
+    <t>100474770</t>
+  </si>
+  <si>
+    <t>182745123</t>
+  </si>
+  <si>
+    <t>39464130</t>
+  </si>
+  <si>
+    <t>7959160</t>
+  </si>
+  <si>
+    <t>5589519</t>
+  </si>
+  <si>
+    <t>3742959</t>
+  </si>
+  <si>
+    <t>58395597</t>
+  </si>
+  <si>
+    <t>152100882</t>
+  </si>
+  <si>
+    <t>160934017</t>
+  </si>
+  <si>
+    <t>29510844</t>
+  </si>
+  <si>
+    <t>175963888</t>
+  </si>
+  <si>
+    <t>53421856</t>
+  </si>
+  <si>
+    <t>114426456</t>
+  </si>
+  <si>
+    <t>162902727</t>
+  </si>
+  <si>
+    <t>159390177</t>
+  </si>
+  <si>
+    <t>174200844</t>
+  </si>
+  <si>
+    <t>2910302653</t>
+  </si>
+  <si>
+    <t>104471815</t>
+  </si>
+  <si>
+    <t>71864017</t>
+  </si>
+  <si>
+    <t>53706860</t>
+  </si>
+  <si>
+    <t>152494472</t>
+  </si>
+  <si>
+    <t>70957220</t>
+  </si>
+  <si>
+    <t>14171219</t>
+  </si>
+  <si>
     <t>205726622</t>
   </si>
   <si>
+    <t>53145804</t>
+  </si>
+  <si>
     <t>120991184</t>
   </si>
   <si>
-    <t>162902727</t>
+    <t>172365310</t>
+  </si>
+  <si>
+    <t>65580899</t>
   </si>
   <si>
     <t>63696750</t>
   </si>
   <si>
-    <t>58395597</t>
-  </si>
-  <si>
-    <t>70957220</t>
+    <t>2909722689</t>
   </si>
   <si>
     <t>50516716</t>
   </si>
   <si>
-    <t>53706860</t>
-  </si>
-  <si>
-    <t>160212601</t>
-  </si>
-  <si>
-    <t>55312793</t>
-  </si>
-  <si>
-    <t>152100882</t>
-  </si>
-  <si>
-    <t>182745123</t>
-  </si>
-  <si>
-    <t>2909722689</t>
-  </si>
-  <si>
-    <t>114426456</t>
-  </si>
-  <si>
-    <t>174200844</t>
-  </si>
-  <si>
-    <t>172365310</t>
-  </si>
-  <si>
-    <t>53421856</t>
+    <t>156634047</t>
   </si>
   <si>
     <t>125596622</t>
   </si>
   <si>
-    <t>156634047</t>
-  </si>
-  <si>
-    <t>39464130</t>
-  </si>
-  <si>
-    <t>198072978</t>
-  </si>
-  <si>
-    <t>65580899</t>
-  </si>
-  <si>
-    <t>29510844</t>
-  </si>
-  <si>
-    <t>53145804</t>
-  </si>
-  <si>
-    <t>100474770</t>
-  </si>
-  <si>
-    <t>175963888</t>
-  </si>
-  <si>
-    <t>152494472</t>
-  </si>
-  <si>
-    <t>3742959</t>
-  </si>
-  <si>
-    <t>2910302653</t>
-  </si>
-  <si>
-    <t>71864017</t>
-  </si>
-  <si>
-    <t>14171219</t>
-  </si>
-  <si>
-    <t>159390177</t>
-  </si>
-  <si>
-    <t>7959160</t>
-  </si>
-  <si>
-    <t>160934017</t>
-  </si>
-  <si>
-    <t>5589519</t>
-  </si>
-  <si>
-    <t>104471815</t>
+    <t>2779128174</t>
+  </si>
+  <si>
+    <t>60989497</t>
+  </si>
+  <si>
+    <t>155987862</t>
+  </si>
+  <si>
+    <t>126914827</t>
+  </si>
+  <si>
+    <t>119249163</t>
+  </si>
+  <si>
+    <t>2776500793</t>
+  </si>
+  <si>
+    <t>201401522</t>
+  </si>
+  <si>
+    <t>121850381</t>
+  </si>
+  <si>
+    <t>126589399</t>
+  </si>
+  <si>
+    <t>2777106113</t>
+  </si>
+  <si>
+    <t>154575652</t>
+  </si>
+  <si>
+    <t>2776054349</t>
+  </si>
+  <si>
+    <t>93944068</t>
+  </si>
+  <si>
+    <t>2776285232</t>
+  </si>
+  <si>
+    <t>2776492830</t>
+  </si>
+  <si>
+    <t>59898753</t>
+  </si>
+  <si>
+    <t>91354502</t>
+  </si>
+  <si>
+    <t>2775966360</t>
+  </si>
+  <si>
+    <t>20529654</t>
+  </si>
+  <si>
+    <t>198979508</t>
+  </si>
+  <si>
+    <t>42731165</t>
+  </si>
+  <si>
+    <t>62158283</t>
+  </si>
+  <si>
+    <t>2777707638</t>
+  </si>
+  <si>
+    <t>154702282</t>
+  </si>
+  <si>
+    <t>2776107028</t>
+  </si>
+  <si>
+    <t>192392207</t>
+  </si>
+  <si>
+    <t>118694661</t>
+  </si>
+  <si>
+    <t>2776596991</t>
+  </si>
+  <si>
+    <t>126408429</t>
+  </si>
+  <si>
+    <t>2776562576</t>
+  </si>
+  <si>
+    <t>2780696901</t>
+  </si>
+  <si>
+    <t>197320908</t>
+  </si>
+  <si>
+    <t>152491559</t>
+  </si>
+  <si>
+    <t>2779004245</t>
+  </si>
+  <si>
+    <t>156086215</t>
   </si>
   <si>
     <t>53002841</t>
   </si>
   <si>
+    <t>2778361644</t>
+  </si>
+  <si>
+    <t>54625482</t>
+  </si>
+  <si>
+    <t>2777399377</t>
+  </si>
+  <si>
+    <t>2775841215</t>
+  </si>
+  <si>
+    <t>172817999</t>
+  </si>
+  <si>
+    <t>33283694</t>
+  </si>
+  <si>
+    <t>141185391</t>
+  </si>
+  <si>
+    <t>2777387638</t>
+  </si>
+  <si>
+    <t>107394435</t>
+  </si>
+  <si>
+    <t>2776978901</t>
+  </si>
+  <si>
+    <t>64229544</t>
+  </si>
+  <si>
+    <t>182124840</t>
+  </si>
+  <si>
+    <t>59804570</t>
+  </si>
+  <si>
+    <t>87621631</t>
+  </si>
+  <si>
+    <t>2619416</t>
+  </si>
+  <si>
+    <t>89295123</t>
+  </si>
+  <si>
+    <t>38774213</t>
+  </si>
+  <si>
+    <t>147103442</t>
+  </si>
+  <si>
+    <t>2780946806</t>
+  </si>
+  <si>
+    <t>150436541</t>
+  </si>
+  <si>
+    <t>2777132354</t>
+  </si>
+  <si>
+    <t>63651461</t>
+  </si>
+  <si>
+    <t>2778625682</t>
+  </si>
+  <si>
+    <t>2780189059</t>
+  </si>
+  <si>
+    <t>24518262</t>
+  </si>
+  <si>
+    <t>39571515</t>
+  </si>
+  <si>
+    <t>2780528068</t>
+  </si>
+  <si>
+    <t>123917164</t>
+  </si>
+  <si>
+    <t>31568149</t>
+  </si>
+  <si>
+    <t>173795300</t>
+  </si>
+  <si>
+    <t>34070608</t>
+  </si>
+  <si>
+    <t>139518226</t>
+  </si>
+  <si>
+    <t>2776554196</t>
+  </si>
+  <si>
+    <t>2775999090</t>
+  </si>
+  <si>
+    <t>2776801807</t>
+  </si>
+  <si>
+    <t>23519681</t>
+  </si>
+  <si>
+    <t>2776278397</t>
+  </si>
+  <si>
+    <t>28631016</t>
+  </si>
+  <si>
+    <t>32120771</t>
+  </si>
+  <si>
+    <t>33411773</t>
+  </si>
+  <si>
+    <t>532801124</t>
+  </si>
+  <si>
+    <t>555313981</t>
+  </si>
+  <si>
+    <t>25382069</t>
+  </si>
+  <si>
+    <t>2777380357</t>
+  </si>
+  <si>
+    <t>133382796</t>
+  </si>
+  <si>
+    <t>116370137</t>
+  </si>
+  <si>
+    <t>153427425</t>
+  </si>
+  <si>
+    <t>2777472530</t>
+  </si>
+  <si>
+    <t>97137747</t>
+  </si>
+  <si>
+    <t>2781208722</t>
+  </si>
+  <si>
     <t>2780086105</t>
   </si>
   <si>
-    <t>34070608</t>
-  </si>
-  <si>
-    <t>197320908</t>
-  </si>
-  <si>
-    <t>126408429</t>
-  </si>
-  <si>
-    <t>116370137</t>
-  </si>
-  <si>
-    <t>126589399</t>
-  </si>
-  <si>
-    <t>42731165</t>
-  </si>
-  <si>
-    <t>2776107028</t>
-  </si>
-  <si>
-    <t>91354502</t>
-  </si>
-  <si>
-    <t>154575652</t>
-  </si>
-  <si>
-    <t>2776500793</t>
-  </si>
-  <si>
-    <t>2778625682</t>
-  </si>
-  <si>
-    <t>147103442</t>
-  </si>
-  <si>
-    <t>23519681</t>
-  </si>
-  <si>
-    <t>31568149</t>
-  </si>
-  <si>
-    <t>2781208722</t>
-  </si>
-  <si>
-    <t>153427425</t>
-  </si>
-  <si>
-    <t>126914827</t>
-  </si>
-  <si>
-    <t>154702282</t>
-  </si>
-  <si>
-    <t>150436541</t>
-  </si>
-  <si>
-    <t>2777399377</t>
-  </si>
-  <si>
-    <t>201401522</t>
-  </si>
-  <si>
-    <t>119249163</t>
-  </si>
-  <si>
-    <t>192392207</t>
-  </si>
-  <si>
-    <t>2776596991</t>
-  </si>
-  <si>
-    <t>25382069</t>
-  </si>
-  <si>
-    <t>93944068</t>
-  </si>
-  <si>
-    <t>97137747</t>
-  </si>
-  <si>
-    <t>2776562576</t>
-  </si>
-  <si>
-    <t>33283694</t>
+    <t>15147509</t>
+  </si>
+  <si>
+    <t>2780816530</t>
   </si>
   <si>
     <t>108216600</t>
   </si>
   <si>
-    <t>2775966360</t>
-  </si>
-  <si>
-    <t>2777132354</t>
-  </si>
-  <si>
-    <t>532801124</t>
-  </si>
-  <si>
-    <t>121850381</t>
-  </si>
-  <si>
-    <t>24518262</t>
-  </si>
-  <si>
     <t>155015343</t>
   </si>
   <si>
-    <t>2777380357</t>
-  </si>
-  <si>
-    <t>2777472530</t>
-  </si>
-  <si>
-    <t>2776492830</t>
-  </si>
-  <si>
-    <t>118694661</t>
-  </si>
-  <si>
-    <t>2775999090</t>
-  </si>
-  <si>
-    <t>123917164</t>
-  </si>
-  <si>
-    <t>2780816530</t>
-  </si>
-  <si>
-    <t>2780528068</t>
-  </si>
-  <si>
-    <t>155987862</t>
-  </si>
-  <si>
-    <t>173795300</t>
-  </si>
-  <si>
-    <t>2778361644</t>
-  </si>
-  <si>
-    <t>28631016</t>
-  </si>
-  <si>
-    <t>64229544</t>
-  </si>
-  <si>
-    <t>63651461</t>
-  </si>
-  <si>
-    <t>33411773</t>
-  </si>
-  <si>
-    <t>2775841215</t>
-  </si>
-  <si>
-    <t>59898753</t>
-  </si>
-  <si>
-    <t>39571515</t>
-  </si>
-  <si>
-    <t>2780696901</t>
-  </si>
-  <si>
-    <t>198979508</t>
-  </si>
-  <si>
-    <t>2777707638</t>
-  </si>
-  <si>
-    <t>2777387638</t>
-  </si>
-  <si>
-    <t>172817999</t>
-  </si>
-  <si>
-    <t>2780189059</t>
-  </si>
-  <si>
-    <t>555313981</t>
-  </si>
-  <si>
-    <t>2776801807</t>
-  </si>
-  <si>
-    <t>107394435</t>
-  </si>
-  <si>
-    <t>2776054349</t>
-  </si>
-  <si>
-    <t>62158283</t>
-  </si>
-  <si>
-    <t>89295123</t>
-  </si>
-  <si>
-    <t>38774213</t>
-  </si>
-  <si>
-    <t>87621631</t>
-  </si>
-  <si>
-    <t>15147509</t>
-  </si>
-  <si>
-    <t>182124840</t>
-  </si>
-  <si>
-    <t>59804570</t>
-  </si>
-  <si>
-    <t>20529654</t>
-  </si>
-  <si>
-    <t>54625482</t>
-  </si>
-  <si>
-    <t>2780946806</t>
-  </si>
-  <si>
-    <t>139518226</t>
-  </si>
-  <si>
-    <t>2779128174</t>
-  </si>
-  <si>
-    <t>32120771</t>
-  </si>
-  <si>
-    <t>141185391</t>
-  </si>
-  <si>
-    <t>2776978901</t>
-  </si>
-  <si>
-    <t>60989497</t>
-  </si>
-  <si>
-    <t>152491559</t>
-  </si>
-  <si>
-    <t>2776278397</t>
-  </si>
-  <si>
-    <t>2779004245</t>
-  </si>
-  <si>
-    <t>156086215</t>
-  </si>
-  <si>
-    <t>2619416</t>
-  </si>
-  <si>
-    <t>2776554196</t>
-  </si>
-  <si>
-    <t>2777106113</t>
-  </si>
-  <si>
-    <t>2776285232</t>
-  </si>
-  <si>
-    <t>133382796</t>
-  </si>
-  <si>
     <t>21790881</t>
   </si>
   <si>
@@ -451,393 +451,393 @@
     <t>139669111</t>
   </si>
   <si>
+    <t>2776266027</t>
+  </si>
+  <si>
     <t>28362043</t>
   </si>
   <si>
-    <t>2776266027</t>
+    <t>World Reference Base for Soil Resources</t>
+  </si>
+  <si>
+    <t>Soil pH</t>
+  </si>
+  <si>
+    <t>National Cooperative Soil Survey</t>
+  </si>
+  <si>
+    <t>Soil physics</t>
+  </si>
+  <si>
+    <t>Soil gradation</t>
+  </si>
+  <si>
+    <t>Soil carbon</t>
+  </si>
+  <si>
+    <t>Soil biodiversity</t>
+  </si>
+  <si>
+    <t>Soil series</t>
+  </si>
+  <si>
+    <t>Soil survey</t>
+  </si>
+  <si>
+    <t>Red soil</t>
+  </si>
+  <si>
+    <t>Soil color</t>
+  </si>
+  <si>
+    <t>Soil type</t>
+  </si>
+  <si>
+    <t>Soil chemistry</t>
+  </si>
+  <si>
+    <t>Soil texture</t>
+  </si>
+  <si>
+    <t>Soil biology</t>
+  </si>
+  <si>
+    <t>Soil thermal properties</t>
+  </si>
+  <si>
+    <t>Soil conditioner</t>
+  </si>
+  <si>
+    <t>Soil science</t>
+  </si>
+  <si>
+    <t>Unified Soil Classification System</t>
+  </si>
+  <si>
+    <t>SOIL EXPOSURE</t>
+  </si>
+  <si>
+    <t>Digital soil mapping</t>
+  </si>
+  <si>
+    <t>Soil map</t>
+  </si>
+  <si>
+    <t>Soil morphology</t>
+  </si>
+  <si>
+    <t>Soil classification</t>
+  </si>
+  <si>
+    <t>Soil compaction</t>
+  </si>
+  <si>
+    <t>Agricultural soil science</t>
   </si>
   <si>
     <t>Soil mechanics</t>
   </si>
   <si>
+    <t>Soil food web</t>
+  </si>
+  <si>
     <t>Soil structure</t>
   </si>
   <si>
-    <t>Soil conditioner</t>
+    <t>Soil microbiology</t>
+  </si>
+  <si>
+    <t>Soil contamination</t>
   </si>
   <si>
     <t>USDA soil taxonomy</t>
   </si>
   <si>
-    <t>Red soil</t>
-  </si>
-  <si>
-    <t>Soil compaction</t>
+    <t>Soil Pollutants</t>
   </si>
   <si>
     <t>Soil test</t>
   </si>
   <si>
-    <t>Soil morphology</t>
-  </si>
-  <si>
-    <t>World Reference Base for Soil Resources</t>
-  </si>
-  <si>
-    <t>National Cooperative Soil Survey</t>
-  </si>
-  <si>
-    <t>Soil color</t>
-  </si>
-  <si>
-    <t>Soil gradation</t>
-  </si>
-  <si>
-    <t>Soil Pollutants</t>
-  </si>
-  <si>
-    <t>Soil thermal properties</t>
-  </si>
-  <si>
-    <t>Unified Soil Classification System</t>
-  </si>
-  <si>
-    <t>Soil microbiology</t>
-  </si>
-  <si>
-    <t>Soil biology</t>
+    <t>Soil horizon</t>
   </si>
   <si>
     <t>Soil resilience</t>
   </si>
   <si>
-    <t>Soil horizon</t>
-  </si>
-  <si>
-    <t>Soil carbon</t>
-  </si>
-  <si>
-    <t>Soil pH</t>
-  </si>
-  <si>
-    <t>Soil contamination</t>
-  </si>
-  <si>
-    <t>Soil chemistry</t>
-  </si>
-  <si>
-    <t>Soil food web</t>
-  </si>
-  <si>
-    <t>Soil physics</t>
-  </si>
-  <si>
-    <t>Soil texture</t>
-  </si>
-  <si>
-    <t>Soil classification</t>
-  </si>
-  <si>
-    <t>Soil survey</t>
-  </si>
-  <si>
-    <t>SOIL EXPOSURE</t>
-  </si>
-  <si>
-    <t>Soil map</t>
-  </si>
-  <si>
-    <t>Agricultural soil science</t>
-  </si>
-  <si>
-    <t>Soil science</t>
-  </si>
-  <si>
-    <t>Soil biodiversity</t>
-  </si>
-  <si>
-    <t>Soil type</t>
-  </si>
-  <si>
-    <t>Soil series</t>
-  </si>
-  <si>
-    <t>Digital soil mapping</t>
+    <t>Scots pine</t>
+  </si>
+  <si>
+    <t>Red List Index</t>
+  </si>
+  <si>
+    <t>Selection cutting</t>
+  </si>
+  <si>
+    <t>Flagship species</t>
+  </si>
+  <si>
+    <t>Felling</t>
+  </si>
+  <si>
+    <t>Beech</t>
+  </si>
+  <si>
+    <t>Plant cover</t>
+  </si>
+  <si>
+    <t>Certified wood</t>
+  </si>
+  <si>
+    <t>Umbrella species</t>
+  </si>
+  <si>
+    <t>Crop simulation model</t>
+  </si>
+  <si>
+    <t>Reforestation</t>
+  </si>
+  <si>
+    <t>Vegetation classification</t>
+  </si>
+  <si>
+    <t>Phytogeography</t>
+  </si>
+  <si>
+    <t>Tropical forest</t>
+  </si>
+  <si>
+    <t>Dipterocarpaceae</t>
+  </si>
+  <si>
+    <t>Shrubland</t>
+  </si>
+  <si>
+    <t>Basal area</t>
+  </si>
+  <si>
+    <t>Silviculture</t>
+  </si>
+  <si>
+    <t>Topsoil</t>
+  </si>
+  <si>
+    <t>Forest fragmentation</t>
+  </si>
+  <si>
+    <t>Environmental soil science</t>
+  </si>
+  <si>
+    <t>Species translocation</t>
+  </si>
+  <si>
+    <t>Vascular plant</t>
+  </si>
+  <si>
+    <t>Temperate deciduous forest</t>
+  </si>
+  <si>
+    <t>Forest dynamics</t>
+  </si>
+  <si>
+    <t>Clearcutting</t>
+  </si>
+  <si>
+    <t>Climax community</t>
+  </si>
+  <si>
+    <t>Cultural methods</t>
+  </si>
+  <si>
+    <t>Soil health</t>
+  </si>
+  <si>
+    <t>Plant strategies</t>
+  </si>
+  <si>
+    <t>Conventional tillage</t>
+  </si>
+  <si>
+    <t>Pioneer species</t>
+  </si>
+  <si>
+    <t>Macroecology</t>
+  </si>
+  <si>
+    <t>Tilth</t>
+  </si>
+  <si>
+    <t>Soil ecology</t>
   </si>
   <si>
     <t>Plant community</t>
   </si>
   <si>
+    <t>Yield gap</t>
+  </si>
+  <si>
+    <t>Community forestry</t>
+  </si>
+  <si>
+    <t>DSSAT</t>
+  </si>
+  <si>
+    <t>Sustainable forest management</t>
+  </si>
+  <si>
+    <t>Soil functions</t>
+  </si>
+  <si>
+    <t>Deciduous</t>
+  </si>
+  <si>
+    <t>Soil retrogression and degradation</t>
+  </si>
+  <si>
+    <t>Forestry law</t>
+  </si>
+  <si>
+    <t>Quadrat</t>
+  </si>
+  <si>
+    <t>Tree breeding</t>
+  </si>
+  <si>
+    <t>Habitat destruction</t>
+  </si>
+  <si>
+    <t>Soil organic matter</t>
+  </si>
+  <si>
+    <t>Soil governance</t>
+  </si>
+  <si>
+    <t>Taiga</t>
+  </si>
+  <si>
+    <t>Rainforest</t>
+  </si>
+  <si>
+    <t>Forest pathology</t>
+  </si>
+  <si>
+    <t>Soil fertility</t>
+  </si>
+  <si>
+    <t>Forest inventory</t>
+  </si>
+  <si>
+    <t>Plant functional type</t>
+  </si>
+  <si>
+    <t>Forb</t>
+  </si>
+  <si>
+    <t>Shelterwood cutting</t>
+  </si>
+  <si>
+    <t>Tropical agriculture</t>
+  </si>
+  <si>
+    <t>High forest</t>
+  </si>
+  <si>
+    <t>Soil stabilization</t>
+  </si>
+  <si>
+    <t>Threatened species</t>
+  </si>
+  <si>
+    <t>Undergrowth</t>
+  </si>
+  <si>
+    <t>Plant nutrition</t>
+  </si>
+  <si>
+    <t>Bumper crop</t>
+  </si>
+  <si>
+    <t>Near-threatened species</t>
+  </si>
+  <si>
+    <t>Salvage logging</t>
+  </si>
+  <si>
+    <t>Cover crop</t>
+  </si>
+  <si>
+    <t>Sclerophyll</t>
+  </si>
+  <si>
+    <t>Evergreen forest</t>
+  </si>
+  <si>
+    <t>Joint Forest Management</t>
+  </si>
+  <si>
+    <t>Pinus radiata</t>
+  </si>
+  <si>
+    <t>Montane ecology</t>
+  </si>
+  <si>
+    <t>Revegetation</t>
+  </si>
+  <si>
+    <t>Forest management</t>
+  </si>
+  <si>
+    <t>Ecosystem engineer</t>
+  </si>
+  <si>
+    <t>Bulk soil</t>
+  </si>
+  <si>
+    <t>Crop protection</t>
+  </si>
+  <si>
+    <t>Tropical rainforest</t>
+  </si>
+  <si>
+    <t>Seral community</t>
+  </si>
+  <si>
+    <t>Rainfed agriculture</t>
+  </si>
+  <si>
+    <t>Secondary forest</t>
+  </si>
+  <si>
+    <t>No-till farming</t>
+  </si>
+  <si>
+    <t>Biodiversity hotspot</t>
+  </si>
+  <si>
+    <t>Catch crop</t>
+  </si>
+  <si>
+    <t>Forestry</t>
+  </si>
+  <si>
+    <t>Intercropping</t>
+  </si>
+  <si>
     <t>Forest product</t>
   </si>
   <si>
-    <t>Cover crop</t>
-  </si>
-  <si>
-    <t>Pioneer species</t>
-  </si>
-  <si>
-    <t>Soil health</t>
-  </si>
-  <si>
-    <t>No-till farming</t>
-  </si>
-  <si>
-    <t>Umbrella species</t>
-  </si>
-  <si>
-    <t>Environmental soil science</t>
-  </si>
-  <si>
-    <t>Forest dynamics</t>
-  </si>
-  <si>
-    <t>Basal area</t>
-  </si>
-  <si>
-    <t>Reforestation</t>
-  </si>
-  <si>
-    <t>Beech</t>
-  </si>
-  <si>
-    <t>High forest</t>
-  </si>
-  <si>
-    <t>Forest inventory</t>
-  </si>
-  <si>
-    <t>Montane ecology</t>
-  </si>
-  <si>
-    <t>Near-threatened species</t>
-  </si>
-  <si>
-    <t>Intercropping</t>
-  </si>
-  <si>
-    <t>Biodiversity hotspot</t>
-  </si>
-  <si>
-    <t>Flagship species</t>
-  </si>
-  <si>
-    <t>Temperate deciduous forest</t>
-  </si>
-  <si>
-    <t>Forb</t>
-  </si>
-  <si>
-    <t>DSSAT</t>
-  </si>
-  <si>
-    <t>Plant cover</t>
-  </si>
-  <si>
-    <t>Felling</t>
-  </si>
-  <si>
-    <t>Clearcutting</t>
-  </si>
-  <si>
-    <t>Cultural methods</t>
-  </si>
-  <si>
-    <t>Seral community</t>
-  </si>
-  <si>
-    <t>Phytogeography</t>
-  </si>
-  <si>
-    <t>Forestry</t>
-  </si>
-  <si>
-    <t>Plant strategies</t>
-  </si>
-  <si>
-    <t>Deciduous</t>
+    <t>Conservation reliant species</t>
+  </si>
+  <si>
+    <t>Forest protection</t>
   </si>
   <si>
     <t>Tropical and subtropical dry broadleaf forests</t>
   </si>
   <si>
-    <t>Silviculture</t>
-  </si>
-  <si>
-    <t>Shelterwood cutting</t>
-  </si>
-  <si>
-    <t>Crop protection</t>
-  </si>
-  <si>
-    <t>Certified wood</t>
-  </si>
-  <si>
-    <t>Threatened species</t>
-  </si>
-  <si>
     <t>Plant breeding</t>
   </si>
   <si>
-    <t>Rainfed agriculture</t>
-  </si>
-  <si>
-    <t>Catch crop</t>
-  </si>
-  <si>
-    <t>Dipterocarpaceae</t>
-  </si>
-  <si>
-    <t>Climax community</t>
-  </si>
-  <si>
-    <t>Joint Forest Management</t>
-  </si>
-  <si>
-    <t>Bumper crop</t>
-  </si>
-  <si>
-    <t>Forest protection</t>
-  </si>
-  <si>
-    <t>Plant nutrition</t>
-  </si>
-  <si>
-    <t>Selection cutting</t>
-  </si>
-  <si>
-    <t>Salvage logging</t>
-  </si>
-  <si>
-    <t>Yield gap</t>
-  </si>
-  <si>
-    <t>Forest management</t>
-  </si>
-  <si>
-    <t>Habitat destruction</t>
-  </si>
-  <si>
-    <t>Tropical agriculture</t>
-  </si>
-  <si>
-    <t>Bulk soil</t>
-  </si>
-  <si>
-    <t>Sustainable forest management</t>
-  </si>
-  <si>
-    <t>Shrubland</t>
-  </si>
-  <si>
-    <t>Undergrowth</t>
-  </si>
-  <si>
-    <t>Conventional tillage</t>
-  </si>
-  <si>
-    <t>Forest fragmentation</t>
-  </si>
-  <si>
-    <t>Vascular plant</t>
-  </si>
-  <si>
-    <t>Forestry law</t>
-  </si>
-  <si>
-    <t>Soil functions</t>
-  </si>
-  <si>
-    <t>Soil stabilization</t>
-  </si>
-  <si>
-    <t>Tropical rainforest</t>
-  </si>
-  <si>
-    <t>Pinus radiata</t>
-  </si>
-  <si>
-    <t>Quadrat</t>
-  </si>
-  <si>
-    <t>Vegetation classification</t>
-  </si>
-  <si>
-    <t>Species translocation</t>
-  </si>
-  <si>
-    <t>Forest pathology</t>
-  </si>
-  <si>
-    <t>Soil fertility</t>
-  </si>
-  <si>
-    <t>Taiga</t>
-  </si>
-  <si>
-    <t>Conservation reliant species</t>
-  </si>
-  <si>
-    <t>Soil organic matter</t>
-  </si>
-  <si>
-    <t>Soil governance</t>
-  </si>
-  <si>
-    <t>Topsoil</t>
-  </si>
-  <si>
-    <t>Community forestry</t>
-  </si>
-  <si>
-    <t>Plant functional type</t>
-  </si>
-  <si>
-    <t>Sclerophyll</t>
-  </si>
-  <si>
-    <t>Scots pine</t>
-  </si>
-  <si>
-    <t>Ecosystem engineer</t>
-  </si>
-  <si>
-    <t>Soil retrogression and degradation</t>
-  </si>
-  <si>
-    <t>Tree breeding</t>
-  </si>
-  <si>
-    <t>Red List Index</t>
-  </si>
-  <si>
-    <t>Macroecology</t>
-  </si>
-  <si>
-    <t>Revegetation</t>
-  </si>
-  <si>
-    <t>Tilth</t>
-  </si>
-  <si>
-    <t>Soil ecology</t>
-  </si>
-  <si>
-    <t>Rainforest</t>
-  </si>
-  <si>
-    <t>Evergreen forest</t>
-  </si>
-  <si>
-    <t>Crop simulation model</t>
-  </si>
-  <si>
-    <t>Tropical forest</t>
-  </si>
-  <si>
-    <t>Secondary forest</t>
-  </si>
-  <si>
     <t>Deep sea</t>
   </si>
   <si>
@@ -847,46 +847,46 @@
     <t>Understory</t>
   </si>
   <si>
+    <t>Membrane bioreactor</t>
+  </si>
+  <si>
     <t>Hydric soil</t>
   </si>
   <si>
-    <t>Membrane bioreactor</t>
-  </si>
-  <si>
     <t>['8_NABS_FOS']</t>
   </si>
   <si>
-    <t>['8_NABS_FOS', '4_SDGPathfinder_Keywords', '7_EC_Policy_Doc_Terms', '1_FP7-4-SD_edited', '9_SIRIS_Science4SDGs']</t>
-  </si>
-  <si>
-    <t>['8_NABS_FOS', '1_FP7-4-SD_edited', '4_SDGPathfinder_Keywords']</t>
-  </si>
-  <si>
-    <t>['8_NABS_FOS', '1_FP7-4-SD_edited']</t>
-  </si>
-  <si>
-    <t>['3_SDGPathfinder_DocumentConcepts', '4_SDGPathfinder_Keywords', '7_EC_Policy_Doc_Terms', '1_FP7-4-SD_edited', '9_SIRIS_Science4SDGs']</t>
+    <t>['1_FP7-4-SD_edited', '8_NABS_FOS']</t>
+  </si>
+  <si>
+    <t>['8_NABS_FOS', '4_SDGPathfinder_Keywords', '9_SIRIS_Science4SDGs', '7_EC_Policy_Doc_Terms', '1_FP7-4-SD_edited']</t>
+  </si>
+  <si>
+    <t>['4_SDGPathfinder_Keywords', '1_FP7-4-SD_edited', '8_NABS_FOS']</t>
+  </si>
+  <si>
+    <t>['3_SDGPathfinder_DocumentConcepts', '4_SDGPathfinder_Keywords', '9_SIRIS_Science4SDGs', '7_EC_Policy_Doc_Terms', '1_FP7-4-SD_edited']</t>
   </si>
   <si>
     <t>['1_FP7-4-SD_edited']</t>
   </si>
   <si>
-    <t>['6_SDGIO_terms', '0_PuigOntology']</t>
-  </si>
-  <si>
-    <t>['6_SDGIO_terms', '0_PuigOntology', '10_PPMI_fos']</t>
-  </si>
-  <si>
-    <t>['9_SIRIS_Science4SDGs', '7_EC_Policy_Doc_Terms', '1_FP7-4-SD_edited', '4_SDGPathfinder_Keywords']</t>
+    <t>['0_PuigOntology', '6_SDGIO_terms']</t>
+  </si>
+  <si>
+    <t>['0_PuigOntology', '6_SDGIO_terms', '10_PPMI_fos']</t>
+  </si>
+  <si>
+    <t>['1_FP7-4-SD_edited', '10_PPMI_fos']</t>
   </si>
   <si>
     <t>['10_PPMI_fos']</t>
   </si>
   <si>
-    <t>['1_FP7-4-SD_edited', '10_PPMI_fos']</t>
-  </si>
-  <si>
-    <t>['4_SDGPathfinder_Keywords', '7_EC_Policy_Doc_Terms', '1_FP7-4-SD_edited', '9_SIRIS_Science4SDGs', '10_PPMI_fos']</t>
+    <t>['4_SDGPathfinder_Keywords', '1_FP7-4-SD_edited', '9_SIRIS_Science4SDGs', '7_EC_Policy_Doc_Terms']</t>
+  </si>
+  <si>
+    <t>['10_PPMI_fos', '4_SDGPathfinder_Keywords', '9_SIRIS_Science4SDGs', '7_EC_Policy_Doc_Terms', '1_FP7-4-SD_edited']</t>
   </si>
 </sst>
 </file>
@@ -2098,6 +2098,9 @@
       <c r="D42" t="s">
         <v>187</v>
       </c>
+      <c r="E42" t="s">
+        <v>279</v>
+      </c>
       <c r="F42" t="b">
         <v>0</v>
       </c>
@@ -2164,6 +2167,9 @@
       <c r="D45" t="s">
         <v>190</v>
       </c>
+      <c r="E45" t="s">
+        <v>279</v>
+      </c>
       <c r="F45" t="b">
         <v>0</v>
       </c>
@@ -2369,7 +2375,7 @@
         <v>199</v>
       </c>
       <c r="E54" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -2414,9 +2420,6 @@
       <c r="D56" t="s">
         <v>201</v>
       </c>
-      <c r="E56" t="s">
-        <v>279</v>
-      </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
@@ -2460,9 +2463,6 @@
       <c r="D58" t="s">
         <v>203</v>
       </c>
-      <c r="E58" t="s">
-        <v>279</v>
-      </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
@@ -2644,9 +2644,6 @@
       <c r="D66" t="s">
         <v>211</v>
       </c>
-      <c r="E66" t="s">
-        <v>279</v>
-      </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
@@ -2782,9 +2779,6 @@
       <c r="D72" t="s">
         <v>217</v>
       </c>
-      <c r="E72" t="s">
-        <v>279</v>
-      </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
@@ -2852,7 +2846,7 @@
         <v>220</v>
       </c>
       <c r="E75" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -2898,7 +2892,7 @@
         <v>222</v>
       </c>
       <c r="E77" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -2920,9 +2914,6 @@
       <c r="D78" t="s">
         <v>223</v>
       </c>
-      <c r="E78" t="s">
-        <v>279</v>
-      </c>
       <c r="F78" t="b">
         <v>0</v>
       </c>
@@ -2966,9 +2957,6 @@
       <c r="D80" t="s">
         <v>225</v>
       </c>
-      <c r="E80" t="s">
-        <v>279</v>
-      </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
@@ -3081,9 +3069,6 @@
       <c r="D85" t="s">
         <v>230</v>
       </c>
-      <c r="E85" t="s">
-        <v>279</v>
-      </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
@@ -3104,9 +3089,6 @@
       <c r="D86" t="s">
         <v>231</v>
       </c>
-      <c r="E86" t="s">
-        <v>279</v>
-      </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
@@ -3354,9 +3336,6 @@
       <c r="D97" t="s">
         <v>242</v>
       </c>
-      <c r="E97" t="s">
-        <v>279</v>
-      </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
@@ -3377,6 +3356,9 @@
       <c r="D98" t="s">
         <v>243</v>
       </c>
+      <c r="E98" t="s">
+        <v>279</v>
+      </c>
       <c r="F98" t="b">
         <v>0</v>
       </c>
@@ -3397,6 +3379,9 @@
       <c r="D99" t="s">
         <v>244</v>
       </c>
+      <c r="E99" t="s">
+        <v>279</v>
+      </c>
       <c r="F99" t="b">
         <v>0</v>
       </c>
@@ -3555,6 +3540,9 @@
       <c r="D106" t="s">
         <v>251</v>
       </c>
+      <c r="E106" t="s">
+        <v>279</v>
+      </c>
       <c r="F106" t="b">
         <v>0</v>
       </c>
@@ -3621,6 +3609,9 @@
       <c r="D109" t="s">
         <v>254</v>
       </c>
+      <c r="E109" t="s">
+        <v>279</v>
+      </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
@@ -3641,6 +3632,9 @@
       <c r="D110" t="s">
         <v>255</v>
       </c>
+      <c r="E110" t="s">
+        <v>279</v>
+      </c>
       <c r="F110" t="b">
         <v>0</v>
       </c>
@@ -3661,6 +3655,9 @@
       <c r="D111" t="s">
         <v>256</v>
       </c>
+      <c r="E111" t="s">
+        <v>279</v>
+      </c>
       <c r="F111" t="b">
         <v>0</v>
       </c>
@@ -3704,9 +3701,6 @@
       <c r="D113" t="s">
         <v>258</v>
       </c>
-      <c r="E113" t="s">
-        <v>279</v>
-      </c>
       <c r="F113" t="b">
         <v>0</v>
       </c>
@@ -3796,6 +3790,9 @@
       <c r="D117" t="s">
         <v>262</v>
       </c>
+      <c r="E117" t="s">
+        <v>279</v>
+      </c>
       <c r="F117" t="b">
         <v>0</v>
       </c>
@@ -3886,7 +3883,7 @@
         <v>266</v>
       </c>
       <c r="E121" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
@@ -3931,6 +3928,9 @@
       <c r="D123" t="s">
         <v>268</v>
       </c>
+      <c r="E123" t="s">
+        <v>281</v>
+      </c>
       <c r="F123" t="b">
         <v>0</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>273</v>
       </c>
       <c r="E128" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
@@ -4084,10 +4084,10 @@
         <v>14</v>
       </c>
       <c r="C130" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D130" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E130" t="s">
         <v>284</v>
@@ -4113,7 +4113,7 @@
         <v>235</v>
       </c>
       <c r="E131" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F131" t="b">
         <v>1</v>
@@ -4130,10 +4130,10 @@
         <v>14</v>
       </c>
       <c r="C132" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D132" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E132" t="s">
         <v>284</v>
@@ -4153,10 +4153,10 @@
         <v>14</v>
       </c>
       <c r="C133" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="D133" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="E133" t="s">
         <v>285</v>
@@ -4176,10 +4176,10 @@
         <v>14</v>
       </c>
       <c r="C134" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D134" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="E134" t="s">
         <v>286</v>
@@ -4199,13 +4199,13 @@
         <v>14</v>
       </c>
       <c r="C135" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="D135" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="E135" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F135" t="b">
         <v>1</v>
@@ -4222,13 +4222,13 @@
         <v>14</v>
       </c>
       <c r="C136" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D136" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="E136" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F136" t="b">
         <v>1</v>
@@ -4268,13 +4268,13 @@
         <v>14</v>
       </c>
       <c r="C138" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D138" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="E138" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F138" t="b">
         <v>1</v>
@@ -4291,13 +4291,13 @@
         <v>14</v>
       </c>
       <c r="C139" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="D139" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="E139" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F139" t="b">
         <v>1</v>
@@ -4314,13 +4314,13 @@
         <v>14</v>
       </c>
       <c r="C140" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="D140" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="E140" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F140" t="b">
         <v>1</v>
@@ -4337,10 +4337,10 @@
         <v>14</v>
       </c>
       <c r="C141" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D141" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="E141" t="s">
         <v>285</v>
@@ -4360,13 +4360,13 @@
         <v>14</v>
       </c>
       <c r="C142" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D142" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="E142" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F142" t="b">
         <v>1</v>
@@ -4406,13 +4406,13 @@
         <v>14</v>
       </c>
       <c r="C144" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D144" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E144" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F144" t="b">
         <v>1</v>
@@ -4435,7 +4435,7 @@
         <v>277</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="F145" t="b">
         <v>1</v>
@@ -4458,7 +4458,7 @@
         <v>278</v>
       </c>
       <c r="E146" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="F146" t="b">
         <v>1</v>

--- a/comparison_fos_update.xlsx
+++ b/comparison_fos_update.xlsx
@@ -61,387 +61,387 @@
     <t>removed</t>
   </si>
   <si>
+    <t>100474770</t>
+  </si>
+  <si>
+    <t>29510844</t>
+  </si>
+  <si>
+    <t>162902727</t>
+  </si>
+  <si>
+    <t>3742959</t>
+  </si>
+  <si>
+    <t>50516716</t>
+  </si>
+  <si>
+    <t>53145804</t>
+  </si>
+  <si>
+    <t>53706860</t>
+  </si>
+  <si>
     <t>160212601</t>
   </si>
   <si>
+    <t>104471815</t>
+  </si>
+  <si>
     <t>198072978</t>
   </si>
   <si>
+    <t>2909722689</t>
+  </si>
+  <si>
+    <t>152100882</t>
+  </si>
+  <si>
+    <t>172365310</t>
+  </si>
+  <si>
+    <t>7959160</t>
+  </si>
+  <si>
+    <t>120991184</t>
+  </si>
+  <si>
+    <t>5589519</t>
+  </si>
+  <si>
+    <t>2910302653</t>
+  </si>
+  <si>
+    <t>39464130</t>
+  </si>
+  <si>
+    <t>174200844</t>
+  </si>
+  <si>
+    <t>125596622</t>
+  </si>
+  <si>
+    <t>160934017</t>
+  </si>
+  <si>
+    <t>205726622</t>
+  </si>
+  <si>
+    <t>175963888</t>
+  </si>
+  <si>
+    <t>159390177</t>
+  </si>
+  <si>
+    <t>63696750</t>
+  </si>
+  <si>
+    <t>58395597</t>
+  </si>
+  <si>
     <t>55312793</t>
   </si>
   <si>
-    <t>100474770</t>
-  </si>
-  <si>
     <t>182745123</t>
   </si>
   <si>
-    <t>39464130</t>
-  </si>
-  <si>
-    <t>7959160</t>
-  </si>
-  <si>
-    <t>5589519</t>
-  </si>
-  <si>
-    <t>3742959</t>
-  </si>
-  <si>
-    <t>58395597</t>
-  </si>
-  <si>
-    <t>152100882</t>
-  </si>
-  <si>
-    <t>160934017</t>
-  </si>
-  <si>
-    <t>29510844</t>
-  </si>
-  <si>
-    <t>175963888</t>
+    <t>14171219</t>
+  </si>
+  <si>
+    <t>156634047</t>
+  </si>
+  <si>
+    <t>152494472</t>
+  </si>
+  <si>
+    <t>114426456</t>
+  </si>
+  <si>
+    <t>70957220</t>
+  </si>
+  <si>
+    <t>65580899</t>
+  </si>
+  <si>
+    <t>71864017</t>
   </si>
   <si>
     <t>53421856</t>
   </si>
   <si>
-    <t>114426456</t>
-  </si>
-  <si>
-    <t>162902727</t>
-  </si>
-  <si>
-    <t>159390177</t>
-  </si>
-  <si>
-    <t>174200844</t>
-  </si>
-  <si>
-    <t>2910302653</t>
-  </si>
-  <si>
-    <t>104471815</t>
-  </si>
-  <si>
-    <t>71864017</t>
-  </si>
-  <si>
-    <t>53706860</t>
-  </si>
-  <si>
-    <t>152494472</t>
-  </si>
-  <si>
-    <t>70957220</t>
-  </si>
-  <si>
-    <t>14171219</t>
-  </si>
-  <si>
-    <t>205726622</t>
-  </si>
-  <si>
-    <t>53145804</t>
-  </si>
-  <si>
-    <t>120991184</t>
-  </si>
-  <si>
-    <t>172365310</t>
-  </si>
-  <si>
-    <t>65580899</t>
-  </si>
-  <si>
-    <t>63696750</t>
-  </si>
-  <si>
-    <t>2909722689</t>
-  </si>
-  <si>
-    <t>50516716</t>
-  </si>
-  <si>
-    <t>156634047</t>
-  </si>
-  <si>
-    <t>125596622</t>
+    <t>2780696901</t>
+  </si>
+  <si>
+    <t>201401522</t>
+  </si>
+  <si>
+    <t>91354502</t>
+  </si>
+  <si>
+    <t>59898753</t>
+  </si>
+  <si>
+    <t>93944068</t>
+  </si>
+  <si>
+    <t>60989497</t>
+  </si>
+  <si>
+    <t>2777707638</t>
+  </si>
+  <si>
+    <t>64229544</t>
+  </si>
+  <si>
+    <t>15147509</t>
+  </si>
+  <si>
+    <t>2775999090</t>
+  </si>
+  <si>
+    <t>2776554196</t>
+  </si>
+  <si>
+    <t>198979508</t>
+  </si>
+  <si>
+    <t>182124840</t>
+  </si>
+  <si>
+    <t>2778625682</t>
+  </si>
+  <si>
+    <t>2780816530</t>
+  </si>
+  <si>
+    <t>2776801807</t>
+  </si>
+  <si>
+    <t>32120771</t>
+  </si>
+  <si>
+    <t>150436541</t>
+  </si>
+  <si>
+    <t>2778361644</t>
+  </si>
+  <si>
+    <t>147103442</t>
+  </si>
+  <si>
+    <t>108216600</t>
+  </si>
+  <si>
+    <t>39571515</t>
+  </si>
+  <si>
+    <t>54625482</t>
+  </si>
+  <si>
+    <t>89295123</t>
+  </si>
+  <si>
+    <t>28631016</t>
+  </si>
+  <si>
+    <t>63651461</t>
+  </si>
+  <si>
+    <t>33283694</t>
   </si>
   <si>
     <t>2779128174</t>
   </si>
   <si>
-    <t>60989497</t>
+    <t>31568149</t>
+  </si>
+  <si>
+    <t>155015343</t>
+  </si>
+  <si>
+    <t>2776500793</t>
+  </si>
+  <si>
+    <t>126589399</t>
+  </si>
+  <si>
+    <t>119249163</t>
+  </si>
+  <si>
+    <t>154575652</t>
+  </si>
+  <si>
+    <t>2776596991</t>
+  </si>
+  <si>
+    <t>24518262</t>
+  </si>
+  <si>
+    <t>2776054349</t>
+  </si>
+  <si>
+    <t>2776107028</t>
+  </si>
+  <si>
+    <t>62158283</t>
+  </si>
+  <si>
+    <t>154702282</t>
+  </si>
+  <si>
+    <t>97137747</t>
+  </si>
+  <si>
+    <t>2777399377</t>
+  </si>
+  <si>
+    <t>133382796</t>
+  </si>
+  <si>
+    <t>2777387638</t>
+  </si>
+  <si>
+    <t>2776278397</t>
+  </si>
+  <si>
+    <t>172817999</t>
+  </si>
+  <si>
+    <t>197320908</t>
+  </si>
+  <si>
+    <t>192392207</t>
+  </si>
+  <si>
+    <t>34070608</t>
+  </si>
+  <si>
+    <t>59804570</t>
+  </si>
+  <si>
+    <t>2777472530</t>
+  </si>
+  <si>
+    <t>126914827</t>
+  </si>
+  <si>
+    <t>20529654</t>
+  </si>
+  <si>
+    <t>2780528068</t>
+  </si>
+  <si>
+    <t>2780189059</t>
+  </si>
+  <si>
+    <t>25382069</t>
+  </si>
+  <si>
+    <t>42731165</t>
+  </si>
+  <si>
+    <t>126408429</t>
+  </si>
+  <si>
+    <t>173795300</t>
+  </si>
+  <si>
+    <t>87621631</t>
+  </si>
+  <si>
+    <t>2776492830</t>
+  </si>
+  <si>
+    <t>2780086105</t>
+  </si>
+  <si>
+    <t>121850381</t>
+  </si>
+  <si>
+    <t>139518226</t>
+  </si>
+  <si>
+    <t>23519681</t>
+  </si>
+  <si>
+    <t>555313981</t>
+  </si>
+  <si>
+    <t>141185391</t>
+  </si>
+  <si>
+    <t>156086215</t>
+  </si>
+  <si>
+    <t>2775966360</t>
+  </si>
+  <si>
+    <t>2780946806</t>
+  </si>
+  <si>
+    <t>107394435</t>
+  </si>
+  <si>
+    <t>33411773</t>
+  </si>
+  <si>
+    <t>2776978901</t>
   </si>
   <si>
     <t>155987862</t>
   </si>
   <si>
-    <t>126914827</t>
-  </si>
-  <si>
-    <t>119249163</t>
-  </si>
-  <si>
-    <t>2776500793</t>
-  </si>
-  <si>
-    <t>201401522</t>
-  </si>
-  <si>
-    <t>121850381</t>
-  </si>
-  <si>
-    <t>126589399</t>
-  </si>
-  <si>
     <t>2777106113</t>
   </si>
   <si>
-    <t>154575652</t>
-  </si>
-  <si>
-    <t>2776054349</t>
-  </si>
-  <si>
-    <t>93944068</t>
+    <t>2776562576</t>
+  </si>
+  <si>
+    <t>118694661</t>
+  </si>
+  <si>
+    <t>53002841</t>
+  </si>
+  <si>
+    <t>2777132354</t>
   </si>
   <si>
     <t>2776285232</t>
   </si>
   <si>
-    <t>2776492830</t>
-  </si>
-  <si>
-    <t>59898753</t>
-  </si>
-  <si>
-    <t>91354502</t>
-  </si>
-  <si>
-    <t>2775966360</t>
-  </si>
-  <si>
-    <t>20529654</t>
-  </si>
-  <si>
-    <t>198979508</t>
-  </si>
-  <si>
-    <t>42731165</t>
-  </si>
-  <si>
-    <t>62158283</t>
-  </si>
-  <si>
-    <t>2777707638</t>
-  </si>
-  <si>
-    <t>154702282</t>
-  </si>
-  <si>
-    <t>2776107028</t>
-  </si>
-  <si>
-    <t>192392207</t>
-  </si>
-  <si>
-    <t>118694661</t>
-  </si>
-  <si>
-    <t>2776596991</t>
-  </si>
-  <si>
-    <t>126408429</t>
-  </si>
-  <si>
-    <t>2776562576</t>
-  </si>
-  <si>
-    <t>2780696901</t>
-  </si>
-  <si>
-    <t>197320908</t>
-  </si>
-  <si>
     <t>152491559</t>
   </si>
   <si>
+    <t>153427425</t>
+  </si>
+  <si>
+    <t>116370137</t>
+  </si>
+  <si>
+    <t>2619416</t>
+  </si>
+  <si>
+    <t>123917164</t>
+  </si>
+  <si>
+    <t>2775841215</t>
+  </si>
+  <si>
+    <t>2781208722</t>
+  </si>
+  <si>
     <t>2779004245</t>
   </si>
   <si>
-    <t>156086215</t>
-  </si>
-  <si>
-    <t>53002841</t>
-  </si>
-  <si>
-    <t>2778361644</t>
-  </si>
-  <si>
-    <t>54625482</t>
-  </si>
-  <si>
-    <t>2777399377</t>
-  </si>
-  <si>
-    <t>2775841215</t>
-  </si>
-  <si>
-    <t>172817999</t>
-  </si>
-  <si>
-    <t>33283694</t>
-  </si>
-  <si>
-    <t>141185391</t>
-  </si>
-  <si>
-    <t>2777387638</t>
-  </si>
-  <si>
-    <t>107394435</t>
-  </si>
-  <si>
-    <t>2776978901</t>
-  </si>
-  <si>
-    <t>64229544</t>
-  </si>
-  <si>
-    <t>182124840</t>
-  </si>
-  <si>
-    <t>59804570</t>
-  </si>
-  <si>
-    <t>87621631</t>
-  </si>
-  <si>
-    <t>2619416</t>
-  </si>
-  <si>
-    <t>89295123</t>
-  </si>
-  <si>
     <t>38774213</t>
   </si>
   <si>
-    <t>147103442</t>
-  </si>
-  <si>
-    <t>2780946806</t>
-  </si>
-  <si>
-    <t>150436541</t>
-  </si>
-  <si>
-    <t>2777132354</t>
-  </si>
-  <si>
-    <t>63651461</t>
-  </si>
-  <si>
-    <t>2778625682</t>
-  </si>
-  <si>
-    <t>2780189059</t>
-  </si>
-  <si>
-    <t>24518262</t>
-  </si>
-  <si>
-    <t>39571515</t>
-  </si>
-  <si>
-    <t>2780528068</t>
-  </si>
-  <si>
-    <t>123917164</t>
-  </si>
-  <si>
-    <t>31568149</t>
-  </si>
-  <si>
-    <t>173795300</t>
-  </si>
-  <si>
-    <t>34070608</t>
-  </si>
-  <si>
-    <t>139518226</t>
-  </si>
-  <si>
-    <t>2776554196</t>
-  </si>
-  <si>
-    <t>2775999090</t>
-  </si>
-  <si>
-    <t>2776801807</t>
-  </si>
-  <si>
-    <t>23519681</t>
-  </si>
-  <si>
-    <t>2776278397</t>
-  </si>
-  <si>
-    <t>28631016</t>
-  </si>
-  <si>
-    <t>32120771</t>
-  </si>
-  <si>
-    <t>33411773</t>
+    <t>2777380357</t>
   </si>
   <si>
     <t>532801124</t>
   </si>
   <si>
-    <t>555313981</t>
-  </si>
-  <si>
-    <t>25382069</t>
-  </si>
-  <si>
-    <t>2777380357</t>
-  </si>
-  <si>
-    <t>133382796</t>
-  </si>
-  <si>
-    <t>116370137</t>
-  </si>
-  <si>
-    <t>153427425</t>
-  </si>
-  <si>
-    <t>2777472530</t>
-  </si>
-  <si>
-    <t>97137747</t>
-  </si>
-  <si>
-    <t>2781208722</t>
-  </si>
-  <si>
-    <t>2780086105</t>
-  </si>
-  <si>
-    <t>15147509</t>
-  </si>
-  <si>
-    <t>2780816530</t>
-  </si>
-  <si>
-    <t>108216600</t>
-  </si>
-  <si>
-    <t>155015343</t>
-  </si>
-  <si>
     <t>21790881</t>
   </si>
   <si>
@@ -451,393 +451,393 @@
     <t>139669111</t>
   </si>
   <si>
+    <t>28362043</t>
+  </si>
+  <si>
     <t>2776266027</t>
   </si>
   <si>
-    <t>28362043</t>
+    <t>Soil physics</t>
+  </si>
+  <si>
+    <t>Soil chemistry</t>
+  </si>
+  <si>
+    <t>Soil conditioner</t>
+  </si>
+  <si>
+    <t>Soil survey</t>
+  </si>
+  <si>
+    <t>Soil test</t>
+  </si>
+  <si>
+    <t>Soil food web</t>
+  </si>
+  <si>
+    <t>Soil morphology</t>
   </si>
   <si>
     <t>World Reference Base for Soil Resources</t>
   </si>
   <si>
+    <t>Digital soil mapping</t>
+  </si>
+  <si>
     <t>Soil pH</t>
   </si>
   <si>
+    <t>Soil Pollutants</t>
+  </si>
+  <si>
+    <t>Soil color</t>
+  </si>
+  <si>
+    <t>Soil microbiology</t>
+  </si>
+  <si>
+    <t>Soil biodiversity</t>
+  </si>
+  <si>
+    <t>Soil structure</t>
+  </si>
+  <si>
+    <t>Soil series</t>
+  </si>
+  <si>
+    <t>SOIL EXPOSURE</t>
+  </si>
+  <si>
+    <t>Soil carbon</t>
+  </si>
+  <si>
+    <t>Unified Soil Classification System</t>
+  </si>
+  <si>
+    <t>Soil resilience</t>
+  </si>
+  <si>
+    <t>Soil type</t>
+  </si>
+  <si>
+    <t>Soil mechanics</t>
+  </si>
+  <si>
+    <t>Soil texture</t>
+  </si>
+  <si>
+    <t>Soil science</t>
+  </si>
+  <si>
+    <t>USDA soil taxonomy</t>
+  </si>
+  <si>
+    <t>Red soil</t>
+  </si>
+  <si>
     <t>National Cooperative Soil Survey</t>
   </si>
   <si>
-    <t>Soil physics</t>
-  </si>
-  <si>
     <t>Soil gradation</t>
   </si>
   <si>
-    <t>Soil carbon</t>
-  </si>
-  <si>
-    <t>Soil biodiversity</t>
-  </si>
-  <si>
-    <t>Soil series</t>
-  </si>
-  <si>
-    <t>Soil survey</t>
-  </si>
-  <si>
-    <t>Red soil</t>
-  </si>
-  <si>
-    <t>Soil color</t>
-  </si>
-  <si>
-    <t>Soil type</t>
-  </si>
-  <si>
-    <t>Soil chemistry</t>
-  </si>
-  <si>
-    <t>Soil texture</t>
+    <t>Agricultural soil science</t>
+  </si>
+  <si>
+    <t>Soil horizon</t>
+  </si>
+  <si>
+    <t>Soil classification</t>
+  </si>
+  <si>
+    <t>Soil thermal properties</t>
+  </si>
+  <si>
+    <t>Soil compaction</t>
+  </si>
+  <si>
+    <t>Soil contamination</t>
+  </si>
+  <si>
+    <t>Soil map</t>
   </si>
   <si>
     <t>Soil biology</t>
   </si>
   <si>
-    <t>Soil thermal properties</t>
-  </si>
-  <si>
-    <t>Soil conditioner</t>
-  </si>
-  <si>
-    <t>Soil science</t>
-  </si>
-  <si>
-    <t>Unified Soil Classification System</t>
-  </si>
-  <si>
-    <t>SOIL EXPOSURE</t>
-  </si>
-  <si>
-    <t>Digital soil mapping</t>
-  </si>
-  <si>
-    <t>Soil map</t>
-  </si>
-  <si>
-    <t>Soil morphology</t>
-  </si>
-  <si>
-    <t>Soil classification</t>
-  </si>
-  <si>
-    <t>Soil compaction</t>
-  </si>
-  <si>
-    <t>Agricultural soil science</t>
-  </si>
-  <si>
-    <t>Soil mechanics</t>
-  </si>
-  <si>
-    <t>Soil food web</t>
-  </si>
-  <si>
-    <t>Soil structure</t>
-  </si>
-  <si>
-    <t>Soil microbiology</t>
-  </si>
-  <si>
-    <t>Soil contamination</t>
-  </si>
-  <si>
-    <t>USDA soil taxonomy</t>
-  </si>
-  <si>
-    <t>Soil Pollutants</t>
-  </si>
-  <si>
-    <t>Soil test</t>
-  </si>
-  <si>
-    <t>Soil horizon</t>
-  </si>
-  <si>
-    <t>Soil resilience</t>
+    <t>Conventional tillage</t>
+  </si>
+  <si>
+    <t>Plant cover</t>
+  </si>
+  <si>
+    <t>Basal area</t>
+  </si>
+  <si>
+    <t>Shrubland</t>
+  </si>
+  <si>
+    <t>Phytogeography</t>
+  </si>
+  <si>
+    <t>Red List Index</t>
+  </si>
+  <si>
+    <t>Vascular plant</t>
+  </si>
+  <si>
+    <t>Habitat destruction</t>
+  </si>
+  <si>
+    <t>Conservation reliant species</t>
+  </si>
+  <si>
+    <t>Joint Forest Management</t>
+  </si>
+  <si>
+    <t>Evergreen forest</t>
+  </si>
+  <si>
+    <t>Forest fragmentation</t>
+  </si>
+  <si>
+    <t>Soil organic matter</t>
+  </si>
+  <si>
+    <t>High forest</t>
+  </si>
+  <si>
+    <t>Forest protection</t>
+  </si>
+  <si>
+    <t>Pinus radiata</t>
+  </si>
+  <si>
+    <t>Ecosystem engineer</t>
+  </si>
+  <si>
+    <t>Forb</t>
+  </si>
+  <si>
+    <t>Yield gap</t>
+  </si>
+  <si>
+    <t>Forest inventory</t>
+  </si>
+  <si>
+    <t>Tropical and subtropical dry broadleaf forests</t>
+  </si>
+  <si>
+    <t>Undergrowth</t>
+  </si>
+  <si>
+    <t>Community forestry</t>
+  </si>
+  <si>
+    <t>Forest pathology</t>
+  </si>
+  <si>
+    <t>Forest management</t>
+  </si>
+  <si>
+    <t>Tropical agriculture</t>
+  </si>
+  <si>
+    <t>Deciduous</t>
   </si>
   <si>
     <t>Scots pine</t>
   </si>
   <si>
-    <t>Red List Index</t>
+    <t>Near-threatened species</t>
+  </si>
+  <si>
+    <t>Plant breeding</t>
+  </si>
+  <si>
+    <t>Beech</t>
+  </si>
+  <si>
+    <t>Umbrella species</t>
+  </si>
+  <si>
+    <t>Felling</t>
+  </si>
+  <si>
+    <t>Reforestation</t>
+  </si>
+  <si>
+    <t>Cultural methods</t>
+  </si>
+  <si>
+    <t>Threatened species</t>
+  </si>
+  <si>
+    <t>Vegetation classification</t>
+  </si>
+  <si>
+    <t>Forest dynamics</t>
+  </si>
+  <si>
+    <t>Species translocation</t>
+  </si>
+  <si>
+    <t>Temperate deciduous forest</t>
+  </si>
+  <si>
+    <t>Forestry</t>
+  </si>
+  <si>
+    <t>DSSAT</t>
+  </si>
+  <si>
+    <t>Secondary forest</t>
+  </si>
+  <si>
+    <t>Forestry law</t>
+  </si>
+  <si>
+    <t>Revegetation</t>
+  </si>
+  <si>
+    <t>Soil functions</t>
+  </si>
+  <si>
+    <t>Pioneer species</t>
+  </si>
+  <si>
+    <t>Clearcutting</t>
+  </si>
+  <si>
+    <t>Cover crop</t>
+  </si>
+  <si>
+    <t>Soil governance</t>
+  </si>
+  <si>
+    <t>Catch crop</t>
+  </si>
+  <si>
+    <t>Flagship species</t>
+  </si>
+  <si>
+    <t>Topsoil</t>
+  </si>
+  <si>
+    <t>Plant nutrition</t>
+  </si>
+  <si>
+    <t>Soil stabilization</t>
+  </si>
+  <si>
+    <t>Seral community</t>
+  </si>
+  <si>
+    <t>Environmental soil science</t>
+  </si>
+  <si>
+    <t>Soil health</t>
+  </si>
+  <si>
+    <t>Salvage logging</t>
+  </si>
+  <si>
+    <t>Taiga</t>
+  </si>
+  <si>
+    <t>Dipterocarpaceae</t>
+  </si>
+  <si>
+    <t>Forest product</t>
+  </si>
+  <si>
+    <t>Certified wood</t>
+  </si>
+  <si>
+    <t>Sclerophyll</t>
+  </si>
+  <si>
+    <t>Montane ecology</t>
+  </si>
+  <si>
+    <t>Tropical rainforest</t>
+  </si>
+  <si>
+    <t>Soil retrogression and degradation</t>
+  </si>
+  <si>
+    <t>Soil ecology</t>
+  </si>
+  <si>
+    <t>Silviculture</t>
+  </si>
+  <si>
+    <t>Plant functional type</t>
+  </si>
+  <si>
+    <t>Quadrat</t>
+  </si>
+  <si>
+    <t>Bulk soil</t>
+  </si>
+  <si>
+    <t>Tree breeding</t>
   </si>
   <si>
     <t>Selection cutting</t>
   </si>
   <si>
-    <t>Flagship species</t>
-  </si>
-  <si>
-    <t>Felling</t>
-  </si>
-  <si>
-    <t>Beech</t>
-  </si>
-  <si>
-    <t>Plant cover</t>
-  </si>
-  <si>
-    <t>Certified wood</t>
-  </si>
-  <si>
-    <t>Umbrella species</t>
-  </si>
-  <si>
     <t>Crop simulation model</t>
   </si>
   <si>
-    <t>Reforestation</t>
-  </si>
-  <si>
-    <t>Vegetation classification</t>
-  </si>
-  <si>
-    <t>Phytogeography</t>
+    <t>Plant strategies</t>
+  </si>
+  <si>
+    <t>Climax community</t>
+  </si>
+  <si>
+    <t>Plant community</t>
+  </si>
+  <si>
+    <t>Shelterwood cutting</t>
   </si>
   <si>
     <t>Tropical forest</t>
   </si>
   <si>
-    <t>Dipterocarpaceae</t>
-  </si>
-  <si>
-    <t>Shrubland</t>
-  </si>
-  <si>
-    <t>Basal area</t>
-  </si>
-  <si>
-    <t>Silviculture</t>
-  </si>
-  <si>
-    <t>Topsoil</t>
-  </si>
-  <si>
-    <t>Forest fragmentation</t>
-  </si>
-  <si>
-    <t>Environmental soil science</t>
-  </si>
-  <si>
-    <t>Species translocation</t>
-  </si>
-  <si>
-    <t>Vascular plant</t>
-  </si>
-  <si>
-    <t>Temperate deciduous forest</t>
-  </si>
-  <si>
-    <t>Forest dynamics</t>
-  </si>
-  <si>
-    <t>Clearcutting</t>
-  </si>
-  <si>
-    <t>Climax community</t>
-  </si>
-  <si>
-    <t>Cultural methods</t>
-  </si>
-  <si>
-    <t>Soil health</t>
-  </si>
-  <si>
-    <t>Plant strategies</t>
-  </si>
-  <si>
-    <t>Conventional tillage</t>
-  </si>
-  <si>
-    <t>Pioneer species</t>
-  </si>
-  <si>
     <t>Macroecology</t>
   </si>
   <si>
+    <t>Biodiversity hotspot</t>
+  </si>
+  <si>
+    <t>No-till farming</t>
+  </si>
+  <si>
+    <t>Rainforest</t>
+  </si>
+  <si>
+    <t>Bumper crop</t>
+  </si>
+  <si>
+    <t>Sustainable forest management</t>
+  </si>
+  <si>
+    <t>Intercropping</t>
+  </si>
+  <si>
     <t>Tilth</t>
   </si>
   <si>
-    <t>Soil ecology</t>
-  </si>
-  <si>
-    <t>Plant community</t>
-  </si>
-  <si>
-    <t>Yield gap</t>
-  </si>
-  <si>
-    <t>Community forestry</t>
-  </si>
-  <si>
-    <t>DSSAT</t>
-  </si>
-  <si>
-    <t>Sustainable forest management</t>
-  </si>
-  <si>
-    <t>Soil functions</t>
-  </si>
-  <si>
-    <t>Deciduous</t>
-  </si>
-  <si>
-    <t>Soil retrogression and degradation</t>
-  </si>
-  <si>
-    <t>Forestry law</t>
-  </si>
-  <si>
-    <t>Quadrat</t>
-  </si>
-  <si>
-    <t>Tree breeding</t>
-  </si>
-  <si>
-    <t>Habitat destruction</t>
-  </si>
-  <si>
-    <t>Soil organic matter</t>
-  </si>
-  <si>
-    <t>Soil governance</t>
-  </si>
-  <si>
-    <t>Taiga</t>
-  </si>
-  <si>
-    <t>Rainforest</t>
-  </si>
-  <si>
-    <t>Forest pathology</t>
-  </si>
-  <si>
     <t>Soil fertility</t>
   </si>
   <si>
-    <t>Forest inventory</t>
-  </si>
-  <si>
-    <t>Plant functional type</t>
-  </si>
-  <si>
-    <t>Forb</t>
-  </si>
-  <si>
-    <t>Shelterwood cutting</t>
-  </si>
-  <si>
-    <t>Tropical agriculture</t>
-  </si>
-  <si>
-    <t>High forest</t>
-  </si>
-  <si>
-    <t>Soil stabilization</t>
-  </si>
-  <si>
-    <t>Threatened species</t>
-  </si>
-  <si>
-    <t>Undergrowth</t>
-  </si>
-  <si>
-    <t>Plant nutrition</t>
-  </si>
-  <si>
-    <t>Bumper crop</t>
-  </si>
-  <si>
-    <t>Near-threatened species</t>
-  </si>
-  <si>
-    <t>Salvage logging</t>
-  </si>
-  <si>
-    <t>Cover crop</t>
-  </si>
-  <si>
-    <t>Sclerophyll</t>
-  </si>
-  <si>
-    <t>Evergreen forest</t>
-  </si>
-  <si>
-    <t>Joint Forest Management</t>
-  </si>
-  <si>
-    <t>Pinus radiata</t>
-  </si>
-  <si>
-    <t>Montane ecology</t>
-  </si>
-  <si>
-    <t>Revegetation</t>
-  </si>
-  <si>
-    <t>Forest management</t>
-  </si>
-  <si>
-    <t>Ecosystem engineer</t>
-  </si>
-  <si>
-    <t>Bulk soil</t>
+    <t>Rainfed agriculture</t>
   </si>
   <si>
     <t>Crop protection</t>
   </si>
   <si>
-    <t>Tropical rainforest</t>
-  </si>
-  <si>
-    <t>Seral community</t>
-  </si>
-  <si>
-    <t>Rainfed agriculture</t>
-  </si>
-  <si>
-    <t>Secondary forest</t>
-  </si>
-  <si>
-    <t>No-till farming</t>
-  </si>
-  <si>
-    <t>Biodiversity hotspot</t>
-  </si>
-  <si>
-    <t>Catch crop</t>
-  </si>
-  <si>
-    <t>Forestry</t>
-  </si>
-  <si>
-    <t>Intercropping</t>
-  </si>
-  <si>
-    <t>Forest product</t>
-  </si>
-  <si>
-    <t>Conservation reliant species</t>
-  </si>
-  <si>
-    <t>Forest protection</t>
-  </si>
-  <si>
-    <t>Tropical and subtropical dry broadleaf forests</t>
-  </si>
-  <si>
-    <t>Plant breeding</t>
-  </si>
-  <si>
     <t>Deep sea</t>
   </si>
   <si>
@@ -847,46 +847,46 @@
     <t>Understory</t>
   </si>
   <si>
+    <t>Hydric soil</t>
+  </si>
+  <si>
     <t>Membrane bioreactor</t>
   </si>
   <si>
-    <t>Hydric soil</t>
-  </si>
-  <si>
     <t>['8_NABS_FOS']</t>
   </si>
   <si>
-    <t>['1_FP7-4-SD_edited', '8_NABS_FOS']</t>
-  </si>
-  <si>
-    <t>['8_NABS_FOS', '4_SDGPathfinder_Keywords', '9_SIRIS_Science4SDGs', '7_EC_Policy_Doc_Terms', '1_FP7-4-SD_edited']</t>
-  </si>
-  <si>
-    <t>['4_SDGPathfinder_Keywords', '1_FP7-4-SD_edited', '8_NABS_FOS']</t>
-  </si>
-  <si>
-    <t>['3_SDGPathfinder_DocumentConcepts', '4_SDGPathfinder_Keywords', '9_SIRIS_Science4SDGs', '7_EC_Policy_Doc_Terms', '1_FP7-4-SD_edited']</t>
+    <t>['8_NABS_FOS', '1_FP7-4-SD_edited', '4_SDGPathfinder_Keywords']</t>
+  </si>
+  <si>
+    <t>['8_NABS_FOS', '1_FP7-4-SD_edited']</t>
+  </si>
+  <si>
+    <t>['4_SDGPathfinder_Keywords', '7_EC_Policy_Doc_Terms', '1_FP7-4-SD_edited', '8_NABS_FOS', '9_SIRIS_Science4SDGs']</t>
+  </si>
+  <si>
+    <t>['4_SDGPathfinder_Keywords', '7_EC_Policy_Doc_Terms', '1_FP7-4-SD_edited', '9_SIRIS_Science4SDGs', '3_SDGPathfinder_DocumentConcepts']</t>
   </si>
   <si>
     <t>['1_FP7-4-SD_edited']</t>
   </si>
   <si>
-    <t>['0_PuigOntology', '6_SDGIO_terms']</t>
-  </si>
-  <si>
-    <t>['0_PuigOntology', '6_SDGIO_terms', '10_PPMI_fos']</t>
+    <t>['6_SDGIO_terms', '0_PuigOntology']</t>
+  </si>
+  <si>
+    <t>['9_SIRIS_Science4SDGs', '1_FP7-4-SD_edited', '4_SDGPathfinder_Keywords', '7_EC_Policy_Doc_Terms']</t>
+  </si>
+  <si>
+    <t>['10_PPMI_fos']</t>
   </si>
   <si>
     <t>['1_FP7-4-SD_edited', '10_PPMI_fos']</t>
   </si>
   <si>
-    <t>['10_PPMI_fos']</t>
-  </si>
-  <si>
-    <t>['4_SDGPathfinder_Keywords', '1_FP7-4-SD_edited', '9_SIRIS_Science4SDGs', '7_EC_Policy_Doc_Terms']</t>
-  </si>
-  <si>
-    <t>['10_PPMI_fos', '4_SDGPathfinder_Keywords', '9_SIRIS_Science4SDGs', '7_EC_Policy_Doc_Terms', '1_FP7-4-SD_edited']</t>
+    <t>['6_SDGIO_terms', '10_PPMI_fos', '0_PuigOntology']</t>
+  </si>
+  <si>
+    <t>['4_SDGPathfinder_Keywords', '7_EC_Policy_Doc_Terms', '1_FP7-4-SD_edited', '9_SIRIS_Science4SDGs', '10_PPMI_fos']</t>
   </si>
 </sst>
 </file>
@@ -2282,9 +2282,6 @@
       <c r="D50" t="s">
         <v>195</v>
       </c>
-      <c r="E50" t="s">
-        <v>279</v>
-      </c>
       <c r="F50" t="b">
         <v>0</v>
       </c>
@@ -2420,6 +2417,9 @@
       <c r="D56" t="s">
         <v>201</v>
       </c>
+      <c r="E56" t="s">
+        <v>279</v>
+      </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
@@ -2463,6 +2463,9 @@
       <c r="D58" t="s">
         <v>203</v>
       </c>
+      <c r="E58" t="s">
+        <v>279</v>
+      </c>
       <c r="F58" t="b">
         <v>0</v>
       </c>
@@ -2644,6 +2647,9 @@
       <c r="D66" t="s">
         <v>211</v>
       </c>
+      <c r="E66" t="s">
+        <v>279</v>
+      </c>
       <c r="F66" t="b">
         <v>0</v>
       </c>
@@ -2665,7 +2671,7 @@
         <v>212</v>
       </c>
       <c r="E67" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -2779,6 +2785,9 @@
       <c r="D72" t="s">
         <v>217</v>
       </c>
+      <c r="E72" t="s">
+        <v>279</v>
+      </c>
       <c r="F72" t="b">
         <v>0</v>
       </c>
@@ -2914,6 +2923,9 @@
       <c r="D78" t="s">
         <v>223</v>
       </c>
+      <c r="E78" t="s">
+        <v>279</v>
+      </c>
       <c r="F78" t="b">
         <v>0</v>
       </c>
@@ -2957,6 +2969,9 @@
       <c r="D80" t="s">
         <v>225</v>
       </c>
+      <c r="E80" t="s">
+        <v>279</v>
+      </c>
       <c r="F80" t="b">
         <v>0</v>
       </c>
@@ -3023,9 +3038,6 @@
       <c r="D83" t="s">
         <v>228</v>
       </c>
-      <c r="E83" t="s">
-        <v>279</v>
-      </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
@@ -3069,6 +3081,9 @@
       <c r="D85" t="s">
         <v>230</v>
       </c>
+      <c r="E85" t="s">
+        <v>279</v>
+      </c>
       <c r="F85" t="b">
         <v>0</v>
       </c>
@@ -3089,6 +3104,9 @@
       <c r="D86" t="s">
         <v>231</v>
       </c>
+      <c r="E86" t="s">
+        <v>279</v>
+      </c>
       <c r="F86" t="b">
         <v>0</v>
       </c>
@@ -3109,9 +3127,6 @@
       <c r="D87" t="s">
         <v>232</v>
       </c>
-      <c r="E87" t="s">
-        <v>279</v>
-      </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
@@ -3133,7 +3148,7 @@
         <v>233</v>
       </c>
       <c r="E88" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -3221,9 +3236,6 @@
       <c r="D92" t="s">
         <v>237</v>
       </c>
-      <c r="E92" t="s">
-        <v>279</v>
-      </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
@@ -3267,9 +3279,6 @@
       <c r="D94" t="s">
         <v>239</v>
       </c>
-      <c r="E94" t="s">
-        <v>279</v>
-      </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
@@ -3290,9 +3299,6 @@
       <c r="D95" t="s">
         <v>240</v>
       </c>
-      <c r="E95" t="s">
-        <v>279</v>
-      </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
@@ -3336,6 +3342,9 @@
       <c r="D97" t="s">
         <v>242</v>
       </c>
+      <c r="E97" t="s">
+        <v>279</v>
+      </c>
       <c r="F97" t="b">
         <v>0</v>
       </c>
@@ -3494,9 +3503,6 @@
       <c r="D104" t="s">
         <v>249</v>
       </c>
-      <c r="E104" t="s">
-        <v>279</v>
-      </c>
       <c r="F104" t="b">
         <v>0</v>
       </c>
@@ -3517,9 +3523,6 @@
       <c r="D105" t="s">
         <v>250</v>
       </c>
-      <c r="E105" t="s">
-        <v>279</v>
-      </c>
       <c r="F105" t="b">
         <v>0</v>
       </c>
@@ -3609,9 +3612,6 @@
       <c r="D109" t="s">
         <v>254</v>
       </c>
-      <c r="E109" t="s">
-        <v>279</v>
-      </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
@@ -3701,6 +3701,9 @@
       <c r="D113" t="s">
         <v>258</v>
       </c>
+      <c r="E113" t="s">
+        <v>279</v>
+      </c>
       <c r="F113" t="b">
         <v>0</v>
       </c>
@@ -3883,7 +3886,7 @@
         <v>266</v>
       </c>
       <c r="E121" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F121" t="b">
         <v>0</v>
@@ -3929,7 +3932,7 @@
         <v>268</v>
       </c>
       <c r="E123" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F123" t="b">
         <v>0</v>
@@ -3952,7 +3955,7 @@
         <v>269</v>
       </c>
       <c r="E124" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F124" t="b">
         <v>0</v>
@@ -3997,9 +4000,6 @@
       <c r="D126" t="s">
         <v>271</v>
       </c>
-      <c r="E126" t="s">
-        <v>279</v>
-      </c>
       <c r="F126" t="b">
         <v>0</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>273</v>
       </c>
       <c r="E128" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
@@ -4084,10 +4084,10 @@
         <v>14</v>
       </c>
       <c r="C130" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D130" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="E130" t="s">
         <v>284</v>
@@ -4107,10 +4107,10 @@
         <v>14</v>
       </c>
       <c r="C131" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D131" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E131" t="s">
         <v>285</v>
@@ -4130,10 +4130,10 @@
         <v>14</v>
       </c>
       <c r="C132" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D132" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E132" t="s">
         <v>284</v>
@@ -4153,13 +4153,13 @@
         <v>14</v>
       </c>
       <c r="C133" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D133" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E133" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F133" t="b">
         <v>1</v>
@@ -4176,13 +4176,13 @@
         <v>14</v>
       </c>
       <c r="C134" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D134" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="E134" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F134" t="b">
         <v>1</v>
@@ -4199,13 +4199,13 @@
         <v>14</v>
       </c>
       <c r="C135" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="D135" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="E135" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F135" t="b">
         <v>1</v>
@@ -4222,10 +4222,10 @@
         <v>14</v>
       </c>
       <c r="C136" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="D136" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="E136" t="s">
         <v>285</v>
@@ -4245,13 +4245,13 @@
         <v>14</v>
       </c>
       <c r="C137" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="D137" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="E137" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F137" t="b">
         <v>1</v>
@@ -4268,13 +4268,13 @@
         <v>14</v>
       </c>
       <c r="C138" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="D138" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="E138" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F138" t="b">
         <v>1</v>
@@ -4291,13 +4291,13 @@
         <v>14</v>
       </c>
       <c r="C139" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="D139" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="E139" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F139" t="b">
         <v>1</v>
@@ -4314,13 +4314,13 @@
         <v>14</v>
       </c>
       <c r="C140" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="D140" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="E140" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F140" t="b">
         <v>1</v>
@@ -4337,13 +4337,13 @@
         <v>14</v>
       </c>
       <c r="C141" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D141" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="E141" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F141" t="b">
         <v>1</v>
@@ -4360,13 +4360,13 @@
         <v>14</v>
       </c>
       <c r="C142" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D142" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="E142" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F142" t="b">
         <v>1</v>
@@ -4406,13 +4406,13 @@
         <v>14</v>
       </c>
       <c r="C144" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D144" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E144" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F144" t="b">
         <v>1</v>
@@ -4435,7 +4435,7 @@
         <v>277</v>
       </c>
       <c r="E145" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="F145" t="b">
         <v>1</v>
@@ -4458,7 +4458,7 @@
         <v>278</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="F146" t="b">
         <v>1</v>

--- a/comparison_fos_update.xlsx
+++ b/comparison_fos_update.xlsx
@@ -61,387 +61,387 @@
     <t>removed</t>
   </si>
   <si>
+    <t>162902727</t>
+  </si>
+  <si>
+    <t>70957220</t>
+  </si>
+  <si>
+    <t>120991184</t>
+  </si>
+  <si>
+    <t>5589519</t>
+  </si>
+  <si>
+    <t>71864017</t>
+  </si>
+  <si>
+    <t>160212601</t>
+  </si>
+  <si>
+    <t>152100882</t>
+  </si>
+  <si>
+    <t>205726622</t>
+  </si>
+  <si>
+    <t>29510844</t>
+  </si>
+  <si>
+    <t>55312793</t>
+  </si>
+  <si>
+    <t>104471815</t>
+  </si>
+  <si>
+    <t>14171219</t>
+  </si>
+  <si>
+    <t>156634047</t>
+  </si>
+  <si>
+    <t>198072978</t>
+  </si>
+  <si>
     <t>100474770</t>
   </si>
   <si>
-    <t>29510844</t>
-  </si>
-  <si>
-    <t>162902727</t>
+    <t>53421856</t>
+  </si>
+  <si>
+    <t>65580899</t>
+  </si>
+  <si>
+    <t>182745123</t>
+  </si>
+  <si>
+    <t>160934017</t>
+  </si>
+  <si>
+    <t>175963888</t>
+  </si>
+  <si>
+    <t>2909722689</t>
+  </si>
+  <si>
+    <t>174200844</t>
+  </si>
+  <si>
+    <t>172365310</t>
+  </si>
+  <si>
+    <t>39464130</t>
+  </si>
+  <si>
+    <t>7959160</t>
+  </si>
+  <si>
+    <t>63696750</t>
+  </si>
+  <si>
+    <t>53706860</t>
+  </si>
+  <si>
+    <t>125596622</t>
+  </si>
+  <si>
+    <t>50516716</t>
+  </si>
+  <si>
+    <t>159390177</t>
+  </si>
+  <si>
+    <t>152494472</t>
+  </si>
+  <si>
+    <t>58395597</t>
   </si>
   <si>
     <t>3742959</t>
   </si>
   <si>
-    <t>50516716</t>
+    <t>2910302653</t>
   </si>
   <si>
     <t>53145804</t>
   </si>
   <si>
-    <t>53706860</t>
-  </si>
-  <si>
-    <t>160212601</t>
-  </si>
-  <si>
-    <t>104471815</t>
-  </si>
-  <si>
-    <t>198072978</t>
-  </si>
-  <si>
-    <t>2909722689</t>
-  </si>
-  <si>
-    <t>152100882</t>
-  </si>
-  <si>
-    <t>172365310</t>
-  </si>
-  <si>
-    <t>7959160</t>
-  </si>
-  <si>
-    <t>120991184</t>
-  </si>
-  <si>
-    <t>5589519</t>
-  </si>
-  <si>
-    <t>2910302653</t>
-  </si>
-  <si>
-    <t>39464130</t>
-  </si>
-  <si>
-    <t>174200844</t>
-  </si>
-  <si>
-    <t>125596622</t>
-  </si>
-  <si>
-    <t>160934017</t>
-  </si>
-  <si>
-    <t>205726622</t>
-  </si>
-  <si>
-    <t>175963888</t>
-  </si>
-  <si>
-    <t>159390177</t>
-  </si>
-  <si>
-    <t>63696750</t>
-  </si>
-  <si>
-    <t>58395597</t>
-  </si>
-  <si>
-    <t>55312793</t>
-  </si>
-  <si>
-    <t>182745123</t>
-  </si>
-  <si>
-    <t>14171219</t>
-  </si>
-  <si>
-    <t>156634047</t>
-  </si>
-  <si>
-    <t>152494472</t>
-  </si>
-  <si>
     <t>114426456</t>
   </si>
   <si>
-    <t>70957220</t>
-  </si>
-  <si>
-    <t>65580899</t>
-  </si>
-  <si>
-    <t>71864017</t>
-  </si>
-  <si>
-    <t>53421856</t>
+    <t>172817999</t>
+  </si>
+  <si>
+    <t>133382796</t>
+  </si>
+  <si>
+    <t>64229544</t>
+  </si>
+  <si>
+    <t>87621631</t>
+  </si>
+  <si>
+    <t>2777132354</t>
+  </si>
+  <si>
+    <t>2775999090</t>
+  </si>
+  <si>
+    <t>155015343</t>
+  </si>
+  <si>
+    <t>91354502</t>
+  </si>
+  <si>
+    <t>2779128174</t>
+  </si>
+  <si>
+    <t>153427425</t>
+  </si>
+  <si>
+    <t>118694661</t>
+  </si>
+  <si>
+    <t>197320908</t>
+  </si>
+  <si>
+    <t>108216600</t>
+  </si>
+  <si>
+    <t>2776801807</t>
+  </si>
+  <si>
+    <t>2780189059</t>
+  </si>
+  <si>
+    <t>123917164</t>
+  </si>
+  <si>
+    <t>89295123</t>
+  </si>
+  <si>
+    <t>15147509</t>
+  </si>
+  <si>
+    <t>192392207</t>
+  </si>
+  <si>
+    <t>2780816530</t>
+  </si>
+  <si>
+    <t>155987862</t>
+  </si>
+  <si>
+    <t>38774213</t>
+  </si>
+  <si>
+    <t>2775966360</t>
+  </si>
+  <si>
+    <t>198979508</t>
+  </si>
+  <si>
+    <t>54625482</t>
+  </si>
+  <si>
+    <t>154702282</t>
   </si>
   <si>
     <t>2780696901</t>
   </si>
   <si>
+    <t>63651461</t>
+  </si>
+  <si>
+    <t>2778361644</t>
+  </si>
+  <si>
+    <t>97137747</t>
+  </si>
+  <si>
+    <t>2777106113</t>
+  </si>
+  <si>
+    <t>2776554196</t>
+  </si>
+  <si>
+    <t>53002841</t>
+  </si>
+  <si>
+    <t>59804570</t>
+  </si>
+  <si>
+    <t>121850381</t>
+  </si>
+  <si>
+    <t>59898753</t>
+  </si>
+  <si>
+    <t>156086215</t>
+  </si>
+  <si>
+    <t>154575652</t>
+  </si>
+  <si>
+    <t>2777472530</t>
+  </si>
+  <si>
+    <t>93944068</t>
+  </si>
+  <si>
+    <t>28631016</t>
+  </si>
+  <si>
+    <t>139518226</t>
+  </si>
+  <si>
+    <t>2777387638</t>
+  </si>
+  <si>
+    <t>126914827</t>
+  </si>
+  <si>
+    <t>2776054349</t>
+  </si>
+  <si>
+    <t>2776107028</t>
+  </si>
+  <si>
+    <t>107394435</t>
+  </si>
+  <si>
+    <t>2780528068</t>
+  </si>
+  <si>
+    <t>31568149</t>
+  </si>
+  <si>
+    <t>555313981</t>
+  </si>
+  <si>
+    <t>23519681</t>
+  </si>
+  <si>
+    <t>2776278397</t>
+  </si>
+  <si>
+    <t>2776500793</t>
+  </si>
+  <si>
+    <t>2777380357</t>
+  </si>
+  <si>
+    <t>2780946806</t>
+  </si>
+  <si>
+    <t>126589399</t>
+  </si>
+  <si>
+    <t>2779004245</t>
+  </si>
+  <si>
+    <t>2776978901</t>
+  </si>
+  <si>
+    <t>2778625682</t>
+  </si>
+  <si>
     <t>201401522</t>
   </si>
   <si>
-    <t>91354502</t>
-  </si>
-  <si>
-    <t>59898753</t>
-  </si>
-  <si>
-    <t>93944068</t>
+    <t>152491559</t>
+  </si>
+  <si>
+    <t>182124840</t>
+  </si>
+  <si>
+    <t>33411773</t>
+  </si>
+  <si>
+    <t>33283694</t>
+  </si>
+  <si>
+    <t>532801124</t>
+  </si>
+  <si>
+    <t>2619416</t>
+  </si>
+  <si>
+    <t>2776285232</t>
+  </si>
+  <si>
+    <t>2776562576</t>
+  </si>
+  <si>
+    <t>2777399377</t>
+  </si>
+  <si>
+    <t>2777707638</t>
+  </si>
+  <si>
+    <t>2781208722</t>
+  </si>
+  <si>
+    <t>116370137</t>
+  </si>
+  <si>
+    <t>173795300</t>
   </si>
   <si>
     <t>60989497</t>
   </si>
   <si>
-    <t>2777707638</t>
-  </si>
-  <si>
-    <t>64229544</t>
-  </si>
-  <si>
-    <t>15147509</t>
-  </si>
-  <si>
-    <t>2775999090</t>
-  </si>
-  <si>
-    <t>2776554196</t>
-  </si>
-  <si>
-    <t>198979508</t>
-  </si>
-  <si>
-    <t>182124840</t>
-  </si>
-  <si>
-    <t>2778625682</t>
-  </si>
-  <si>
-    <t>2780816530</t>
-  </si>
-  <si>
-    <t>2776801807</t>
+    <t>126408429</t>
+  </si>
+  <si>
+    <t>24518262</t>
+  </si>
+  <si>
+    <t>39571515</t>
+  </si>
+  <si>
+    <t>25382069</t>
+  </si>
+  <si>
+    <t>2775841215</t>
+  </si>
+  <si>
+    <t>34070608</t>
+  </si>
+  <si>
+    <t>2776492830</t>
+  </si>
+  <si>
+    <t>2776596991</t>
+  </si>
+  <si>
+    <t>62158283</t>
+  </si>
+  <si>
+    <t>119249163</t>
+  </si>
+  <si>
+    <t>147103442</t>
+  </si>
+  <si>
+    <t>150436541</t>
+  </si>
+  <si>
+    <t>2780086105</t>
+  </si>
+  <si>
+    <t>20529654</t>
+  </si>
+  <si>
+    <t>141185391</t>
   </si>
   <si>
     <t>32120771</t>
   </si>
   <si>
-    <t>150436541</t>
-  </si>
-  <si>
-    <t>2778361644</t>
-  </si>
-  <si>
-    <t>147103442</t>
-  </si>
-  <si>
-    <t>108216600</t>
-  </si>
-  <si>
-    <t>39571515</t>
-  </si>
-  <si>
-    <t>54625482</t>
-  </si>
-  <si>
-    <t>89295123</t>
-  </si>
-  <si>
-    <t>28631016</t>
-  </si>
-  <si>
-    <t>63651461</t>
-  </si>
-  <si>
-    <t>33283694</t>
-  </si>
-  <si>
-    <t>2779128174</t>
-  </si>
-  <si>
-    <t>31568149</t>
-  </si>
-  <si>
-    <t>155015343</t>
-  </si>
-  <si>
-    <t>2776500793</t>
-  </si>
-  <si>
-    <t>126589399</t>
-  </si>
-  <si>
-    <t>119249163</t>
-  </si>
-  <si>
-    <t>154575652</t>
-  </si>
-  <si>
-    <t>2776596991</t>
-  </si>
-  <si>
-    <t>24518262</t>
-  </si>
-  <si>
-    <t>2776054349</t>
-  </si>
-  <si>
-    <t>2776107028</t>
-  </si>
-  <si>
-    <t>62158283</t>
-  </si>
-  <si>
-    <t>154702282</t>
-  </si>
-  <si>
-    <t>97137747</t>
-  </si>
-  <si>
-    <t>2777399377</t>
-  </si>
-  <si>
-    <t>133382796</t>
-  </si>
-  <si>
-    <t>2777387638</t>
-  </si>
-  <si>
-    <t>2776278397</t>
-  </si>
-  <si>
-    <t>172817999</t>
-  </si>
-  <si>
-    <t>197320908</t>
-  </si>
-  <si>
-    <t>192392207</t>
-  </si>
-  <si>
-    <t>34070608</t>
-  </si>
-  <si>
-    <t>59804570</t>
-  </si>
-  <si>
-    <t>2777472530</t>
-  </si>
-  <si>
-    <t>126914827</t>
-  </si>
-  <si>
-    <t>20529654</t>
-  </si>
-  <si>
-    <t>2780528068</t>
-  </si>
-  <si>
-    <t>2780189059</t>
-  </si>
-  <si>
-    <t>25382069</t>
-  </si>
-  <si>
     <t>42731165</t>
   </si>
   <si>
-    <t>126408429</t>
-  </si>
-  <si>
-    <t>173795300</t>
-  </si>
-  <si>
-    <t>87621631</t>
-  </si>
-  <si>
-    <t>2776492830</t>
-  </si>
-  <si>
-    <t>2780086105</t>
-  </si>
-  <si>
-    <t>121850381</t>
-  </si>
-  <si>
-    <t>139518226</t>
-  </si>
-  <si>
-    <t>23519681</t>
-  </si>
-  <si>
-    <t>555313981</t>
-  </si>
-  <si>
-    <t>141185391</t>
-  </si>
-  <si>
-    <t>156086215</t>
-  </si>
-  <si>
-    <t>2775966360</t>
-  </si>
-  <si>
-    <t>2780946806</t>
-  </si>
-  <si>
-    <t>107394435</t>
-  </si>
-  <si>
-    <t>33411773</t>
-  </si>
-  <si>
-    <t>2776978901</t>
-  </si>
-  <si>
-    <t>155987862</t>
-  </si>
-  <si>
-    <t>2777106113</t>
-  </si>
-  <si>
-    <t>2776562576</t>
-  </si>
-  <si>
-    <t>118694661</t>
-  </si>
-  <si>
-    <t>53002841</t>
-  </si>
-  <si>
-    <t>2777132354</t>
-  </si>
-  <si>
-    <t>2776285232</t>
-  </si>
-  <si>
-    <t>152491559</t>
-  </si>
-  <si>
-    <t>153427425</t>
-  </si>
-  <si>
-    <t>116370137</t>
-  </si>
-  <si>
-    <t>2619416</t>
-  </si>
-  <si>
-    <t>123917164</t>
-  </si>
-  <si>
-    <t>2775841215</t>
-  </si>
-  <si>
-    <t>2781208722</t>
-  </si>
-  <si>
-    <t>2779004245</t>
-  </si>
-  <si>
-    <t>38774213</t>
-  </si>
-  <si>
-    <t>2777380357</t>
-  </si>
-  <si>
-    <t>532801124</t>
-  </si>
-  <si>
     <t>21790881</t>
   </si>
   <si>
@@ -457,387 +457,387 @@
     <t>2776266027</t>
   </si>
   <si>
+    <t>Soil conditioner</t>
+  </si>
+  <si>
+    <t>Soil compaction</t>
+  </si>
+  <si>
+    <t>Soil structure</t>
+  </si>
+  <si>
+    <t>Soil series</t>
+  </si>
+  <si>
+    <t>Soil map</t>
+  </si>
+  <si>
+    <t>World Reference Base for Soil Resources</t>
+  </si>
+  <si>
+    <t>Soil color</t>
+  </si>
+  <si>
+    <t>Soil mechanics</t>
+  </si>
+  <si>
+    <t>Soil chemistry</t>
+  </si>
+  <si>
+    <t>National Cooperative Soil Survey</t>
+  </si>
+  <si>
+    <t>Digital soil mapping</t>
+  </si>
+  <si>
+    <t>Agricultural soil science</t>
+  </si>
+  <si>
+    <t>Soil horizon</t>
+  </si>
+  <si>
+    <t>Soil pH</t>
+  </si>
+  <si>
     <t>Soil physics</t>
   </si>
   <si>
-    <t>Soil chemistry</t>
-  </si>
-  <si>
-    <t>Soil conditioner</t>
+    <t>Soil biology</t>
+  </si>
+  <si>
+    <t>Soil contamination</t>
+  </si>
+  <si>
+    <t>Soil gradation</t>
+  </si>
+  <si>
+    <t>Soil type</t>
+  </si>
+  <si>
+    <t>Soil texture</t>
+  </si>
+  <si>
+    <t>Soil Pollutants</t>
+  </si>
+  <si>
+    <t>Unified Soil Classification System</t>
+  </si>
+  <si>
+    <t>Soil microbiology</t>
+  </si>
+  <si>
+    <t>Soil carbon</t>
+  </si>
+  <si>
+    <t>Soil biodiversity</t>
+  </si>
+  <si>
+    <t>USDA soil taxonomy</t>
+  </si>
+  <si>
+    <t>Soil morphology</t>
+  </si>
+  <si>
+    <t>Soil resilience</t>
+  </si>
+  <si>
+    <t>Soil test</t>
+  </si>
+  <si>
+    <t>Soil science</t>
+  </si>
+  <si>
+    <t>Soil classification</t>
+  </si>
+  <si>
+    <t>Red soil</t>
   </si>
   <si>
     <t>Soil survey</t>
   </si>
   <si>
-    <t>Soil test</t>
+    <t>SOIL EXPOSURE</t>
   </si>
   <si>
     <t>Soil food web</t>
   </si>
   <si>
-    <t>Soil morphology</t>
-  </si>
-  <si>
-    <t>World Reference Base for Soil Resources</t>
-  </si>
-  <si>
-    <t>Digital soil mapping</t>
-  </si>
-  <si>
-    <t>Soil pH</t>
-  </si>
-  <si>
-    <t>Soil Pollutants</t>
-  </si>
-  <si>
-    <t>Soil color</t>
-  </si>
-  <si>
-    <t>Soil microbiology</t>
-  </si>
-  <si>
-    <t>Soil biodiversity</t>
-  </si>
-  <si>
-    <t>Soil structure</t>
-  </si>
-  <si>
-    <t>Soil series</t>
-  </si>
-  <si>
-    <t>SOIL EXPOSURE</t>
-  </si>
-  <si>
-    <t>Soil carbon</t>
-  </si>
-  <si>
-    <t>Unified Soil Classification System</t>
-  </si>
-  <si>
-    <t>Soil resilience</t>
-  </si>
-  <si>
-    <t>Soil type</t>
-  </si>
-  <si>
-    <t>Soil mechanics</t>
-  </si>
-  <si>
-    <t>Soil texture</t>
-  </si>
-  <si>
-    <t>Soil science</t>
-  </si>
-  <si>
-    <t>USDA soil taxonomy</t>
-  </si>
-  <si>
-    <t>Red soil</t>
-  </si>
-  <si>
-    <t>National Cooperative Soil Survey</t>
-  </si>
-  <si>
-    <t>Soil gradation</t>
-  </si>
-  <si>
-    <t>Agricultural soil science</t>
-  </si>
-  <si>
-    <t>Soil horizon</t>
-  </si>
-  <si>
-    <t>Soil classification</t>
-  </si>
-  <si>
     <t>Soil thermal properties</t>
   </si>
   <si>
-    <t>Soil compaction</t>
-  </si>
-  <si>
-    <t>Soil contamination</t>
-  </si>
-  <si>
-    <t>Soil map</t>
-  </si>
-  <si>
-    <t>Soil biology</t>
+    <t>Soil functions</t>
+  </si>
+  <si>
+    <t>Secondary forest</t>
+  </si>
+  <si>
+    <t>Habitat destruction</t>
+  </si>
+  <si>
+    <t>Taiga</t>
+  </si>
+  <si>
+    <t>Shelterwood cutting</t>
+  </si>
+  <si>
+    <t>Joint Forest Management</t>
+  </si>
+  <si>
+    <t>Plant breeding</t>
+  </si>
+  <si>
+    <t>Basal area</t>
+  </si>
+  <si>
+    <t>Scots pine</t>
+  </si>
+  <si>
+    <t>Biodiversity hotspot</t>
+  </si>
+  <si>
+    <t>Climax community</t>
+  </si>
+  <si>
+    <t>Pioneer species</t>
+  </si>
+  <si>
+    <t>Tropical and subtropical dry broadleaf forests</t>
+  </si>
+  <si>
+    <t>Pinus radiata</t>
+  </si>
+  <si>
+    <t>Soil stabilization</t>
+  </si>
+  <si>
+    <t>Bumper crop</t>
+  </si>
+  <si>
+    <t>Forest pathology</t>
+  </si>
+  <si>
+    <t>Conservation reliant species</t>
+  </si>
+  <si>
+    <t>Clearcutting</t>
+  </si>
+  <si>
+    <t>Forest protection</t>
+  </si>
+  <si>
+    <t>Selection cutting</t>
+  </si>
+  <si>
+    <t>Soil fertility</t>
+  </si>
+  <si>
+    <t>Silviculture</t>
+  </si>
+  <si>
+    <t>Forest fragmentation</t>
+  </si>
+  <si>
+    <t>Community forestry</t>
+  </si>
+  <si>
+    <t>Temperate deciduous forest</t>
   </si>
   <si>
     <t>Conventional tillage</t>
   </si>
   <si>
+    <t>Tropical agriculture</t>
+  </si>
+  <si>
+    <t>Yield gap</t>
+  </si>
+  <si>
+    <t>Forestry</t>
+  </si>
+  <si>
+    <t>Crop simulation model</t>
+  </si>
+  <si>
+    <t>Evergreen forest</t>
+  </si>
+  <si>
+    <t>Plant community</t>
+  </si>
+  <si>
+    <t>Soil governance</t>
+  </si>
+  <si>
+    <t>Certified wood</t>
+  </si>
+  <si>
+    <t>Shrubland</t>
+  </si>
+  <si>
+    <t>Soil ecology</t>
+  </si>
+  <si>
+    <t>Reforestation</t>
+  </si>
+  <si>
+    <t>Catch crop</t>
+  </si>
+  <si>
+    <t>Phytogeography</t>
+  </si>
+  <si>
+    <t>Forest management</t>
+  </si>
+  <si>
+    <t>Sclerophyll</t>
+  </si>
+  <si>
+    <t>Forestry law</t>
+  </si>
+  <si>
+    <t>Flagship species</t>
+  </si>
+  <si>
+    <t>Vegetation classification</t>
+  </si>
+  <si>
+    <t>Forest dynamics</t>
+  </si>
+  <si>
+    <t>Quadrat</t>
+  </si>
+  <si>
+    <t>Plant nutrition</t>
+  </si>
+  <si>
+    <t>Near-threatened species</t>
+  </si>
+  <si>
+    <t>Tropical rainforest</t>
+  </si>
+  <si>
+    <t>Montane ecology</t>
+  </si>
+  <si>
+    <t>Revegetation</t>
+  </si>
+  <si>
+    <t>Beech</t>
+  </si>
+  <si>
+    <t>Rainfed agriculture</t>
+  </si>
+  <si>
+    <t>Plant functional type</t>
+  </si>
+  <si>
+    <t>Umbrella species</t>
+  </si>
+  <si>
+    <t>Tilth</t>
+  </si>
+  <si>
+    <t>Tree breeding</t>
+  </si>
+  <si>
+    <t>High forest</t>
+  </si>
+  <si>
     <t>Plant cover</t>
   </si>
   <si>
-    <t>Basal area</t>
-  </si>
-  <si>
-    <t>Shrubland</t>
-  </si>
-  <si>
-    <t>Phytogeography</t>
+    <t>Macroecology</t>
+  </si>
+  <si>
+    <t>Soil organic matter</t>
+  </si>
+  <si>
+    <t>Bulk soil</t>
+  </si>
+  <si>
+    <t>Deciduous</t>
+  </si>
+  <si>
+    <t>Crop protection</t>
+  </si>
+  <si>
+    <t>Rainforest</t>
+  </si>
+  <si>
+    <t>Tropical forest</t>
+  </si>
+  <si>
+    <t>Plant strategies</t>
+  </si>
+  <si>
+    <t>DSSAT</t>
+  </si>
+  <si>
+    <t>Vascular plant</t>
+  </si>
+  <si>
+    <t>Intercropping</t>
+  </si>
+  <si>
+    <t>No-till farming</t>
+  </si>
+  <si>
+    <t>Salvage logging</t>
   </si>
   <si>
     <t>Red List Index</t>
   </si>
   <si>
-    <t>Vascular plant</t>
-  </si>
-  <si>
-    <t>Habitat destruction</t>
-  </si>
-  <si>
-    <t>Conservation reliant species</t>
-  </si>
-  <si>
-    <t>Joint Forest Management</t>
-  </si>
-  <si>
-    <t>Evergreen forest</t>
-  </si>
-  <si>
-    <t>Forest fragmentation</t>
-  </si>
-  <si>
-    <t>Soil organic matter</t>
-  </si>
-  <si>
-    <t>High forest</t>
-  </si>
-  <si>
-    <t>Forest protection</t>
-  </si>
-  <si>
-    <t>Pinus radiata</t>
+    <t>Soil health</t>
+  </si>
+  <si>
+    <t>Threatened species</t>
+  </si>
+  <si>
+    <t>Undergrowth</t>
+  </si>
+  <si>
+    <t>Seral community</t>
+  </si>
+  <si>
+    <t>Sustainable forest management</t>
+  </si>
+  <si>
+    <t>Cover crop</t>
+  </si>
+  <si>
+    <t>Dipterocarpaceae</t>
+  </si>
+  <si>
+    <t>Cultural methods</t>
+  </si>
+  <si>
+    <t>Species translocation</t>
+  </si>
+  <si>
+    <t>Felling</t>
+  </si>
+  <si>
+    <t>Forest inventory</t>
+  </si>
+  <si>
+    <t>Forb</t>
+  </si>
+  <si>
+    <t>Forest product</t>
+  </si>
+  <si>
+    <t>Topsoil</t>
+  </si>
+  <si>
+    <t>Soil retrogression and degradation</t>
   </si>
   <si>
     <t>Ecosystem engineer</t>
   </si>
   <si>
-    <t>Forb</t>
-  </si>
-  <si>
-    <t>Yield gap</t>
-  </si>
-  <si>
-    <t>Forest inventory</t>
-  </si>
-  <si>
-    <t>Tropical and subtropical dry broadleaf forests</t>
-  </si>
-  <si>
-    <t>Undergrowth</t>
-  </si>
-  <si>
-    <t>Community forestry</t>
-  </si>
-  <si>
-    <t>Forest pathology</t>
-  </si>
-  <si>
-    <t>Forest management</t>
-  </si>
-  <si>
-    <t>Tropical agriculture</t>
-  </si>
-  <si>
-    <t>Deciduous</t>
-  </si>
-  <si>
-    <t>Scots pine</t>
-  </si>
-  <si>
-    <t>Near-threatened species</t>
-  </si>
-  <si>
-    <t>Plant breeding</t>
-  </si>
-  <si>
-    <t>Beech</t>
-  </si>
-  <si>
-    <t>Umbrella species</t>
-  </si>
-  <si>
-    <t>Felling</t>
-  </si>
-  <si>
-    <t>Reforestation</t>
-  </si>
-  <si>
-    <t>Cultural methods</t>
-  </si>
-  <si>
-    <t>Threatened species</t>
-  </si>
-  <si>
-    <t>Vegetation classification</t>
-  </si>
-  <si>
-    <t>Forest dynamics</t>
-  </si>
-  <si>
-    <t>Species translocation</t>
-  </si>
-  <si>
-    <t>Temperate deciduous forest</t>
-  </si>
-  <si>
-    <t>Forestry</t>
-  </si>
-  <si>
-    <t>DSSAT</t>
-  </si>
-  <si>
-    <t>Secondary forest</t>
-  </si>
-  <si>
-    <t>Forestry law</t>
-  </si>
-  <si>
-    <t>Revegetation</t>
-  </si>
-  <si>
-    <t>Soil functions</t>
-  </si>
-  <si>
-    <t>Pioneer species</t>
-  </si>
-  <si>
-    <t>Clearcutting</t>
-  </si>
-  <si>
-    <t>Cover crop</t>
-  </si>
-  <si>
-    <t>Soil governance</t>
-  </si>
-  <si>
-    <t>Catch crop</t>
-  </si>
-  <si>
-    <t>Flagship species</t>
-  </si>
-  <si>
-    <t>Topsoil</t>
-  </si>
-  <si>
-    <t>Plant nutrition</t>
-  </si>
-  <si>
-    <t>Soil stabilization</t>
-  </si>
-  <si>
-    <t>Seral community</t>
-  </si>
-  <si>
     <t>Environmental soil science</t>
   </si>
   <si>
-    <t>Soil health</t>
-  </si>
-  <si>
-    <t>Salvage logging</t>
-  </si>
-  <si>
-    <t>Taiga</t>
-  </si>
-  <si>
-    <t>Dipterocarpaceae</t>
-  </si>
-  <si>
-    <t>Forest product</t>
-  </si>
-  <si>
-    <t>Certified wood</t>
-  </si>
-  <si>
-    <t>Sclerophyll</t>
-  </si>
-  <si>
-    <t>Montane ecology</t>
-  </si>
-  <si>
-    <t>Tropical rainforest</t>
-  </si>
-  <si>
-    <t>Soil retrogression and degradation</t>
-  </si>
-  <si>
-    <t>Soil ecology</t>
-  </si>
-  <si>
-    <t>Silviculture</t>
-  </si>
-  <si>
-    <t>Plant functional type</t>
-  </si>
-  <si>
-    <t>Quadrat</t>
-  </si>
-  <si>
-    <t>Bulk soil</t>
-  </si>
-  <si>
-    <t>Tree breeding</t>
-  </si>
-  <si>
-    <t>Selection cutting</t>
-  </si>
-  <si>
-    <t>Crop simulation model</t>
-  </si>
-  <si>
-    <t>Plant strategies</t>
-  </si>
-  <si>
-    <t>Climax community</t>
-  </si>
-  <si>
-    <t>Plant community</t>
-  </si>
-  <si>
-    <t>Shelterwood cutting</t>
-  </si>
-  <si>
-    <t>Tropical forest</t>
-  </si>
-  <si>
-    <t>Macroecology</t>
-  </si>
-  <si>
-    <t>Biodiversity hotspot</t>
-  </si>
-  <si>
-    <t>No-till farming</t>
-  </si>
-  <si>
-    <t>Rainforest</t>
-  </si>
-  <si>
-    <t>Bumper crop</t>
-  </si>
-  <si>
-    <t>Sustainable forest management</t>
-  </si>
-  <si>
-    <t>Intercropping</t>
-  </si>
-  <si>
-    <t>Tilth</t>
-  </si>
-  <si>
-    <t>Soil fertility</t>
-  </si>
-  <si>
-    <t>Rainfed agriculture</t>
-  </si>
-  <si>
-    <t>Crop protection</t>
-  </si>
-  <si>
     <t>Deep sea</t>
   </si>
   <si>
@@ -856,37 +856,37 @@
     <t>['8_NABS_FOS']</t>
   </si>
   <si>
-    <t>['8_NABS_FOS', '1_FP7-4-SD_edited', '4_SDGPathfinder_Keywords']</t>
+    <t>['4_SDGPathfinder_Keywords', '8_NABS_FOS', '1_FP7-4-SD_edited']</t>
   </si>
   <si>
     <t>['8_NABS_FOS', '1_FP7-4-SD_edited']</t>
   </si>
   <si>
-    <t>['4_SDGPathfinder_Keywords', '7_EC_Policy_Doc_Terms', '1_FP7-4-SD_edited', '8_NABS_FOS', '9_SIRIS_Science4SDGs']</t>
-  </si>
-  <si>
-    <t>['4_SDGPathfinder_Keywords', '7_EC_Policy_Doc_Terms', '1_FP7-4-SD_edited', '9_SIRIS_Science4SDGs', '3_SDGPathfinder_DocumentConcepts']</t>
+    <t>['9_SIRIS_Science4SDGs', '8_NABS_FOS', '7_EC_Policy_Doc_Terms', '1_FP7-4-SD_edited', '4_SDGPathfinder_Keywords']</t>
+  </si>
+  <si>
+    <t>['3_SDGPathfinder_DocumentConcepts', '9_SIRIS_Science4SDGs', '7_EC_Policy_Doc_Terms', '1_FP7-4-SD_edited', '4_SDGPathfinder_Keywords']</t>
   </si>
   <si>
     <t>['1_FP7-4-SD_edited']</t>
   </si>
   <si>
-    <t>['6_SDGIO_terms', '0_PuigOntology']</t>
-  </si>
-  <si>
-    <t>['9_SIRIS_Science4SDGs', '1_FP7-4-SD_edited', '4_SDGPathfinder_Keywords', '7_EC_Policy_Doc_Terms']</t>
+    <t>['0_PuigOntology', '6_SDGIO_terms']</t>
+  </si>
+  <si>
+    <t>['10_PPMI_fos', '0_PuigOntology', '6_SDGIO_terms']</t>
+  </si>
+  <si>
+    <t>['9_SIRIS_Science4SDGs', '4_SDGPathfinder_Keywords', '7_EC_Policy_Doc_Terms', '1_FP7-4-SD_edited']</t>
+  </si>
+  <si>
+    <t>['10_PPMI_fos', '1_FP7-4-SD_edited']</t>
   </si>
   <si>
     <t>['10_PPMI_fos']</t>
   </si>
   <si>
-    <t>['1_FP7-4-SD_edited', '10_PPMI_fos']</t>
-  </si>
-  <si>
-    <t>['6_SDGIO_terms', '10_PPMI_fos', '0_PuigOntology']</t>
-  </si>
-  <si>
-    <t>['4_SDGPathfinder_Keywords', '7_EC_Policy_Doc_Terms', '1_FP7-4-SD_edited', '9_SIRIS_Science4SDGs', '10_PPMI_fos']</t>
+    <t>['9_SIRIS_Science4SDGs', '10_PPMI_fos', '7_EC_Policy_Doc_Terms', '1_FP7-4-SD_edited', '4_SDGPathfinder_Keywords']</t>
   </si>
 </sst>
 </file>
@@ -2006,9 +2006,6 @@
       <c r="D38" t="s">
         <v>183</v>
       </c>
-      <c r="E38" t="s">
-        <v>279</v>
-      </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
@@ -2145,7 +2142,7 @@
         <v>189</v>
       </c>
       <c r="E44" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -2282,6 +2279,9 @@
       <c r="D50" t="s">
         <v>195</v>
       </c>
+      <c r="E50" t="s">
+        <v>279</v>
+      </c>
       <c r="F50" t="b">
         <v>0</v>
       </c>
@@ -2325,9 +2325,6 @@
       <c r="D52" t="s">
         <v>197</v>
       </c>
-      <c r="E52" t="s">
-        <v>279</v>
-      </c>
       <c r="F52" t="b">
         <v>0</v>
       </c>
@@ -2486,9 +2483,6 @@
       <c r="D59" t="s">
         <v>204</v>
       </c>
-      <c r="E59" t="s">
-        <v>279</v>
-      </c>
       <c r="F59" t="b">
         <v>0</v>
       </c>
@@ -2671,7 +2665,7 @@
         <v>212</v>
       </c>
       <c r="E67" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -2762,9 +2756,6 @@
       <c r="D71" t="s">
         <v>216</v>
       </c>
-      <c r="E71" t="s">
-        <v>279</v>
-      </c>
       <c r="F71" t="b">
         <v>0</v>
       </c>
@@ -2831,9 +2822,6 @@
       <c r="D74" t="s">
         <v>219</v>
       </c>
-      <c r="E74" t="s">
-        <v>279</v>
-      </c>
       <c r="F74" t="b">
         <v>0</v>
       </c>
@@ -2878,7 +2866,7 @@
         <v>221</v>
       </c>
       <c r="E76" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -3038,6 +3026,9 @@
       <c r="D83" t="s">
         <v>228</v>
       </c>
+      <c r="E83" t="s">
+        <v>279</v>
+      </c>
       <c r="F83" t="b">
         <v>0</v>
       </c>
@@ -3127,6 +3118,9 @@
       <c r="D87" t="s">
         <v>232</v>
       </c>
+      <c r="E87" t="s">
+        <v>279</v>
+      </c>
       <c r="F87" t="b">
         <v>0</v>
       </c>
@@ -3148,7 +3142,7 @@
         <v>233</v>
       </c>
       <c r="E88" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -3193,6 +3187,9 @@
       <c r="D90" t="s">
         <v>235</v>
       </c>
+      <c r="E90" t="s">
+        <v>279</v>
+      </c>
       <c r="F90" t="b">
         <v>0</v>
       </c>
@@ -3236,6 +3233,9 @@
       <c r="D92" t="s">
         <v>237</v>
       </c>
+      <c r="E92" t="s">
+        <v>279</v>
+      </c>
       <c r="F92" t="b">
         <v>0</v>
       </c>
@@ -3279,6 +3279,9 @@
       <c r="D94" t="s">
         <v>239</v>
       </c>
+      <c r="E94" t="s">
+        <v>279</v>
+      </c>
       <c r="F94" t="b">
         <v>0</v>
       </c>
@@ -3299,6 +3302,9 @@
       <c r="D95" t="s">
         <v>240</v>
       </c>
+      <c r="E95" t="s">
+        <v>279</v>
+      </c>
       <c r="F95" t="b">
         <v>0</v>
       </c>
@@ -3388,9 +3394,6 @@
       <c r="D99" t="s">
         <v>244</v>
       </c>
-      <c r="E99" t="s">
-        <v>279</v>
-      </c>
       <c r="F99" t="b">
         <v>0</v>
       </c>
@@ -3411,9 +3414,6 @@
       <c r="D100" t="s">
         <v>245</v>
       </c>
-      <c r="E100" t="s">
-        <v>279</v>
-      </c>
       <c r="F100" t="b">
         <v>0</v>
       </c>
@@ -3503,6 +3503,9 @@
       <c r="D104" t="s">
         <v>249</v>
       </c>
+      <c r="E104" t="s">
+        <v>279</v>
+      </c>
       <c r="F104" t="b">
         <v>0</v>
       </c>
@@ -3523,6 +3526,9 @@
       <c r="D105" t="s">
         <v>250</v>
       </c>
+      <c r="E105" t="s">
+        <v>279</v>
+      </c>
       <c r="F105" t="b">
         <v>0</v>
       </c>
@@ -3590,7 +3596,7 @@
         <v>253</v>
       </c>
       <c r="E108" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
@@ -3612,6 +3618,9 @@
       <c r="D109" t="s">
         <v>254</v>
       </c>
+      <c r="E109" t="s">
+        <v>279</v>
+      </c>
       <c r="F109" t="b">
         <v>0</v>
       </c>
@@ -3678,9 +3687,6 @@
       <c r="D112" t="s">
         <v>257</v>
       </c>
-      <c r="E112" t="s">
-        <v>279</v>
-      </c>
       <c r="F112" t="b">
         <v>0</v>
       </c>
@@ -3955,7 +3961,7 @@
         <v>269</v>
       </c>
       <c r="E124" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F124" t="b">
         <v>0</v>
@@ -3977,9 +3983,6 @@
       <c r="D125" t="s">
         <v>270</v>
       </c>
-      <c r="E125" t="s">
-        <v>279</v>
-      </c>
       <c r="F125" t="b">
         <v>0</v>
       </c>
@@ -4042,9 +4045,6 @@
       </c>
       <c r="D128" t="s">
         <v>273</v>
-      </c>
-      <c r="E128" t="s">
-        <v>279</v>
       </c>
       <c r="F128" t="b">
         <v>0</v>
@@ -4084,10 +4084,10 @@
         <v>14</v>
       </c>
       <c r="C130" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D130" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E130" t="s">
         <v>284</v>
@@ -4107,10 +4107,10 @@
         <v>14</v>
       </c>
       <c r="C131" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="D131" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="E131" t="s">
         <v>285</v>
@@ -4130,13 +4130,13 @@
         <v>14</v>
       </c>
       <c r="C132" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D132" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E132" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F132" t="b">
         <v>1</v>
@@ -4153,13 +4153,13 @@
         <v>14</v>
       </c>
       <c r="C133" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="D133" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="E133" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F133" t="b">
         <v>1</v>
@@ -4176,10 +4176,10 @@
         <v>14</v>
       </c>
       <c r="C134" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D134" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E134" t="s">
         <v>285</v>
@@ -4199,13 +4199,13 @@
         <v>14</v>
       </c>
       <c r="C135" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="D135" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="E135" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F135" t="b">
         <v>1</v>
@@ -4222,13 +4222,13 @@
         <v>14</v>
       </c>
       <c r="C136" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D136" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E136" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F136" t="b">
         <v>1</v>
@@ -4245,13 +4245,13 @@
         <v>14</v>
       </c>
       <c r="C137" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D137" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="E137" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F137" t="b">
         <v>1</v>
@@ -4268,10 +4268,10 @@
         <v>14</v>
       </c>
       <c r="C138" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="D138" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="E138" t="s">
         <v>285</v>
@@ -4291,13 +4291,13 @@
         <v>14</v>
       </c>
       <c r="C139" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="D139" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="E139" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F139" t="b">
         <v>1</v>
@@ -4314,13 +4314,13 @@
         <v>14</v>
       </c>
       <c r="C140" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="D140" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="E140" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F140" t="b">
         <v>1</v>
@@ -4337,13 +4337,13 @@
         <v>14</v>
       </c>
       <c r="C141" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D141" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E141" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F141" t="b">
         <v>1</v>
@@ -4360,13 +4360,13 @@
         <v>14</v>
       </c>
       <c r="C142" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="D142" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="E142" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F142" t="b">
         <v>1</v>
@@ -4406,13 +4406,13 @@
         <v>14</v>
       </c>
       <c r="C144" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D144" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="E144" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F144" t="b">
         <v>1</v>
